--- a/Java virtual machine/java虚拟机.xlsx
+++ b/Java virtual machine/java虚拟机.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="java虚拟机运行时数据区" sheetId="1" r:id="rId1"/>
     <sheet name="垃圾收集器与内存分配策略" sheetId="2" r:id="rId2"/>
+    <sheet name="高效并发" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
   <si>
     <t>数据区名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,12 +469,661 @@
     <t>G1收集器运行示意图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>处理器、高速缓存、主内存间的交互关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java内存模型：线程、主内存、工作内存三者的交互关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存间交互操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存间交互操作：即一个变量如何从主内存拷贝到工作内存、如何从工作内存同步回主内存之类的实现细节，java内存模型中定义了一下8中操作完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock（锁定）：作用于主内存的变量，它把一个变量标识为一条线程独占的状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock（解锁）：作用于主内存的变量，它把一个处于锁定状态的变量释放出来，释放后的变量才可以被其他线程锁定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read（读取）：作用于主内存的变量，它把一个变量的值从主内存传输到线程的工作内存中，以便随后的load动作使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load（载入）：作用于工作内存的变量，它把read操作从主内存中得到的变量值放入工作内存的变量副本中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use（使用）：作用于工作内存的变量，它把工作内存中一个变量的值传递给执行引擎，每当虚拟机遇到一个需要使用到变量的值的自己吗指令时将会执行这个操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign（赋值）：作用于工作内存的变量，它把一个从执行引擎接收到的值赋给工作内存的变量，每当虚拟机遇到一个给变量赋值的字节码指令时执行这个操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store（存储）：作用于工作内存的变量，它把工作内存中一个变量的值传送到主内存中，一边随后的write操作使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write（写入）：作用于主内存的变量，它把store操作从工作内存中得到的变量的值放入主内存的变量中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java内存模型执行8中交互操作的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许read和load、store和write操作之一单独出现，即不允许一个变量从主内存读取了但工作内存不接受，或者从工作内存发起回写了但主内存不接受的情况出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许一个线程丢弃它的最近的assign操作，即变量在工作内存中改变了之后必须把该变化同步回主内存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许一个线程无原因地（没有发生过任何assign操作）把数据从线程的工作内存同步回主内存中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个新的变量只能在主内存中“诞生”，不允许在工作内存中直接使用一个未被初始化（load或assign）的变量，换句话说，就是对一个变量实施use、store操作之前，必须先执行过了assign和load操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个变量在同一个时刻只允许一条线程对其进行lock操作，但lock操作可以被同一条线程重复执行多次，多次执行lock后，只有执行相同次数的unlock操作，变量才会被解锁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果对一个变量执行lock操作，那将会清空工作内存中此变量的值，在执行引擎使用这个变量钱，需要重新执行load或assign操作初始化变量的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个变量实现没有被lock锁定，那就不允许对它执行unlock操作，也不允许去unlock一个被其他线程锁定住的变量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个变量执行unlock操作之前，必须先把此变量同步回主内存中（执行store、write操作）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java内存模型中对volatile变玲定义的特殊规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提条件：假定T标识一个线程，V和W分别标识两个volatile型变量，那么在进行read、load、use、assign、store和write操作时需要满足如下规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当线程T对变量V执行的前一个动作是load的时候，线程T才能对变量V执行use动作；并且，只有当线程T对变量V执行的后一个动作是use的时候，线程T才能对变量V执行load操作。线程T对变量V的use动作可以认为是和线程T对变量V的load、read动作相关联，必须连续一起出现（这条规则要求在工作内存中，每次使用V前都必须先从主内存刷新最新的值，用于保证能看见其他线程对变量V所做的修改后的值）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当线程T对变量V执行的前一个动作是assign的时候，线程T才能对变量V执行store动作；并且，只有当线程T对变量V执行的后一个动作是store的时候，线程T才能对变量V执行assign动作。线程T对变量V的assign动作可以认为是和线程T对变量V的store、write动作相关联，必须连续一起出现（这条规则要求在工作内存中每次修改V后都必须立刻同步回主内存中，用于保证其他线程可以看到自己对变量V所做的修改）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定动作A是线程T对变量V实施的use活assign动作，假定动作F是和动作A相关联的load或store动作，假定动作P是和动作F响应的对变量V的read或write动作；类似的，假定动作B是线程T对变量W实施的use或assign动作，假定动作G是和动作B相关联的load或sotre动作，假定动作Q是和动作G响应的对变量W的read或read操作。如果A先于B，那么P先于Q（这条规则要求volatile修饰的变量不会指令重排序优化，保证代码的执行顺序与程序的顺序相同）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子性、可见性与有序性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原子性（Atomicity）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由java内存模型来直接保证的原子性变量操作包括read、load、assign、use、store、write，我们大致可以认为基本数据类型的访问读写是具备原子性的（例外就是long和double的非原子性协定）。
+如果应用场景需要一个更大范围的原子性保证，java内存模型还提供了lock和unlock操作来满足这种需求，尽管虚拟机未把lock和unlock操作直接开放给用户使用，但是却提供了更高层次的字节码指令monitorenter和monitorexit来隐式地使用这两个操作，这两个字节码指令反映到java代码终究是同步块——synchronized关键字，因此在synchronized块之间的操作也具备原子性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有序性（Ordering）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果在本线程内观察，所有的操作都是有序的；如果在一个线程中观察另一个线程，所有的操作都是无序的。前半句是指“线程内表现为串行的语义”，后半句是指“指令重排序”现象和“工作内存与主内存同步延迟”现象。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先行发生原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先行发生原则：先行发生是java内存模型中定义的两项操作之间的偏序关系，如果说操作A先行发生于操作B，其实就是说在发生操作B之前，操作A产生的印象能被操作B观察到，“影响”包括修改了内存中共享变量的值、发送了消息、调用了方法等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可见性（Visibility）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可见性是指当一个线程修改了共享变量的值，其他线程能够立即得知这个修改。
+Volatile的特殊规则保证了新值能立即同步到主内存，以及每次使用前立即从主内存刷新。可以说volatile保证了多线程操作时变量的可见性。除了volatile之外，java还有两个关键字能实现可见性，即synchronized和final。
+同步块的可见性是由“对一个变量执行unlock操作之前，必须先把此变量同步回主内存中（执行store、write操作）”这条规则获得的
+final修饰的字段在构造器中一旦初始化完成，并且构造器没有把“this”的引用传递出去（this引用逃逸是一件很危险的事情，其他线程有可能通过这个引用访问到“初始化了一半”的对象），那在其他线程中就能看见final字段的值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java内存模型下一些“天然的”先行发生关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程序次序规则（ProgramOrder Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在一个线程内，按照程序代码顺序，书写在前面的操作先行发生于书写在后面的操作。准确地说，应该是控制流顺序而不是程序代码顺序，因为要考虑分支、循环等结构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管程锁定规则（Monitor Lock Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个unlock操作先行发生于后面对同一个锁的lock操作。这里必须强调是同一个锁，而“后面”是指时间上的先后顺序。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volatile变量规则（Volatile Variable Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对一个volatile变量的写操作先行发生于后面对这个变量的读操作，这里的“后面”同样是指时间上的先后顺序。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程启动规则（Thread Start Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread对象的start()方法先行发生于此线程的每一个动作。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程终止规则（Thread Start Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程中的所有操作都先行发生于对此线程的终止检测，我们可以通过Thread.join()方法结束、Thread.isAlive()的返回值等手段检测到线程已经终止执行。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程中断规则（Thread Termination Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对线程interrupt()方法的调用先行发生于被中断线程的代码检测到中断事件的发生，可以通过Thread.interrupted()方法检测到是否有中断发生。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象终结规则（Finalizer Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个对象的初始化完成（构造函数执行结束）先行发生于它的finalize()方法的开始。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传递性（Transitivity）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果操作A先行发生于操作B，操作B先行发生于操作C，那就可以得出操作A先行发生于操作C的结论。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLT：内核线程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LWP：轻量级进程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用内核线程实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻量级进程与内核线程之间1:1的关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT：用户线程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用用户线程实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程与用户线程之间1：N的关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用用户线程加轻量级进程混合实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户线程与轻量级进程之间N：M的关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java线程调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java线程调度是指系统为线程分配处理器使用权的过程，主要调度方式有两种，分别是协同式线程调度（Cooperative Threads-Scheduling）和抢占式线程调度（Preemptive Thread-Scheduling）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同式调度：线程的执行时间由线程本身来控制，线程把自己的工作执行完了之后，要主动通知系统切换到另外一个线程上。协同式多线程的最大好处是实现简单，而且由于线程要把自己的事情干完后才会进行线程切换，切换操作对县城自己是可知的，所以没有什么线程同步的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢占式调度：每个线程将由系统来分配执行时间，线程的切换不由线程本身来决定。在这种实现线程的调度的方式下，线程的执行时间是系统可控的，也不会有一个线程导致整个进程阻塞的问题，java使用的线程调度方式就是抢占式调度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java语言定义了5种线程状态，在任意一个时间点，一个线程只能有且只有其中的一种状态，5中状态分别如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有设置Timeout参数的Object.wait()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有设置Timeout参数的Thread.join()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockSupport.park()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread.sleep()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了Timeout参数的Object.wait()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了Timeout参数的Thread.join()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockSupport.parkNanos()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockSupport.parkUntil()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结束（Terminated）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已终止线程的线程状态，线程已经结束执行。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阻塞（Blocked）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程被阻塞了，“阻塞状态”与“等待状态”的区别是：“阻塞状态”在等待着获取到一个排他锁，这个时间将在另外一个线程放弃这个锁的时候发生；而“等待状态”则是在等待着一段时间，或者唤醒动作的发生。在程序等待进入同步区域的时候，线程将进入这种状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限期等待（Timed Waiting）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处于这种状态的线程也不会被分配CPU执行时间，不过无序等待被其他线程显示地唤醒，在一定时间之后它们会由系统自动唤醒。以下方法会让线程进入限期等待状态：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无限期等待（Waiting）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处于这种状态的线程不会被分配CPU执行时间，它们要等待被其他线程显示地唤醒。一下方法会让线程陷于无限期的等待状态：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行（Runnable）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Runnable包括了操作系统线程状态中的Running和Ready，也就是处于此状态的线程有可能正在执行，也有可能正在等待着CPU为它分配执行时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新建（New）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建后尚未启动的线程处于这种状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程状态转换关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +1159,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -617,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -652,6 +1310,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -670,18 +1340,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -847,27 +1513,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -896,6 +1549,219 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>101</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3371850</xdr:colOff>
+          <xdr:row>115</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>3305175</xdr:colOff>
+          <xdr:row>133</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>137</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2752725</xdr:colOff>
+          <xdr:row>151</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -946,21 +1812,21 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>3371850</xdr:colOff>
-          <xdr:row>115</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2053" name="Object 5" hidden="1">
+            <xdr:cNvPr id="3075" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2053"/>
+                  <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1010,22 +1876,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>3305175</xdr:colOff>
-          <xdr:row>133</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>134</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2054" name="Object 6" hidden="1">
+            <xdr:cNvPr id="3076" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2054"/>
+                  <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1075,22 +1941,152 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2752725</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>152</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2055" name="Object 7" hidden="1">
+            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2055"/>
+                  <a14:compatExt spid="_x0000_s3077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>158</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>172</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>216</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>230</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3079" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1427,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K2:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1605,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView showGridLines="0" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,13 +2615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1673,13 +2669,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1759,24 +2755,24 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -1812,21 +2808,21 @@
       <c r="E19" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="51" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -1933,61 +2929,61 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="23"/>
+      <c r="B100" s="14"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B118" s="23"/>
+      <c r="B118" s="14"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B136" s="23"/>
+      <c r="B136" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A51:D51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,4 +3143,892 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P215"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="I236" sqref="I236"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+    </row>
+    <row r="59" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+    </row>
+    <row r="61" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+    </row>
+    <row r="73" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+    </row>
+    <row r="75" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A78" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="80" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+    </row>
+    <row r="81" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+    </row>
+    <row r="83" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A86" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="88" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A90" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+    </row>
+    <row r="92" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+    </row>
+    <row r="93" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A94" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A96" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A98" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+    </row>
+    <row r="101" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+    </row>
+    <row r="103" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A104" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A106" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A109" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
+      <c r="K177" s="25"/>
+      <c r="L177" s="25"/>
+      <c r="M177" s="25"/>
+      <c r="N177" s="25"/>
+      <c r="O177" s="25"/>
+      <c r="P177" s="25"/>
+    </row>
+    <row r="179" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="25"/>
+      <c r="M179" s="25"/>
+      <c r="N179" s="25"/>
+      <c r="O179" s="25"/>
+      <c r="P179" s="25"/>
+    </row>
+    <row r="180" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="25"/>
+      <c r="H181" s="25"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="25"/>
+      <c r="K181" s="25"/>
+      <c r="L181" s="25"/>
+      <c r="M181" s="25"/>
+      <c r="N181" s="25"/>
+      <c r="O181" s="25"/>
+      <c r="P181" s="25"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A183" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A187" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A189" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A191" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B193" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B195" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B197" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="25"/>
+      <c r="E199" s="25"/>
+      <c r="F199" s="25"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="25"/>
+      <c r="I199" s="25"/>
+      <c r="J199" s="25"/>
+      <c r="K199" s="25"/>
+      <c r="L199" s="25"/>
+      <c r="M199" s="25"/>
+      <c r="N199" s="25"/>
+      <c r="O199" s="25"/>
+      <c r="P199" s="25"/>
+    </row>
+    <row r="200" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B201" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B203" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B205" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B207" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B209" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="25"/>
+      <c r="H211" s="25"/>
+      <c r="I211" s="25"/>
+      <c r="J211" s="25"/>
+      <c r="K211" s="25"/>
+      <c r="L211" s="25"/>
+      <c r="M211" s="25"/>
+      <c r="N211" s="25"/>
+      <c r="O211" s="25"/>
+      <c r="P211" s="25"/>
+    </row>
+    <row r="212" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A213" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A215" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A199:P199"/>
+    <mergeCell ref="A211:P211"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A177:P177"/>
+    <mergeCell ref="A181:P181"/>
+    <mergeCell ref="A179:P179"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A60:P60"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3075" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3075" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3076" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>134</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3076" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3077" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>140</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>152</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3077" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3078" r:id="rId12">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>158</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>172</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3078" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3079" r:id="rId14">
+          <objectPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>216</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>230</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3079" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/Java virtual machine/java虚拟机.xlsx
+++ b/Java virtual machine/java虚拟机.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="java虚拟机运行时数据区" sheetId="1" r:id="rId1"/>
-    <sheet name="垃圾收集器与内存分配策略" sheetId="2" r:id="rId2"/>
-    <sheet name="高效并发" sheetId="3" r:id="rId3"/>
+    <sheet name="自动内存管理机制" sheetId="2" r:id="rId2"/>
+    <sheet name="虚拟机执行子系统" sheetId="4" r:id="rId3"/>
+    <sheet name="高效并发" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="286">
   <si>
     <t>数据区名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,18 +503,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use（使用）：作用于工作内存的变量，它把工作内存中一个变量的值传递给执行引擎，每当虚拟机遇到一个需要使用到变量的值的自己吗指令时将会执行这个操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assign（赋值）：作用于工作内存的变量，它把一个从执行引擎接收到的值赋给工作内存的变量，每当虚拟机遇到一个给变量赋值的字节码指令时执行这个操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>store（存储）：作用于工作内存的变量，它把工作内存中一个变量的值传送到主内存中，一边随后的write操作使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>write（写入）：作用于主内存的变量，它把store操作从工作内存中得到的变量的值放入主内存的变量中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果对一个变量执行lock操作，那将会清空工作内存中此变量的值，在执行引擎使用这个变量钱，需要重新执行load或assign操作初始化变量的值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果一个变量实现没有被lock锁定，那就不允许对它执行unlock操作，也不允许去unlock一个被其他线程锁定住的变量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,10 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>java内存模型中对volatile变玲定义的特殊规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前提条件：假定T标识一个线程，V和W分别标识两个volatile型变量，那么在进行read、load、use、assign、store和write操作时需要满足如下规则：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +552,6 @@
   </si>
   <si>
     <t>只有当线程T对变量V执行的前一个动作是assign的时候，线程T才能对变量V执行store动作；并且，只有当线程T对变量V执行的后一个动作是store的时候，线程T才能对变量V执行assign动作。线程T对变量V的assign动作可以认为是和线程T对变量V的store、write动作相关联，必须连续一起出现（这条规则要求在工作内存中每次修改V后都必须立刻同步回主内存中，用于保证其他线程可以看到自己对变量V所做的修改）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假定动作A是线程T对变量V实施的use活assign动作，假定动作F是和动作A相关联的load或store动作，假定动作P是和动作F响应的对变量V的read或write动作；类似的，假定动作B是线程T对变量W实施的use或assign动作，假定动作G是和动作B相关联的load或sotre动作，假定动作Q是和动作G响应的对变量W的read或read操作。如果A先于B，那么P先于Q（这条规则要求volatile修饰的变量不会指令重排序优化，保证代码的执行顺序与程序的顺序相同）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1116,6 +1097,1005 @@
   </si>
   <si>
     <t>线程状态转换关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全与锁优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程安全：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当多个线程访问一个对象时，如果不用考虑这些线程在运行时环境下的调度和交替执行，也不需要进行额外的同步，或者在调用方进行任何其他的协调操作，调用这个对象的行为都可以获得正确的结果，那这个对象是线程安全的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java语言中的线程安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不可变：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不可变的对象一定是线程安全的，无论是对象的方法实现还是方法的调用者，都不需要再采取任何的线程安全保障措施。“不可变”带来的安全性是最简单和最纯粹的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝对线程安全：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完全满足给出的线程安全的定义。这个定义其实是很严格的，一个类要达到“不管运行时环境如何，调用者都不需要任何额外的同步措施”通常需要付出很大的，甚至有时候是不切实际的代价。在java API中标注自己是线程安全的类，大多数都不是绝对的线程安全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对线程安全：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是我们通常意义上所讲的线程安全，它需要保证对这个对象单独的操作是线程安全的，我们在调用的时候不需要做额外的保障措施，但是对于一些特定顺序的连续调用，就可能需要再调用端使用额外的同步手段来保证调用的正确性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程兼容：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指对象本身并不是线程安全的，但是可以通过在调用端正确地使用同步手段来保证对象在并发环境中可以安全地使用，我们平常说一个类不是线程安全的，绝大多数时候指的是这一种情况。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程对立：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指无论调用端是否采取了同步措施，都无法在多线程环境中并发使用的代码。由于java语言天生就具备多线程特性，线程对立这种排斥多线程的代码是很少出现的，而且通常都是有害的，应当尽量避免。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全的实现方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>互斥同步：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是最常见的一种并发正确性保障手段。同步是指在多个线程并发访问共享数据时，保证共享数据在同一个时刻只被一个（或者是一些，使用信号量的时候）线程使用。而互斥是实现同步的一种手段，临界区、互斥量和信号量都是主要的互斥实现方式。因此，在这4个字里面，互斥是因，同步是果；互斥是方法，同步是目的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非阻塞同步：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于冲突检测的乐观并发策略，通俗地说，就是先进行操作，如果没有其他线程征用共享数据，那操作就成功了；如果共享数据有争用，产生了冲突，那就再采取其他的不长措施（最常见的补偿措施就是不断地重试，知道成功为止），这种乐观的并发策略的许多实现都不需要把线程挂起，因此这种同步操作称为非阻塞同步。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无同步方案：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要保证线程安全，并不是一定要进行线程同步，两者没有因果关系。同步只是保证共享数据争用时的正确性的手段，如果一个方法本来就不涉及共享数据，那它自然就无须任何同步措施去保证正确性，因此会有一些代码天生就是线程安全的，如以下两类。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可重入代码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这种代码也叫纯代码，可以在代码执行的任何时刻中断它，转而去执行另外一段代码（包括递归调用它本身），而在控制权返回后，原来的程序不会出现任何错误。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程本地存储：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果一段代码中所需要的数据必须与其他代码共享，那就看看这些共享数据的代码是否能保证在统一个线程中执行？如果能保证，我们就可以把共享数据的可见范围限制在同一个线程之内，这样，无须同步也能保证线程之间不出现数据争用的问题。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋锁与自适应自旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自旋锁：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为了让线程等待，我们只需要让线程执行一个忙循环（自旋），这项技术就是所谓的自旋锁。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自适应自旋锁：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自适应意味着自旋的时间不再固定了，而是由前一次在同一个锁上的自旋时间及锁的拥有者的状态来决定。如果在一个锁对象上，自旋等待刚刚成功获得过锁，并且持有锁的线程正在运行中，那么虚拟机就会认为这次自旋也很有可能再次成功，进而它将允许自旋等待持续相对更长的时间。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁消除：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是指虚拟机即时编译器在运行时，对一些代码上要求同步，但是被检测到不可能存在共享数据竞争的锁进行消除。锁消除的主要判定依据来源于逃逸分析的数据支持，如果判断在一段代码中，堆上的所有数据都不会逃逸出去从而被其他线程访问到，那就可以把它们当做栈上数据对待，认为它们是线程私有的，同步加锁自然无须进行。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁粗化：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果虚拟机探测到有这样一串零碎的操作都对同一个对象加锁，将会把加锁同步的范围扩展（粗化）到整个操作序列的外部，这样只需要加锁一次就可以了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轻量级锁：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“轻量级”是相对于使用操作系统互斥量来实现的传统锁而言的，因此传统锁的锁机制就称为“重量级”锁。轻量级锁并不是来代替重量级锁的，它的本意是在没有多线程竞争的前提下，减少传统的重量级锁使用操作系统互斥量产生的性能消耗。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偏向锁：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目的是消除数据在无竞争情况下的同步原语，进一步提高程序的运行性能。如果说轻量级锁是在无竞争的情况下使用CAS操作去消除同步使用的互斥量，那偏向锁就是在无竞争的情况下把整个同步都消除，连CAS操作都不做。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use（使用）：作用于工作内存的变量，它把工作内存中一个变量的值传递给执行引擎，每当虚拟机遇到一个需要使用到变量的值的字节码指令时将会执行这个操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store（存储）：作用于工作内存的变量，它把工作内存中一个变量的值传送到主内存中，以便随后的write操作使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果对一个变量执行lock操作，那将会清空工作内存中此变量的值，在执行引擎使用这个变量前，需要重新执行load或assign操作初始化变量的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java内存模型中对volatile变量定义的特殊规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定动作A是线程T对变量V实施的use活assign动作，假定动作F是和动作A相关联的load或store动作，假定动作P是和动作F响应的对变量V的read或write动作；类似的，假定动作B是线程T对变量W实施的use或assign动作，假定动作G是和动作B相关联的load或sotre动作，假定动作Q是和动作G响应的对变量W的read或write操作。如果A先于B，那么P先于Q（这条规则要求volatile修饰的变量不会指令重排序优化，保证代码的执行顺序与程序的顺序相同）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾收集器与内存分配策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存分配与回收策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象优先在Eden分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大多数情况下，对象在新生代Eden区中分配。当Eden区没有足够空间进行分配时，虚拟机将发起一次Minor GC。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大对象直接进入老年代：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大对象是指需要大量连续内存空间的java对象，最典型的就是那种很长的字符串以及数组。虚拟机提供了一个-XX:PretenureSizeThreshold参数，另大于这个设置值的对象直接在老年代分配。这样做的目的是指避免在Eden区及两个Survivor区之间发生大量的内存复制。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长期存活的对象将进入老年代：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚拟机既然采用了分代收集的思想来管理内存，那么内存回收时必须能识别哪些对象应该放在新生代，哪些对象应该放在老年代中。为了做到这点，虚拟机给每个对象定义了一个对象年龄（Age）计数器。如果对象在Eden出生并经过第一次Minor GC后仍然存活，并且能被Survivor容纳的话，将被移动到Survivor空间中，并且对象年龄设为1.对象在Survivor区中每“熬过”一次Minor GC，年龄就增加1岁，当它的年龄增加到一定程度（默认为15岁），就将会被晋升到老年代中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态对象年龄判定：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为了能更好地适应不同程序的内存状况，虚拟机并不是永远地要求对象的年龄必须达到了MaxTenuringThreshold才能晋升老年代，如果Survivor空间中相同年龄所有对象大小的综合大于Survivor空间的一半，年龄大于或等于该年龄的对象就可以直接进入老年代，无须等到MaxTenuringThreshold中要求的年龄。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>空间分配担保：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在发生Minor GC之前，虚拟机会先检查老年代最大可用的连续空间是否大于新生代所有对象的总空间，如果这个条件成立，那么Minor GC可以确保是安全的。如果不成立，则虚拟机会查看HandlePromotionFailure设置值是否允许担保失败。如果允许，那么会继续检查老年代最大可用的连续空间是否大于历次晋升到老年代对象的平均水平，如果大于，将尝试着进行一次Minor GC，尽管这次Minor GC是有风险的；如果小于，或者HandlePromotionFailure设置不允许冒险，那这时也要改为进行一次Full GC。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机类加载机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机把描述类的数据从Class文件加载到内存，并对数据进行校验、转换解析和初始化，最终形成可以被虚拟机直接使用的java类型，这就是虚拟机的类加载机制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图中，加载、验证、准备、初始化和卸载这5个阶段的顺序是确定的，类的加载过程必须按照这种顺序按部就班地开始，而解析阶段则不一定：它在某些情况下可以在初始化阶段开始之后再开始，这是为了支持java语言的运行时绑定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5中会触发类初始化的场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）遇到new、getstatic、putstatic或invokestatic这4条字节码指令时，如果类没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）使用java.lang.reflect包的方法对类进行反射调用的时候，如果类没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）当初始化一个类的时候，如果发现其父类还没有进行过初始化，则需要先触发其父类的初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）当虚拟机启动时，用户需要制定一个要执行的主类（包含main()方法的那个类），虚拟机会先初始化这个主类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）当使用JDK 1.7的动态语言支持时，如果一个java.lang.invoke.MethodHandle实例最后的解析结果REF_getStatic、REF_putStatic、REF_invokeStatic的方法句柄，并且这个方法句柄所对应的类型没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在加载阶段，虚拟机需要完成以下3件事情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）通过一个类的全限定名来获取定义此类的二进制字节流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）将这个字节流所代表的静态存储结构转化为方法区的运行时数据结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）在内存中生成一个代表这个类的java.lang.Class对象，作为方法区这个类的各种数据的访问入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组类（下面简称为C）创建过程就遵循以下规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果数组的组件类型（Component Type，指的是数组去掉一个维度的类型）是引用类型，那就递归采用本节中定义的加载过程去加载这个组件类型，数组C将在加载该组件类型的类加载器的类名称空间上被标识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果数组的组件类型不是引用类型（例如 int[] 数组），java虚拟机将会把数组C标记为引导类加载器关联。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组类的可见性与它的组件类型的可见性一致，如果组件类型不是引用类型，那数组类的可见性将默认为public。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是连接阶段的第一步，这一阶段的目的是为了确保Class文件的字节流中包含的信息符合当前虚拟机的要求，并且不会危害虚拟机自身的安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证阶段大致上会完成下面4个阶段的校验动作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件格式验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段要验证字节流是否符合Class文件格式的规范，并且能被当前版本的虚拟机处理。这一阶段可能包括下面这些验证点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否以魔数0xCAFEBABE开头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主、次版本号是否在当前虚拟机处理范围之内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量池的常量是否有不被支持的常量类型（检查常量tag标志）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向常量的各种索引值中是否有指向不存在的常量或不符合类型的常量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTANT_Utf8_info型的常量中是否有不符合UTF8编码的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class文件中各个部分及文件本身是否有被删除的或附加的其他信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段是对字节码描述的信息进行语义分析，以保证其描述的信息符合java语言规范的要求，这个阶段可能包括的验证点如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类是否有父类（除了java.lang.Object之外，所有的类应当有父类）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类的父类是否继承了不允许被继承的类（被final修饰的类）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果这个类不是抽象类，是否实现了其父类或接口之中要求实现的所有方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类中的字段、方法是否与父类产生矛盾（例如覆盖了父类的final字段，或者出现不符合规矩的方法重载，例如方法参数都一致，但返回值类型却不同等）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节码验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三阶段是整个验证过程中最复杂的一个阶段，主要目的是通过数据流和控制流分析，确定程序语义是合法的、符合逻辑的。这个阶段将对类的方法体进行校验分析，保证被校验类的方法在运行时不会做出危害虚拟机安全的事件，例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证任意时刻操作数栈的数据类型与指令代码序列都能配合工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证跳转指令不会跳转到方法体以外的字节码指令上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证方法体中的类型转换是有效的，例如可以把一个子类对象赋值给父类数据类型，这是安全的，但是把父类对象赋值给子类数据类型，甚至把对象赋值给与它毫无继承关系，完全不相干的一个数据类型，则是危险和不合法的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个阶段的校验发生在虚拟机将符号引用转化为直接引用的时候，这个转换动作将在连接的第三阶段——解析阶段中发生。符号引用验证可以看做是对类自身以外（常量池中的各种符号引用）的信息进行匹配性校验，通常需要校验下列内容：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用中通过字符串描述的全限定名是否能找到对应的类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定类中是否存在符合方法的字段描述符以及简单名称所描述的方法和字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用中的类、字段、方法的访问性（private、protected、public、default）是否可被当前类访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备阶段是正式为类变量分配内存并设置类变量初始值的阶段，这些变量所使用的内存都将在方法区中进行分配。这个阶段中有两个容易产生混淆的概念需要强调一下，首先，这时候进行内存分配的仅包括类变量（被static修饰的变量），而不包括实例变量，实例变量将会在对象实例化时随着对象一起分配在java堆中。其次，这里所说的初始值“通常情况”下是数据类型的零值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析阶段是虚拟机将常量池内的符号引用替换为直接引用的过程。符号引用与直接引用的关联见下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>符号引用（Symbolic References）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>符号引用以一组符号来描述所引用的目标，符号可以是任何形式的字面量，只要使用时能无歧义地定位到目标即可。符号引用与虚拟机实现的内存布局无关，引用的目标并不一定已经加载到内存中。各种虚拟机实现的内存布局可以各不相同，但是它们能够接受的符号引用必须都是一致的，因为符号引用的字面量形式明确定义在java虚拟机规范的Class文件格式中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接引用（Direct References）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接引用可以是直接指向目标的指针、相对偏移量或是一个能间接定位到目标的句柄。直接引用是和虚拟机实现的内存布局相关的，同一个符号引用在不通虚拟机实例上翻译出来的直接引用一般不会相同。如果有了直接引用，那引用的目标必定已经在内存中存在。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类或接口的解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类方法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口方法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类初始化阶段是类加载过程的最后一步，前面的类加载过程中，除了在加载阶段用户应用程序可以通过自定义类加载器参与之外，其余动作完全由虚拟机主导和控制。到了初始化阶段，才真正开始执行程序定义的java程序代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法执行过程中一些可能会影响程序运行行为的特点和细节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法是由编译器自动收集类中的所有类变量的复制动作和静态语句块（static{}块）中的语句合并产生的，编译器收集的顺序是由语句在源文件中出现的顺序所决定的，静态语句块中只能访问到定义在静态语句块之前的变量，定义在之后的变量，在前面的静态语句块可以赋值，但是不能访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法与类的构造函数不通，它不需要显示地调用父类构造器，虚拟机会保证在子类的&lt;clinit&gt;()方法执行之前，父类的&lt;clinit&gt;()方法已经执行完毕。因此在虚拟机中第一个被执行的&lt;clinit&gt;()方法的类肯定是java.lang.Object。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于父类的&lt;clinit&gt;()方法先执行，也就意味着父类中定义的静态语句块要优先于子类的变量赋值操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法对于类或接口来说并不是必需的，如果一个类中没有静态语句块，也没有对变量的赋值操作，那么编译器可以不为这个类生成&lt;clinit&gt;()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口中不能使用静态语句块，但仍然有变量初始化的赋值操作，因为接口与类一样都会生成&lt;clinit&gt;()方法。但接口与类不通的是，执行接口的&lt;clinit&gt;()方法不需要先执行父接口的&lt;clinit&gt;()方法。只有当父接口中定义的变量使用时，父接口才会初始化。另外，接口的实现类在初始化时也一样不会执行接口的&lt;clinit&gt;()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机会保证一个类的&lt;clinit&gt;()方法在多线程环境中被正确的加锁、同步，如果多个线程同时去初始化一个类，那么只会有一个线程去执行这个类的&lt;clinit&gt;()方法，其他线程都需要阻塞等待，知道活动线程执行&lt;clinit&gt;()方法完毕。如果在一个类的&lt;clinit&gt;()方法中有耗时很长的操作，就可能造成多个进程阻塞，在实际应用中这种阻塞往往是很隐蔽的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机设计团队把类加载夹断中的“通过一个类的全限定名来获取描述此类的二进制字节流”这个动作放到java虚拟机外部去实现，以便让应用程序自己决定如何去获取所需要的类。实现这个动作的代码模块称为“类加载器”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类与类加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器虽然只用于实现类的加载动作，但它在java程序中启动的作用却远远不限于类加载阶段。对于任意一个类，都需要由加载它的类加载器和这个类本身一同确立其在java虚拟机中的唯一性，每一个类加载，都用友一个独立的类名称空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双亲委派模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝大部分java程序都会使用到以下3种系统提供的类加载器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从java虚拟机的角度来讲，只存在两种不同的类加载器：一种是启动类加载器（Bootstrap ClassLoader），这个类加载器使用C++语言实现，是虚拟机自身的一部分；另一种就是所有其他的类加载器，这些类加载器都由java语言实现，独立于虚拟机外部，并且全都继承自抽象类java.lang.ClassLoader。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>启动类加载器（Bootstrap ClassLoader）:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责将&lt;JAVA_HOME&gt;\lib目录中，或者别-Xbootclasspath参数指定的路径中的，并且是虚拟机识别的类库加载到虚拟机内存中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>扩展类加载器（Extension ClassLoader）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责加载&lt;JAVA_HOME&gt;\lib\ext目录中的，或者被java.ext.dirs系统变量所指定的路径中的所有类库，开发者可以直接使用扩展类加载器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>应用程序类加载器（Application ClassLoader）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一般也被称为系统类加载器。负责加载用户类路径（ClassPath）上所指定的类库，开发者可以直接使用这个类加载器，如果应用程序中没有自定义过自己的类加载器，一般情况下这个就是程序中默认的类加载器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器双亲委派模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双亲委派模型的工作过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个类加载收到了类加载的请求，它首先不会自己去尝试加载这个类，而是把这个请求委派给父类加载器去完成，每一个层次的类加载都是如此，因此是所有的加载请求最终都应该传送到顶层的启动类加载器中，只有当附加在其反馈自己无法完成这个加载请求（它的搜索范围中没有找到所需的类）时，子加载器才会尝试自己去加载。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +2255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1304,11 +2284,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1340,14 +2331,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1406,7 +2389,7 @@
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -1430,13 +2413,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1895475</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1463,7 +2446,7 @@
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -1482,13 +2465,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
-          <xdr:row>79</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1534,13 +2517,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1586,13 +2569,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>3371850</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1638,13 +2621,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>3305175</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1690,13 +2673,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>2752725</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>154</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1747,21 +2730,21 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
+            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3074"/>
+                  <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1812,21 +2795,21 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>196</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3075" name="Object 3" hidden="1">
+            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3075"/>
+                  <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1871,6 +2854,115 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1908,27 +3000,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1973,27 +3052,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2038,27 +3104,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2103,27 +3156,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2423,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K2:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2450,10 +3490,10 @@
       </c>
     </row>
     <row r="3" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -2462,24 +3502,24 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2508,10 +3548,10 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2520,24 +3560,24 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="11:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="4" t="s">
         <v>18</v>
       </c>
@@ -2599,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A2:E167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2614,376 +3654,435 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="15" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+    <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="51" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="54" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+    <row r="59" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
+    <row r="62" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="15" t="s">
+    <row r="65" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="14"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="14" t="s">
+      <c r="B67" s="19"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="14"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="14" t="s">
+      <c r="B85" s="19"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="14"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="14" t="s">
+      <c r="B103" s="19"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B118" s="14"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136" s="14" t="s">
+      <c r="B121" s="19"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B136" s="14"/>
+      <c r="B139" s="19"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+    </row>
+    <row r="160" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+    </row>
+    <row r="162" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+    </row>
+    <row r="164" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+    </row>
+    <row r="166" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B18:E18"/>
+  <mergeCells count="21">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A167:D167"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,13 +4098,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>1895475</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1238250</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -3024,13 +4123,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>65</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>79</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
@@ -3049,13 +4148,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>100</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -3074,13 +4173,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>101</xdr:row>
+                <xdr:row>104</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>3371850</xdr:colOff>
-                <xdr:row>115</xdr:row>
+                <xdr:row>118</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -3099,13 +4198,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>122</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>3305175</xdr:colOff>
-                <xdr:row>133</xdr:row>
+                <xdr:row>136</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -3124,13 +4223,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>137</xdr:row>
+                <xdr:row>140</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>2752725</xdr:colOff>
-                <xdr:row>151</xdr:row>
+                <xdr:row>154</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -3147,38 +4246,904 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P215"/>
+  <dimension ref="A2:P201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="I236" sqref="I236"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+    </row>
+    <row r="48" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A91" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+    </row>
+    <row r="100" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A103" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A115" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A119" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A121" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+    </row>
+    <row r="123" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+    </row>
+    <row r="124" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B127" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B129" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B131" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B133" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A135" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+    </row>
+    <row r="142" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+    </row>
+    <row r="144" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+    </row>
+    <row r="150" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A153" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A157" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
+      <c r="N159" s="17"/>
+      <c r="O159" s="17"/>
+      <c r="P159" s="17"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A161" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="18"/>
+      <c r="N167" s="18"/>
+      <c r="O167" s="18"/>
+      <c r="P167" s="18"/>
+    </row>
+    <row r="168" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
+      <c r="O169" s="18"/>
+      <c r="P169" s="18"/>
+    </row>
+    <row r="170" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="18"/>
+      <c r="O171" s="18"/>
+      <c r="P171" s="18"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A173" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A199" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+      <c r="L201" s="17"/>
+      <c r="M201" s="17"/>
+      <c r="N201" s="17"/>
+      <c r="O201" s="17"/>
+      <c r="P201" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A163:P163"/>
+    <mergeCell ref="B167:P167"/>
+    <mergeCell ref="B169:P169"/>
+    <mergeCell ref="B171:P171"/>
+    <mergeCell ref="A201:P201"/>
+    <mergeCell ref="B141:P141"/>
+    <mergeCell ref="B143:P143"/>
+    <mergeCell ref="B149:P149"/>
+    <mergeCell ref="B151:P151"/>
+    <mergeCell ref="A155:P155"/>
+    <mergeCell ref="A159:P159"/>
+    <mergeCell ref="A117:P117"/>
+    <mergeCell ref="A121:P121"/>
+    <mergeCell ref="B123:P123"/>
+    <mergeCell ref="B125:P125"/>
+    <mergeCell ref="A137:P137"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="B99:P99"/>
+    <mergeCell ref="B105:P105"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>196</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P275"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3213,641 +5178,987 @@
     <row r="41" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="A50" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
+      <c r="A58" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
     </row>
     <row r="59" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
+      <c r="A60" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
     </row>
     <row r="61" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="A68" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
+      <c r="A72" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
     </row>
     <row r="73" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
+      <c r="A74" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
     </row>
     <row r="75" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
+      <c r="A76" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+      <c r="A78" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="80" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
+      <c r="A80" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
     </row>
     <row r="81" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
+      <c r="A82" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
     </row>
     <row r="83" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A86" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+    </row>
+    <row r="88" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A90" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="92" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A86" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-    </row>
-    <row r="88" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="92" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
     </row>
     <row r="93" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A94" s="27" t="s">
-        <v>137</v>
+      <c r="A94" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A96" s="27" t="s">
-        <v>138</v>
+      <c r="A96" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A98" s="27" t="s">
-        <v>139</v>
+      <c r="A98" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="25"/>
+      <c r="A100" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
     </row>
     <row r="101" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="25"/>
+      <c r="A102" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
     </row>
     <row r="103" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A104" s="27" t="s">
-        <v>142</v>
+      <c r="A104" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A106" s="27" t="s">
-        <v>143</v>
+      <c r="A106" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A109" s="24" t="s">
-        <v>144</v>
+      <c r="A109" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="24" t="s">
-        <v>147</v>
+      <c r="A117" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="24" t="s">
-        <v>150</v>
+      <c r="A137" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" s="24" t="s">
-        <v>152</v>
+      <c r="A155" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" s="24" t="s">
-        <v>154</v>
+      <c r="A175" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
-      <c r="J177" s="25"/>
-      <c r="K177" s="25"/>
-      <c r="L177" s="25"/>
-      <c r="M177" s="25"/>
-      <c r="N177" s="25"/>
-      <c r="O177" s="25"/>
-      <c r="P177" s="25"/>
+      <c r="A177" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
+      <c r="P177" s="17"/>
     </row>
     <row r="179" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-      <c r="J179" s="25"/>
-      <c r="K179" s="25"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
-      <c r="N179" s="25"/>
-      <c r="O179" s="25"/>
-      <c r="P179" s="25"/>
+      <c r="A179" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
+      <c r="N179" s="17"/>
+      <c r="O179" s="17"/>
+      <c r="P179" s="17"/>
     </row>
     <row r="180" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="181" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B181" s="25"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="25"/>
-      <c r="I181" s="25"/>
-      <c r="J181" s="25"/>
-      <c r="K181" s="25"/>
-      <c r="L181" s="25"/>
-      <c r="M181" s="25"/>
-      <c r="N181" s="25"/>
-      <c r="O181" s="25"/>
-      <c r="P181" s="25"/>
+      <c r="A181" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
+      <c r="N181" s="17"/>
+      <c r="O181" s="17"/>
+      <c r="P181" s="17"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A183" s="24" t="s">
-        <v>158</v>
+      <c r="A183" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A187" s="27" t="s">
-        <v>173</v>
+      <c r="A187" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A189" s="27" t="s">
-        <v>172</v>
+      <c r="A189" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="191" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A191" s="27" t="s">
-        <v>171</v>
+      <c r="A191" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B199" s="25"/>
-      <c r="C199" s="25"/>
-      <c r="D199" s="25"/>
-      <c r="E199" s="25"/>
-      <c r="F199" s="25"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="25"/>
-      <c r="I199" s="25"/>
-      <c r="J199" s="25"/>
-      <c r="K199" s="25"/>
-      <c r="L199" s="25"/>
-      <c r="M199" s="25"/>
-      <c r="N199" s="25"/>
-      <c r="O199" s="25"/>
-      <c r="P199" s="25"/>
+      <c r="A199" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
+      <c r="N199" s="17"/>
+      <c r="O199" s="17"/>
+      <c r="P199" s="17"/>
     </row>
     <row r="200" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
-      <c r="F211" s="25"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="25"/>
-      <c r="I211" s="25"/>
-      <c r="J211" s="25"/>
-      <c r="K211" s="25"/>
-      <c r="L211" s="25"/>
-      <c r="M211" s="25"/>
-      <c r="N211" s="25"/>
-      <c r="O211" s="25"/>
-      <c r="P211" s="25"/>
+      <c r="A211" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
+      <c r="K211" s="17"/>
+      <c r="L211" s="17"/>
+      <c r="M211" s="17"/>
+      <c r="N211" s="17"/>
+      <c r="O211" s="17"/>
+      <c r="P211" s="17"/>
     </row>
     <row r="212" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A213" s="27" t="s">
-        <v>168</v>
+      <c r="A213" s="13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A215" s="24" t="s">
+      <c r="A215" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A233" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="17"/>
+      <c r="L235" s="17"/>
+      <c r="M235" s="17"/>
+      <c r="N235" s="17"/>
+      <c r="O235" s="17"/>
+      <c r="P235" s="17"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A237" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B239" s="17"/>
+      <c r="C239" s="17"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="17"/>
+      <c r="M239" s="17"/>
+      <c r="N239" s="17"/>
+      <c r="O239" s="17"/>
+      <c r="P239" s="17"/>
+    </row>
+    <row r="240" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="16" t="s">
         <v>174</v>
       </c>
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+      <c r="M241" s="17"/>
+      <c r="N241" s="17"/>
+      <c r="O241" s="17"/>
+      <c r="P241" s="17"/>
+    </row>
+    <row r="242" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+      <c r="M243" s="17"/>
+      <c r="N243" s="17"/>
+      <c r="O243" s="17"/>
+      <c r="P243" s="17"/>
+    </row>
+    <row r="244" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B245" s="17"/>
+      <c r="C245" s="17"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="17"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="17"/>
+      <c r="L245" s="17"/>
+      <c r="M245" s="17"/>
+      <c r="N245" s="17"/>
+      <c r="O245" s="17"/>
+      <c r="P245" s="17"/>
+    </row>
+    <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B247" s="17"/>
+      <c r="C247" s="17"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
+      <c r="M247" s="17"/>
+      <c r="N247" s="17"/>
+      <c r="O247" s="17"/>
+      <c r="P247" s="17"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A249" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B251" s="16"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="16"/>
+      <c r="E251" s="16"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="16"/>
+      <c r="J251" s="16"/>
+      <c r="K251" s="16"/>
+      <c r="L251" s="16"/>
+      <c r="M251" s="16"/>
+      <c r="N251" s="16"/>
+      <c r="O251" s="16"/>
+      <c r="P251" s="16"/>
+    </row>
+    <row r="252" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B253" s="16"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="16"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="16"/>
+      <c r="I253" s="16"/>
+      <c r="J253" s="16"/>
+      <c r="K253" s="16"/>
+      <c r="L253" s="16"/>
+      <c r="M253" s="16"/>
+      <c r="N253" s="16"/>
+      <c r="O253" s="16"/>
+      <c r="P253" s="16"/>
+    </row>
+    <row r="254" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="17"/>
+      <c r="L255" s="17"/>
+      <c r="M255" s="17"/>
+      <c r="N255" s="17"/>
+      <c r="O255" s="17"/>
+      <c r="P255" s="17"/>
+    </row>
+    <row r="256" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B257" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C257" s="17"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="17"/>
+      <c r="L257" s="17"/>
+      <c r="M257" s="17"/>
+      <c r="N257" s="17"/>
+      <c r="O257" s="17"/>
+      <c r="P257" s="17"/>
+    </row>
+    <row r="258" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B259" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C259" s="16"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="16"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="16"/>
+      <c r="I259" s="16"/>
+      <c r="J259" s="16"/>
+      <c r="K259" s="16"/>
+      <c r="L259" s="16"/>
+      <c r="M259" s="16"/>
+      <c r="N259" s="16"/>
+      <c r="O259" s="16"/>
+      <c r="P259" s="16"/>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A261" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A263" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B265" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B267" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C267" s="16"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="16"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
+      <c r="K267" s="16"/>
+      <c r="L267" s="16"/>
+      <c r="M267" s="16"/>
+      <c r="N267" s="16"/>
+      <c r="O267" s="16"/>
+      <c r="P267" s="16"/>
+    </row>
+    <row r="268" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B269" s="16"/>
+      <c r="C269" s="16"/>
+      <c r="D269" s="16"/>
+      <c r="E269" s="16"/>
+      <c r="F269" s="16"/>
+      <c r="G269" s="16"/>
+      <c r="H269" s="16"/>
+      <c r="I269" s="16"/>
+      <c r="J269" s="16"/>
+      <c r="K269" s="16"/>
+      <c r="L269" s="16"/>
+      <c r="M269" s="16"/>
+      <c r="N269" s="16"/>
+      <c r="O269" s="16"/>
+      <c r="P269" s="16"/>
+    </row>
+    <row r="270" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A271" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B273" s="16"/>
+      <c r="C273" s="16"/>
+      <c r="D273" s="16"/>
+      <c r="E273" s="16"/>
+      <c r="F273" s="16"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="16"/>
+      <c r="I273" s="16"/>
+      <c r="J273" s="16"/>
+      <c r="K273" s="16"/>
+      <c r="L273" s="16"/>
+      <c r="M273" s="16"/>
+      <c r="N273" s="16"/>
+      <c r="O273" s="16"/>
+      <c r="P273" s="16"/>
+    </row>
+    <row r="274" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B275" s="16"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="16"/>
+      <c r="F275" s="16"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="16"/>
+      <c r="I275" s="16"/>
+      <c r="J275" s="16"/>
+      <c r="K275" s="16"/>
+      <c r="L275" s="16"/>
+      <c r="M275" s="16"/>
+      <c r="N275" s="16"/>
+      <c r="O275" s="16"/>
+      <c r="P275" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="39">
     <mergeCell ref="A199:P199"/>
     <mergeCell ref="A211:P211"/>
     <mergeCell ref="A100:P100"/>
@@ -3855,11 +6166,6 @@
     <mergeCell ref="A177:P177"/>
     <mergeCell ref="A181:P181"/>
     <mergeCell ref="A179:P179"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A90:F90"/>
     <mergeCell ref="A92:P92"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A72:P72"/>
@@ -3867,11 +6173,31 @@
     <mergeCell ref="A76:P76"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A90:F90"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A58:P58"/>
     <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A235:P235"/>
+    <mergeCell ref="A239:P239"/>
+    <mergeCell ref="A241:P241"/>
+    <mergeCell ref="A243:P243"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A247:P247"/>
+    <mergeCell ref="A251:P251"/>
+    <mergeCell ref="A253:P253"/>
+    <mergeCell ref="A255:P255"/>
+    <mergeCell ref="B257:P257"/>
+    <mergeCell ref="B259:P259"/>
+    <mergeCell ref="B267:P267"/>
+    <mergeCell ref="A269:P269"/>
+    <mergeCell ref="A273:P273"/>
+    <mergeCell ref="A275:P275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java virtual machine/java虚拟机.xlsx
+++ b/Java virtual machine/java虚拟机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="java虚拟机运行时数据区" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="317">
   <si>
     <t>数据区名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2096,6 +2096,206 @@
   </si>
   <si>
     <t>如果一个类加载收到了类加载的请求，它首先不会自己去尝试加载这个类，而是把这个请求委派给父类加载器去完成，每一个层次的类加载都是如此，因此是所有的加载请求最终都应该传送到顶层的启动类加载器中，只有当附加在其反馈自己无法完成这个加载请求（它的搜索范围中没有找到所需的类）时，子加载器才会尝试自己去加载。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机字节码执行引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时栈帧结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个方法从调用开始至执行完成的过程，都对应着一个栈帧在虚拟机里面从入栈到出栈的过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编译程序代码的时候，栈帧中需要多大的局部变量表，多深的操作数栈都已经完全确定了，并且写入到方法表的Code属性之中，因此一个栈帧需要分配多少内存，不会受到程序运行期变量数据的影响，而仅仅取决于具体的虚拟机实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈帧的概念结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详解栈帧中的局部变量表、操作数栈、动态链接、方法返回地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>局部变量表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作数栈：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当一个方法刚刚开始执行的时候，这个方法的操作数栈是空的，在方法的执行过程中，会有各种字节码指令往操作数栈写入和提取内容，也就是出栈/入栈操作。Java虚拟机的解释之星引擎称为“基于栈的执行引擎”，其中所指的“栈”就是操作数栈。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个栈帧之间的数据共享图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态连接：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个栈帧都包含一个指向运行时常量池中该栈帧所属方法的引用，持有这个引用是为了支持方法调用过程中的动态连接。引用符号一部分会在类加载阶段或者第一次使用的时候就转化直接引用，这种转换称为静态解析。另外一部分将在每一次运行期间转化为直接引用，用这部分称为动态连接。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法返回地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一个方法开始执行后，只有两种方式可以退出这个方法。第一种方式是执行引擎遇到任意一个方法返回的字节码指令，这时候可能会有返回值传递给上层的方法调用者（调用当前方法的方法称为方法调用者），是否有返回值和返回值的类型将根据遇到何种方法返回指令来决定，这种退出方法的方式称为正常完成出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一种退出方式是，在方法执行过程中遇到了异常，并且这个异常没有在方法体内得到处理，无论是java虚拟机内部产生的异常，还是代码中使用athrow自己吗指令产生的异常，只要在本方法的异常表中没有搜索到匹配的异常处理器，就会导致方法退出，这种退出方法的方式称为异常完成出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>附加信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚拟机规范允许具体的虚拟机实现增加一些规范里没有描述的信息到栈帧之中，例如与调试相关的信息，这部分信息完全取决于具体的虚拟机实现。在实际开发中，一版会把动态连接、方法返回地址与其他区间信息全部归为一类，称为栈帧信息。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法调用并不等同于方法执行，方法调用阶段唯一的任务就是确定被调用方法的版本（即调用哪一个方法），暂时还不涉及方法内部的具体运行过程。在程序运行时，进行方法调用是最普遍、最频繁的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法在程序真正运行之前就有一个可确定的调用版本，并且这个方法的调用版本在运行期是不可改变的。换句话说，调用目标在程序代码写好、编译器进行编译时就必须确定下来。这类方法的调用称为解析。解析调用一定是个静态过程，在编译期间就完全确定，在类装载的解析阶段就会把涉及的符号引用全部转变为可确定的直接引用，不会延迟到运行期再去完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派调用过程将会揭示java多态性特征的一些最近本的体现，如“重载”和“重写”在java虚拟机之中是如何确定正确的目标方法的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有依赖静态类型来定位方法执行版本的分派动作称为静态分派。静态分派的点应用是方法重载。静态分派发生在编译阶段，因此确定静态分派的动作实际上不是由虚拟机来执行的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态分派和多态性的另外一个重要体现——重写有着很密切的关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分派与多分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法的接收者与方法的参数统称为方法的宗量。根据分派基于多少种宗量，可以将分派划分为单分派和多分派两种。单分派是根据一个宗量对目标方法进行选择，多分派则是根据多于一个宗量对目标方法进行选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机动态分派的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚方法表：如果某个方法在子类中没有被重写，那子类的虚方法表里面的地址入口和父类相同方法的地址入口是一致的，都指向父类的实现入口。如果子类中重写了这个方法，子类方法表中的地址将会替换为指向子类实现版本的入口地址。方法表一般在类加载的连接阶段进行初始化，准备了类的变量初始值后，虚拟机会把该类的方法表也初始化完毕。“稳定优化”手段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内联缓存：“激进优化”手段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护内联：“激进优化”手段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM堆逻辑模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2292,27 +2492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2330,6 +2509,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2395,6 +2595,71 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2761,6 +3026,110 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>174</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>196</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>212</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>240</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
@@ -2793,23 +3162,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>250</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>196</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>275</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
+            <xdr:cNvPr id="4100" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4098"/>
+                  <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3461,10 +3830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K2:N13"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3593,6 +3962,11 @@
       <c r="M13" s="2"/>
       <c r="N13" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3633,6 +4007,31 @@
         <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1030" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
@@ -3641,7 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E167"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -3660,13 +4059,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -3812,12 +4211,12 @@
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
@@ -3853,13 +4252,13 @@
       <c r="E22" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="54" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="22" t="s">
@@ -3974,42 +4373,42 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="19"/>
+      <c r="B67" s="24"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="19"/>
+      <c r="B85" s="24"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="24"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B121" s="19"/>
+      <c r="B121" s="24"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B139" s="19"/>
+      <c r="B139" s="24"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
@@ -4017,72 +4416,72 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
     </row>
     <row r="162" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B163" s="16"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
     </row>
     <row r="164" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="16" t="s">
+      <c r="A165" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
     </row>
     <row r="166" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="18" t="s">
+      <c r="A167" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A167:D167"/>
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4246,10 +4645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P201"/>
+  <dimension ref="A2:P318"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4270,24 +4669,24 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
@@ -4319,24 +4718,24 @@
     </row>
     <row r="30" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
@@ -4376,24 +4775,24 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
     </row>
     <row r="48" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -4521,23 +4920,23 @@
       </c>
     </row>
     <row r="93" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
@@ -4552,23 +4951,23 @@
     </row>
     <row r="98" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
     </row>
     <row r="100" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
@@ -4582,23 +4981,23 @@
       </c>
     </row>
     <row r="105" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="27"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
@@ -4629,24 +5028,24 @@
       </c>
     </row>
     <row r="117" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="12" t="s">
@@ -4654,63 +5053,63 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="27"/>
     </row>
     <row r="123" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
     </row>
     <row r="124" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B127" s="12" t="s">
@@ -4741,24 +5140,24 @@
       </c>
     </row>
     <row r="137" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+      <c r="O137" s="27"/>
+      <c r="P137" s="27"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
@@ -4766,43 +5165,43 @@
       </c>
     </row>
     <row r="141" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="27"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
     </row>
     <row r="142" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="27"/>
+      <c r="M143" s="27"/>
+      <c r="N143" s="27"/>
+      <c r="O143" s="27"/>
+      <c r="P143" s="27"/>
     </row>
     <row r="144" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" spans="1:16" x14ac:dyDescent="0.15">
@@ -4818,43 +5217,43 @@
     </row>
     <row r="148" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="149" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="17"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="27"/>
+      <c r="N149" s="27"/>
+      <c r="O149" s="27"/>
+      <c r="P149" s="27"/>
     </row>
     <row r="150" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="27"/>
+      <c r="M151" s="27"/>
+      <c r="N151" s="27"/>
+      <c r="O151" s="27"/>
+      <c r="P151" s="27"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="12" t="s">
@@ -4862,24 +5261,24 @@
       </c>
     </row>
     <row r="155" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="17"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="27"/>
+      <c r="O155" s="27"/>
+      <c r="P155" s="27"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
@@ -4887,24 +5286,24 @@
       </c>
     </row>
     <row r="159" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
-      <c r="N159" s="17"/>
-      <c r="O159" s="17"/>
-      <c r="P159" s="17"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="27"/>
+      <c r="M159" s="27"/>
+      <c r="N159" s="27"/>
+      <c r="O159" s="27"/>
+      <c r="P159" s="27"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="12" t="s">
@@ -4912,24 +5311,24 @@
       </c>
     </row>
     <row r="163" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="17"/>
-      <c r="M163" s="17"/>
-      <c r="N163" s="17"/>
-      <c r="O163" s="17"/>
-      <c r="P163" s="17"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="27"/>
+      <c r="M163" s="27"/>
+      <c r="N163" s="27"/>
+      <c r="O163" s="27"/>
+      <c r="P163" s="27"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
@@ -4937,63 +5336,63 @@
       </c>
     </row>
     <row r="167" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="18"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="28"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="28"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="28"/>
+      <c r="P167" s="28"/>
     </row>
     <row r="168" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="169" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="18"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="18"/>
-      <c r="P169" s="18"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="28"/>
+      <c r="M169" s="28"/>
+      <c r="N169" s="28"/>
+      <c r="O169" s="28"/>
+      <c r="P169" s="28"/>
     </row>
     <row r="170" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="171" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="18"/>
-      <c r="P171" s="18"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="28"/>
+      <c r="M171" s="28"/>
+      <c r="N171" s="28"/>
+      <c r="O171" s="28"/>
+      <c r="P171" s="28"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="12" t="s">
@@ -5006,49 +5405,360 @@
       </c>
     </row>
     <row r="201" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="17"/>
-      <c r="M201" s="17"/>
-      <c r="N201" s="17"/>
-      <c r="O201" s="17"/>
-      <c r="P201" s="17"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="27"/>
+      <c r="K201" s="27"/>
+      <c r="L201" s="27"/>
+      <c r="M201" s="27"/>
+      <c r="N201" s="27"/>
+      <c r="O201" s="27"/>
+      <c r="P201" s="27"/>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A203" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A205" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="27"/>
+      <c r="K209" s="27"/>
+      <c r="L209" s="27"/>
+      <c r="M209" s="27"/>
+      <c r="N209" s="27"/>
+      <c r="O209" s="27"/>
+      <c r="P209" s="27"/>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A211" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A243" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A245" s="13"/>
+      <c r="B245" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="13"/>
+      <c r="B247" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="26"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="26"/>
+      <c r="J247" s="26"/>
+      <c r="K247" s="26"/>
+      <c r="L247" s="26"/>
+      <c r="M247" s="26"/>
+      <c r="N247" s="26"/>
+      <c r="O247" s="26"/>
+      <c r="P247" s="26"/>
+    </row>
+    <row r="248" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B249" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B278" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C278" s="26"/>
+      <c r="D278" s="26"/>
+      <c r="E278" s="26"/>
+      <c r="F278" s="26"/>
+      <c r="G278" s="26"/>
+      <c r="H278" s="26"/>
+      <c r="I278" s="26"/>
+      <c r="J278" s="26"/>
+      <c r="K278" s="26"/>
+      <c r="L278" s="26"/>
+      <c r="M278" s="26"/>
+      <c r="N278" s="26"/>
+      <c r="O278" s="26"/>
+      <c r="P278" s="26"/>
+    </row>
+    <row r="279" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B280" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C282" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D282" s="27"/>
+      <c r="E282" s="27"/>
+      <c r="F282" s="27"/>
+      <c r="G282" s="27"/>
+      <c r="H282" s="27"/>
+      <c r="I282" s="27"/>
+      <c r="J282" s="27"/>
+      <c r="K282" s="27"/>
+      <c r="L282" s="27"/>
+      <c r="M282" s="27"/>
+      <c r="N282" s="27"/>
+      <c r="O282" s="27"/>
+      <c r="P282" s="27"/>
+    </row>
+    <row r="283" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C284" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D284" s="27"/>
+      <c r="E284" s="27"/>
+      <c r="F284" s="27"/>
+      <c r="G284" s="27"/>
+      <c r="H284" s="27"/>
+      <c r="I284" s="27"/>
+      <c r="J284" s="27"/>
+      <c r="K284" s="27"/>
+      <c r="L284" s="27"/>
+      <c r="M284" s="27"/>
+      <c r="N284" s="27"/>
+      <c r="O284" s="27"/>
+      <c r="P284" s="27"/>
+    </row>
+    <row r="285" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B286" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A288" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B290" s="27"/>
+      <c r="C290" s="27"/>
+      <c r="D290" s="27"/>
+      <c r="E290" s="27"/>
+      <c r="F290" s="27"/>
+      <c r="G290" s="27"/>
+      <c r="H290" s="27"/>
+      <c r="I290" s="27"/>
+      <c r="J290" s="27"/>
+      <c r="K290" s="27"/>
+      <c r="L290" s="27"/>
+      <c r="M290" s="27"/>
+      <c r="N290" s="27"/>
+      <c r="O290" s="27"/>
+      <c r="P290" s="27"/>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A292" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B294" s="27"/>
+      <c r="C294" s="27"/>
+      <c r="D294" s="27"/>
+      <c r="E294" s="27"/>
+      <c r="F294" s="27"/>
+      <c r="G294" s="27"/>
+      <c r="H294" s="27"/>
+      <c r="I294" s="27"/>
+      <c r="J294" s="27"/>
+      <c r="K294" s="27"/>
+      <c r="L294" s="27"/>
+      <c r="M294" s="27"/>
+      <c r="N294" s="27"/>
+      <c r="O294" s="27"/>
+      <c r="P294" s="27"/>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A296" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B300" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B302" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C302" s="27"/>
+      <c r="D302" s="27"/>
+      <c r="E302" s="27"/>
+      <c r="F302" s="27"/>
+      <c r="G302" s="27"/>
+      <c r="H302" s="27"/>
+      <c r="I302" s="27"/>
+      <c r="J302" s="27"/>
+      <c r="K302" s="27"/>
+      <c r="L302" s="27"/>
+      <c r="M302" s="27"/>
+      <c r="N302" s="27"/>
+      <c r="O302" s="27"/>
+      <c r="P302" s="27"/>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B304" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="308" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B308" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="310" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B310" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C310" s="27"/>
+      <c r="D310" s="27"/>
+      <c r="E310" s="27"/>
+      <c r="F310" s="27"/>
+      <c r="G310" s="27"/>
+      <c r="H310" s="27"/>
+      <c r="I310" s="27"/>
+      <c r="J310" s="27"/>
+      <c r="K310" s="27"/>
+      <c r="L310" s="27"/>
+      <c r="M310" s="27"/>
+      <c r="N310" s="27"/>
+      <c r="O310" s="27"/>
+      <c r="P310" s="27"/>
+    </row>
+    <row r="312" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B312" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B314" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C314" s="27"/>
+      <c r="D314" s="27"/>
+      <c r="E314" s="27"/>
+      <c r="F314" s="27"/>
+      <c r="G314" s="27"/>
+      <c r="H314" s="27"/>
+      <c r="I314" s="27"/>
+      <c r="J314" s="27"/>
+      <c r="K314" s="27"/>
+      <c r="L314" s="27"/>
+      <c r="M314" s="27"/>
+      <c r="N314" s="27"/>
+      <c r="O314" s="27"/>
+      <c r="P314" s="27"/>
+    </row>
+    <row r="315" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B316" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B318" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A163:P163"/>
-    <mergeCell ref="B167:P167"/>
-    <mergeCell ref="B169:P169"/>
-    <mergeCell ref="B171:P171"/>
-    <mergeCell ref="A201:P201"/>
-    <mergeCell ref="B141:P141"/>
-    <mergeCell ref="B143:P143"/>
-    <mergeCell ref="B149:P149"/>
-    <mergeCell ref="B151:P151"/>
-    <mergeCell ref="A155:P155"/>
+  <mergeCells count="32">
+    <mergeCell ref="B310:P310"/>
+    <mergeCell ref="B314:P314"/>
+    <mergeCell ref="C284:P284"/>
+    <mergeCell ref="A290:P290"/>
+    <mergeCell ref="A294:P294"/>
+    <mergeCell ref="B302:P302"/>
+    <mergeCell ref="B105:P105"/>
+    <mergeCell ref="A209:P209"/>
+    <mergeCell ref="B247:P247"/>
+    <mergeCell ref="B278:P278"/>
+    <mergeCell ref="C282:P282"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="B99:P99"/>
     <mergeCell ref="A159:P159"/>
     <mergeCell ref="A117:P117"/>
     <mergeCell ref="A121:P121"/>
     <mergeCell ref="B123:P123"/>
     <mergeCell ref="B125:P125"/>
     <mergeCell ref="A137:P137"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="B93:P93"/>
-    <mergeCell ref="B99:P99"/>
-    <mergeCell ref="B105:P105"/>
+    <mergeCell ref="B141:P141"/>
+    <mergeCell ref="B143:P143"/>
+    <mergeCell ref="B149:P149"/>
+    <mergeCell ref="B151:P151"/>
+    <mergeCell ref="A155:P155"/>
+    <mergeCell ref="A163:P163"/>
+    <mergeCell ref="B167:P167"/>
+    <mergeCell ref="B169:P169"/>
+    <mergeCell ref="B171:P171"/>
+    <mergeCell ref="A201:P201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5106,6 +5816,56 @@
         <oleObject progId="Visio.Drawing.15" shapeId="4098" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4099" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>212</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>240</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4099" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4100" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>250</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>275</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4100" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
@@ -5114,33 +5874,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P275"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
@@ -5200,12 +5960,12 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
@@ -5226,45 +5986,45 @@
     </row>
     <row r="57" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
     </row>
     <row r="59" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
     </row>
     <row r="61" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
@@ -5285,15 +6045,15 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
@@ -5301,197 +6061,197 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
     </row>
     <row r="73" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
     </row>
     <row r="75" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
     </row>
     <row r="80" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
     </row>
     <row r="81" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
     </row>
     <row r="83" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
     </row>
     <row r="88" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
     </row>
     <row r="92" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
     </row>
     <row r="93" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
@@ -5513,45 +6273,45 @@
     </row>
     <row r="99" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
     </row>
     <row r="101" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
     </row>
     <row r="103" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
@@ -5623,65 +6383,65 @@
       </c>
     </row>
     <row r="177" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="17" t="s">
+      <c r="A177" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="17"/>
-      <c r="M177" s="17"/>
-      <c r="N177" s="17"/>
-      <c r="O177" s="17"/>
-      <c r="P177" s="17"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="27"/>
+      <c r="P177" s="27"/>
     </row>
     <row r="179" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="17"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="17"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="17"/>
-      <c r="M179" s="17"/>
-      <c r="N179" s="17"/>
-      <c r="O179" s="17"/>
-      <c r="P179" s="17"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="27"/>
+      <c r="N179" s="27"/>
+      <c r="O179" s="27"/>
+      <c r="P179" s="27"/>
     </row>
     <row r="180" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="181" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
-      <c r="O181" s="17"/>
-      <c r="P181" s="17"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="27"/>
+      <c r="N181" s="27"/>
+      <c r="O181" s="27"/>
+      <c r="P181" s="27"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="12" t="s">
@@ -5730,24 +6490,24 @@
     </row>
     <row r="198" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="17"/>
-      <c r="K199" s="17"/>
-      <c r="L199" s="17"/>
-      <c r="M199" s="17"/>
-      <c r="N199" s="17"/>
-      <c r="O199" s="17"/>
-      <c r="P199" s="17"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="27"/>
+      <c r="K199" s="27"/>
+      <c r="L199" s="27"/>
+      <c r="M199" s="27"/>
+      <c r="N199" s="27"/>
+      <c r="O199" s="27"/>
+      <c r="P199" s="27"/>
     </row>
     <row r="200" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
@@ -5781,24 +6541,24 @@
     </row>
     <row r="210" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="16" t="s">
+      <c r="A211" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="17"/>
-      <c r="J211" s="17"/>
-      <c r="K211" s="17"/>
-      <c r="L211" s="17"/>
-      <c r="M211" s="17"/>
-      <c r="N211" s="17"/>
-      <c r="O211" s="17"/>
-      <c r="P211" s="17"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="27"/>
+      <c r="K211" s="27"/>
+      <c r="L211" s="27"/>
+      <c r="M211" s="27"/>
+      <c r="N211" s="27"/>
+      <c r="O211" s="27"/>
+      <c r="P211" s="27"/>
     </row>
     <row r="212" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="1:16" x14ac:dyDescent="0.15">
@@ -5817,24 +6577,24 @@
       </c>
     </row>
     <row r="235" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="16" t="s">
+      <c r="A235" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B235" s="17"/>
-      <c r="C235" s="17"/>
-      <c r="D235" s="17"/>
-      <c r="E235" s="17"/>
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
-      <c r="I235" s="17"/>
-      <c r="J235" s="17"/>
-      <c r="K235" s="17"/>
-      <c r="L235" s="17"/>
-      <c r="M235" s="17"/>
-      <c r="N235" s="17"/>
-      <c r="O235" s="17"/>
-      <c r="P235" s="17"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="27"/>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="27"/>
+      <c r="G235" s="27"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+      <c r="J235" s="27"/>
+      <c r="K235" s="27"/>
+      <c r="L235" s="27"/>
+      <c r="M235" s="27"/>
+      <c r="N235" s="27"/>
+      <c r="O235" s="27"/>
+      <c r="P235" s="27"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A237" s="12" t="s">
@@ -5842,108 +6602,108 @@
       </c>
     </row>
     <row r="239" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="16" t="s">
+      <c r="A239" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B239" s="17"/>
-      <c r="C239" s="17"/>
-      <c r="D239" s="17"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="17"/>
-      <c r="K239" s="17"/>
-      <c r="L239" s="17"/>
-      <c r="M239" s="17"/>
-      <c r="N239" s="17"/>
-      <c r="O239" s="17"/>
-      <c r="P239" s="17"/>
+      <c r="B239" s="27"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="27"/>
+      <c r="E239" s="27"/>
+      <c r="F239" s="27"/>
+      <c r="G239" s="27"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="27"/>
+      <c r="J239" s="27"/>
+      <c r="K239" s="27"/>
+      <c r="L239" s="27"/>
+      <c r="M239" s="27"/>
+      <c r="N239" s="27"/>
+      <c r="O239" s="27"/>
+      <c r="P239" s="27"/>
     </row>
     <row r="240" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="241" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="16" t="s">
+      <c r="A241" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B241" s="17"/>
-      <c r="C241" s="17"/>
-      <c r="D241" s="17"/>
-      <c r="E241" s="17"/>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="17"/>
-      <c r="K241" s="17"/>
-      <c r="L241" s="17"/>
-      <c r="M241" s="17"/>
-      <c r="N241" s="17"/>
-      <c r="O241" s="17"/>
-      <c r="P241" s="17"/>
+      <c r="B241" s="27"/>
+      <c r="C241" s="27"/>
+      <c r="D241" s="27"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="27"/>
+      <c r="G241" s="27"/>
+      <c r="H241" s="27"/>
+      <c r="I241" s="27"/>
+      <c r="J241" s="27"/>
+      <c r="K241" s="27"/>
+      <c r="L241" s="27"/>
+      <c r="M241" s="27"/>
+      <c r="N241" s="27"/>
+      <c r="O241" s="27"/>
+      <c r="P241" s="27"/>
     </row>
     <row r="242" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="243" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="16" t="s">
+      <c r="A243" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B243" s="17"/>
-      <c r="C243" s="17"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
-      <c r="N243" s="17"/>
-      <c r="O243" s="17"/>
-      <c r="P243" s="17"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="27"/>
+      <c r="D243" s="27"/>
+      <c r="E243" s="27"/>
+      <c r="F243" s="27"/>
+      <c r="G243" s="27"/>
+      <c r="H243" s="27"/>
+      <c r="I243" s="27"/>
+      <c r="J243" s="27"/>
+      <c r="K243" s="27"/>
+      <c r="L243" s="27"/>
+      <c r="M243" s="27"/>
+      <c r="N243" s="27"/>
+      <c r="O243" s="27"/>
+      <c r="P243" s="27"/>
     </row>
     <row r="244" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="245" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="16" t="s">
+      <c r="A245" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B245" s="17"/>
-      <c r="C245" s="17"/>
-      <c r="D245" s="17"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
-      <c r="I245" s="17"/>
-      <c r="J245" s="17"/>
-      <c r="K245" s="17"/>
-      <c r="L245" s="17"/>
-      <c r="M245" s="17"/>
-      <c r="N245" s="17"/>
-      <c r="O245" s="17"/>
-      <c r="P245" s="17"/>
+      <c r="B245" s="27"/>
+      <c r="C245" s="27"/>
+      <c r="D245" s="27"/>
+      <c r="E245" s="27"/>
+      <c r="F245" s="27"/>
+      <c r="G245" s="27"/>
+      <c r="H245" s="27"/>
+      <c r="I245" s="27"/>
+      <c r="J245" s="27"/>
+      <c r="K245" s="27"/>
+      <c r="L245" s="27"/>
+      <c r="M245" s="27"/>
+      <c r="N245" s="27"/>
+      <c r="O245" s="27"/>
+      <c r="P245" s="27"/>
     </row>
     <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="16" t="s">
+      <c r="A247" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B247" s="17"/>
-      <c r="C247" s="17"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="17"/>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
-      <c r="I247" s="17"/>
-      <c r="J247" s="17"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="17"/>
-      <c r="M247" s="17"/>
-      <c r="N247" s="17"/>
-      <c r="O247" s="17"/>
-      <c r="P247" s="17"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="27"/>
+      <c r="D247" s="27"/>
+      <c r="E247" s="27"/>
+      <c r="F247" s="27"/>
+      <c r="G247" s="27"/>
+      <c r="H247" s="27"/>
+      <c r="I247" s="27"/>
+      <c r="J247" s="27"/>
+      <c r="K247" s="27"/>
+      <c r="L247" s="27"/>
+      <c r="M247" s="27"/>
+      <c r="N247" s="27"/>
+      <c r="O247" s="27"/>
+      <c r="P247" s="27"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A249" s="12" t="s">
@@ -5951,106 +6711,106 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="16" t="s">
+      <c r="A251" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B251" s="16"/>
-      <c r="C251" s="16"/>
-      <c r="D251" s="16"/>
-      <c r="E251" s="16"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
-      <c r="H251" s="16"/>
-      <c r="I251" s="16"/>
-      <c r="J251" s="16"/>
-      <c r="K251" s="16"/>
-      <c r="L251" s="16"/>
-      <c r="M251" s="16"/>
-      <c r="N251" s="16"/>
-      <c r="O251" s="16"/>
-      <c r="P251" s="16"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
+      <c r="F251" s="26"/>
+      <c r="G251" s="26"/>
+      <c r="H251" s="26"/>
+      <c r="I251" s="26"/>
+      <c r="J251" s="26"/>
+      <c r="K251" s="26"/>
+      <c r="L251" s="26"/>
+      <c r="M251" s="26"/>
+      <c r="N251" s="26"/>
+      <c r="O251" s="26"/>
+      <c r="P251" s="26"/>
     </row>
     <row r="252" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="253" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="16" t="s">
+      <c r="A253" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B253" s="16"/>
-      <c r="C253" s="16"/>
-      <c r="D253" s="16"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="16"/>
-      <c r="H253" s="16"/>
-      <c r="I253" s="16"/>
-      <c r="J253" s="16"/>
-      <c r="K253" s="16"/>
-      <c r="L253" s="16"/>
-      <c r="M253" s="16"/>
-      <c r="N253" s="16"/>
-      <c r="O253" s="16"/>
-      <c r="P253" s="16"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
+      <c r="F253" s="26"/>
+      <c r="G253" s="26"/>
+      <c r="H253" s="26"/>
+      <c r="I253" s="26"/>
+      <c r="J253" s="26"/>
+      <c r="K253" s="26"/>
+      <c r="L253" s="26"/>
+      <c r="M253" s="26"/>
+      <c r="N253" s="26"/>
+      <c r="O253" s="26"/>
+      <c r="P253" s="26"/>
     </row>
     <row r="254" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="255" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="16" t="s">
+      <c r="A255" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B255" s="17"/>
-      <c r="C255" s="17"/>
-      <c r="D255" s="17"/>
-      <c r="E255" s="17"/>
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
-      <c r="I255" s="17"/>
-      <c r="J255" s="17"/>
-      <c r="K255" s="17"/>
-      <c r="L255" s="17"/>
-      <c r="M255" s="17"/>
-      <c r="N255" s="17"/>
-      <c r="O255" s="17"/>
-      <c r="P255" s="17"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="27"/>
+      <c r="D255" s="27"/>
+      <c r="E255" s="27"/>
+      <c r="F255" s="27"/>
+      <c r="G255" s="27"/>
+      <c r="H255" s="27"/>
+      <c r="I255" s="27"/>
+      <c r="J255" s="27"/>
+      <c r="K255" s="27"/>
+      <c r="L255" s="27"/>
+      <c r="M255" s="27"/>
+      <c r="N255" s="27"/>
+      <c r="O255" s="27"/>
+      <c r="P255" s="27"/>
     </row>
     <row r="256" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="257" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B257" s="16" t="s">
+      <c r="B257" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C257" s="17"/>
-      <c r="D257" s="17"/>
-      <c r="E257" s="17"/>
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="17"/>
-      <c r="L257" s="17"/>
-      <c r="M257" s="17"/>
-      <c r="N257" s="17"/>
-      <c r="O257" s="17"/>
-      <c r="P257" s="17"/>
+      <c r="C257" s="27"/>
+      <c r="D257" s="27"/>
+      <c r="E257" s="27"/>
+      <c r="F257" s="27"/>
+      <c r="G257" s="27"/>
+      <c r="H257" s="27"/>
+      <c r="I257" s="27"/>
+      <c r="J257" s="27"/>
+      <c r="K257" s="27"/>
+      <c r="L257" s="27"/>
+      <c r="M257" s="27"/>
+      <c r="N257" s="27"/>
+      <c r="O257" s="27"/>
+      <c r="P257" s="27"/>
     </row>
     <row r="258" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="259" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C259" s="16"/>
-      <c r="D259" s="16"/>
-      <c r="E259" s="16"/>
-      <c r="F259" s="16"/>
-      <c r="G259" s="16"/>
-      <c r="H259" s="16"/>
-      <c r="I259" s="16"/>
-      <c r="J259" s="16"/>
-      <c r="K259" s="16"/>
-      <c r="L259" s="16"/>
-      <c r="M259" s="16"/>
-      <c r="N259" s="16"/>
-      <c r="O259" s="16"/>
-      <c r="P259" s="16"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+      <c r="F259" s="26"/>
+      <c r="G259" s="26"/>
+      <c r="H259" s="26"/>
+      <c r="I259" s="26"/>
+      <c r="J259" s="26"/>
+      <c r="K259" s="26"/>
+      <c r="L259" s="26"/>
+      <c r="M259" s="26"/>
+      <c r="N259" s="26"/>
+      <c r="O259" s="26"/>
+      <c r="P259" s="26"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A261" s="12" t="s">
@@ -6070,44 +6830,44 @@
     </row>
     <row r="266" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="267" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C267" s="16"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="16"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="16"/>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
-      <c r="K267" s="16"/>
-      <c r="L267" s="16"/>
-      <c r="M267" s="16"/>
-      <c r="N267" s="16"/>
-      <c r="O267" s="16"/>
-      <c r="P267" s="16"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="26"/>
+      <c r="G267" s="26"/>
+      <c r="H267" s="26"/>
+      <c r="I267" s="26"/>
+      <c r="J267" s="26"/>
+      <c r="K267" s="26"/>
+      <c r="L267" s="26"/>
+      <c r="M267" s="26"/>
+      <c r="N267" s="26"/>
+      <c r="O267" s="26"/>
+      <c r="P267" s="26"/>
     </row>
     <row r="268" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="269" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="16" t="s">
+      <c r="A269" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B269" s="16"/>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="16"/>
-      <c r="G269" s="16"/>
-      <c r="H269" s="16"/>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
-      <c r="K269" s="16"/>
-      <c r="L269" s="16"/>
-      <c r="M269" s="16"/>
-      <c r="N269" s="16"/>
-      <c r="O269" s="16"/>
-      <c r="P269" s="16"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
+      <c r="E269" s="26"/>
+      <c r="F269" s="26"/>
+      <c r="G269" s="26"/>
+      <c r="H269" s="26"/>
+      <c r="I269" s="26"/>
+      <c r="J269" s="26"/>
+      <c r="K269" s="26"/>
+      <c r="L269" s="26"/>
+      <c r="M269" s="26"/>
+      <c r="N269" s="26"/>
+      <c r="O269" s="26"/>
+      <c r="P269" s="26"/>
     </row>
     <row r="270" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="271" spans="1:16" x14ac:dyDescent="0.15">
@@ -6117,55 +6877,68 @@
     </row>
     <row r="272" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="273" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="16" t="s">
+      <c r="A273" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B273" s="16"/>
-      <c r="C273" s="16"/>
-      <c r="D273" s="16"/>
-      <c r="E273" s="16"/>
-      <c r="F273" s="16"/>
-      <c r="G273" s="16"/>
-      <c r="H273" s="16"/>
-      <c r="I273" s="16"/>
-      <c r="J273" s="16"/>
-      <c r="K273" s="16"/>
-      <c r="L273" s="16"/>
-      <c r="M273" s="16"/>
-      <c r="N273" s="16"/>
-      <c r="O273" s="16"/>
-      <c r="P273" s="16"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
+      <c r="E273" s="26"/>
+      <c r="F273" s="26"/>
+      <c r="G273" s="26"/>
+      <c r="H273" s="26"/>
+      <c r="I273" s="26"/>
+      <c r="J273" s="26"/>
+      <c r="K273" s="26"/>
+      <c r="L273" s="26"/>
+      <c r="M273" s="26"/>
+      <c r="N273" s="26"/>
+      <c r="O273" s="26"/>
+      <c r="P273" s="26"/>
     </row>
     <row r="274" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="275" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="16" t="s">
+      <c r="A275" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B275" s="16"/>
-      <c r="C275" s="16"/>
-      <c r="D275" s="16"/>
-      <c r="E275" s="16"/>
-      <c r="F275" s="16"/>
-      <c r="G275" s="16"/>
-      <c r="H275" s="16"/>
-      <c r="I275" s="16"/>
-      <c r="J275" s="16"/>
-      <c r="K275" s="16"/>
-      <c r="L275" s="16"/>
-      <c r="M275" s="16"/>
-      <c r="N275" s="16"/>
-      <c r="O275" s="16"/>
-      <c r="P275" s="16"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="26"/>
+      <c r="D275" s="26"/>
+      <c r="E275" s="26"/>
+      <c r="F275" s="26"/>
+      <c r="G275" s="26"/>
+      <c r="H275" s="26"/>
+      <c r="I275" s="26"/>
+      <c r="J275" s="26"/>
+      <c r="K275" s="26"/>
+      <c r="L275" s="26"/>
+      <c r="M275" s="26"/>
+      <c r="N275" s="26"/>
+      <c r="O275" s="26"/>
+      <c r="P275" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A199:P199"/>
-    <mergeCell ref="A211:P211"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A177:P177"/>
-    <mergeCell ref="A181:P181"/>
-    <mergeCell ref="A179:P179"/>
+    <mergeCell ref="B259:P259"/>
+    <mergeCell ref="B267:P267"/>
+    <mergeCell ref="A269:P269"/>
+    <mergeCell ref="A273:P273"/>
+    <mergeCell ref="A275:P275"/>
+    <mergeCell ref="A247:P247"/>
+    <mergeCell ref="A251:P251"/>
+    <mergeCell ref="A253:P253"/>
+    <mergeCell ref="A255:P255"/>
+    <mergeCell ref="B257:P257"/>
+    <mergeCell ref="A235:P235"/>
+    <mergeCell ref="A239:P239"/>
+    <mergeCell ref="A241:P241"/>
+    <mergeCell ref="A243:P243"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A60:P60"/>
     <mergeCell ref="A92:P92"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A72:P72"/>
@@ -6178,26 +6951,13 @@
     <mergeCell ref="A86:H86"/>
     <mergeCell ref="A88:P88"/>
     <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A235:P235"/>
-    <mergeCell ref="A239:P239"/>
-    <mergeCell ref="A241:P241"/>
-    <mergeCell ref="A243:P243"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A247:P247"/>
-    <mergeCell ref="A251:P251"/>
-    <mergeCell ref="A253:P253"/>
-    <mergeCell ref="A255:P255"/>
-    <mergeCell ref="B257:P257"/>
-    <mergeCell ref="B259:P259"/>
-    <mergeCell ref="B267:P267"/>
-    <mergeCell ref="A269:P269"/>
-    <mergeCell ref="A273:P273"/>
-    <mergeCell ref="A275:P275"/>
+    <mergeCell ref="A199:P199"/>
+    <mergeCell ref="A211:P211"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A177:P177"/>
+    <mergeCell ref="A181:P181"/>
+    <mergeCell ref="A179:P179"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java virtual machine/java虚拟机.xlsx
+++ b/Java virtual machine/java虚拟机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="java虚拟机运行时数据区" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="319">
   <si>
     <t>数据区名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实例对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垃圾收集器管理的主要区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +132,6 @@
   </si>
   <si>
     <t>引用计数算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给对象添加一个引用计数器，每当有一个地方引用它时，计数器值加1；当引用是小事，计数器值减1,；任何时刻计数器为0的对象就是不可能再被使用的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标记过程与“标记-清除”算法一样，但后续步骤不是直接对可回收对象进行清理，而是让所有存活的对象都想一段移动，然后直接清理掉边界意外的内存。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标记-整理算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,18 +274,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在OopMap的协助下，HotSpot可以快速且准确地完成GC Roots枚举。并且HotSpot也的确没有为每条指令都生成OopMap，只是在“特定的位置”记录了这些信息，这心位置成为安全点，即程序执行时并非在所有的地方都能停顿下来开始GC，只有在到达安全点时才能停顿。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安全区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用安全点似乎已经完美地解决了如何进入GC的问题，但实际情况却并不一定。安全点机制保证了程序执行时，在不太城的时间内就会遇到可进入GC的安全点。但是程序“不执行”的时候呢？安全区域是指在一段代码片段中，引用关系不会发生变化。在这个区域中的任何地方开始GC都是安全的，我们也可以把安全区域看做是被扩展了的安全点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HotSpot虚拟机的垃圾收集器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +299,6 @@
   </si>
   <si>
     <t>Serial收集器对于运行在Client模式下的虚拟机来说是一个很好的选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serial收集器的多线程版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,12 +308,6 @@
   </si>
   <si>
     <t>ParNew收集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单线程收集器
-必须暂停其他所有的工作线程，直到收集结束
-简单而高效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,13 +338,6 @@
   </si>
   <si>
     <t>停顿时间越短就越适合需要与用户交互的程序，良好的响应速度能提升用户体验，而高吞吐量则可以高效率地利用CPU时间，尽快完成程序的运算任务，主要适合在后台运算而不需要太多交互的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要意义是在于给Client模式下的虚拟机使用
-在Server模式下的两大用途：
-在JDK1.5以及之前的版本中与Parallel Scavenge收集器搭配使用
-作为CMS收集器的后背元，在并发手机发生Concurrent Mode Failure时使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1649,8 +1612,10 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
+      <t>空间分配担保：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1658,26 +1623,230 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>动态对象年龄判定：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为了能更好地适应不同程序的内存状况，虚拟机并不是永远地要求对象的年龄必须达到了MaxTenuringThreshold才能晋升老年代，如果Survivor空间中相同年龄所有对象大小的综合大于Survivor空间的一半，年龄大于或等于该年龄的对象就可以直接进入老年代，无须等到MaxTenuringThreshold中要求的年龄。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>空间分配担保：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>在发生Minor GC之前，虚拟机会先检查老年代最大可用的连续空间是否大于新生代所有对象的总空间，如果这个条件成立，那么Minor GC可以确保是安全的。如果不成立，则虚拟机会查看HandlePromotionFailure设置值是否允许担保失败。如果允许，那么会继续检查老年代最大可用的连续空间是否大于历次晋升到老年代对象的平均水平，如果大于，将尝试着进行一次Minor GC，尽管这次Minor GC是有风险的；如果小于，或者HandlePromotionFailure设置不允许冒险，那这时也要改为进行一次Full GC。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机类加载机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机把描述类的数据从Class文件加载到内存，并对数据进行校验、转换解析和初始化，最终形成可以被虚拟机直接使用的java类型，这就是虚拟机的类加载机制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图中，加载、验证、准备、初始化和卸载这5个阶段的顺序是确定的，类的加载过程必须按照这种顺序按部就班地开始，而解析阶段则不一定：它在某些情况下可以在初始化阶段开始之后再开始，这是为了支持java语言的运行时绑定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5中会触发类初始化的场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）遇到new、getstatic、putstatic或invokestatic这4条字节码指令时，如果类没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）使用java.lang.reflect包的方法对类进行反射调用的时候，如果类没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）当初始化一个类的时候，如果发现其父类还没有进行过初始化，则需要先触发其父类的初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）当虚拟机启动时，用户需要制定一个要执行的主类（包含main()方法的那个类），虚拟机会先初始化这个主类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）当使用JDK 1.7的动态语言支持时，如果一个java.lang.invoke.MethodHandle实例最后的解析结果REF_getStatic、REF_putStatic、REF_invokeStatic的方法句柄，并且这个方法句柄所对应的类型没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在加载阶段，虚拟机需要完成以下3件事情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）通过一个类的全限定名来获取定义此类的二进制字节流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）将这个字节流所代表的静态存储结构转化为方法区的运行时数据结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）在内存中生成一个代表这个类的java.lang.Class对象，作为方法区这个类的各种数据的访问入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组类（下面简称为C）创建过程就遵循以下规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果数组的组件类型（Component Type，指的是数组去掉一个维度的类型）是引用类型，那就递归采用本节中定义的加载过程去加载这个组件类型，数组C将在加载该组件类型的类加载器的类名称空间上被标识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果数组的组件类型不是引用类型（例如 int[] 数组），java虚拟机将会把数组C标记为引导类加载器关联。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组类的可见性与它的组件类型的可见性一致，如果组件类型不是引用类型，那数组类的可见性将默认为public。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是连接阶段的第一步，这一阶段的目的是为了确保Class文件的字节流中包含的信息符合当前虚拟机的要求，并且不会危害虚拟机自身的安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证阶段大致上会完成下面4个阶段的校验动作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件格式验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段要验证字节流是否符合Class文件格式的规范，并且能被当前版本的虚拟机处理。这一阶段可能包括下面这些验证点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否以魔数0xCAFEBABE开头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主、次版本号是否在当前虚拟机处理范围之内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量池的常量是否有不被支持的常量类型（检查常量tag标志）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向常量的各种索引值中是否有指向不存在的常量或不符合类型的常量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTANT_Utf8_info型的常量中是否有不符合UTF8编码的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class文件中各个部分及文件本身是否有被删除的或附加的其他信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段是对字节码描述的信息进行语义分析，以保证其描述的信息符合java语言规范的要求，这个阶段可能包括的验证点如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类是否有父类（除了java.lang.Object之外，所有的类应当有父类）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类的父类是否继承了不允许被继承的类（被final修饰的类）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果这个类不是抽象类，是否实现了其父类或接口之中要求实现的所有方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类中的字段、方法是否与父类产生矛盾（例如覆盖了父类的final字段，或者出现不符合规矩的方法重载，例如方法参数都一致，但返回值类型却不同等）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节码验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三阶段是整个验证过程中最复杂的一个阶段，主要目的是通过数据流和控制流分析，确定程序语义是合法的、符合逻辑的。这个阶段将对类的方法体进行校验分析，保证被校验类的方法在运行时不会做出危害虚拟机安全的事件，例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证任意时刻操作数栈的数据类型与指令代码序列都能配合工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证跳转指令不会跳转到方法体以外的字节码指令上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证方法体中的类型转换是有效的，例如可以把一个子类对象赋值给父类数据类型，这是安全的，但是把父类对象赋值给子类数据类型，甚至把对象赋值给与它毫无继承关系，完全不相干的一个数据类型，则是危险和不合法的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个阶段的校验发生在虚拟机将符号引用转化为直接引用的时候，这个转换动作将在连接的第三阶段——解析阶段中发生。符号引用验证可以看做是对类自身以外（常量池中的各种符号引用）的信息进行匹配性校验，通常需要校验下列内容：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用中通过字符串描述的全限定名是否能找到对应的类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定类中是否存在符合方法的字段描述符以及简单名称所描述的方法和字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用中的类、字段、方法的访问性（private、protected、public、default）是否可被当前类访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备阶段是正式为类变量分配内存并设置类变量初始值的阶段，这些变量所使用的内存都将在方法区中进行分配。这个阶段中有两个容易产生混淆的概念需要强调一下，首先，这时候进行内存分配的仅包括类变量（被static修饰的变量），而不包括实例变量，实例变量将会在对象实例化时随着对象一起分配在java堆中。其次，这里所说的初始值“通常情况”下是数据类型的零值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析阶段是虚拟机将常量池内的符号引用替换为直接引用的过程。符号引用与直接引用的关联见下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1685,224 +1854,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>在发生Minor GC之前，虚拟机会先检查老年代最大可用的连续空间是否大于新生代所有对象的总空间，如果这个条件成立，那么Minor GC可以确保是安全的。如果不成立，则虚拟机会查看HandlePromotionFailure设置值是否允许担保失败。如果允许，那么会继续检查老年代最大可用的连续空间是否大于历次晋升到老年代对象的平均水平，如果大于，将尝试着进行一次Minor GC，尽管这次Minor GC是有风险的；如果小于，或者HandlePromotionFailure设置不允许冒险，那这时也要改为进行一次Full GC。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机类加载机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机把描述类的数据从Class文件加载到内存，并对数据进行校验、转换解析和初始化，最终形成可以被虚拟机直接使用的java类型，这就是虚拟机的类加载机制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类的生命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图中，加载、验证、准备、初始化和卸载这5个阶段的顺序是确定的，类的加载过程必须按照这种顺序按部就班地开始，而解析阶段则不一定：它在某些情况下可以在初始化阶段开始之后再开始，这是为了支持java语言的运行时绑定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5中会触发类初始化的场景：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）遇到new、getstatic、putstatic或invokestatic这4条字节码指令时，如果类没有进行过初始化，则需要先触发其初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）使用java.lang.reflect包的方法对类进行反射调用的时候，如果类没有进行过初始化，则需要先触发其初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）当初始化一个类的时候，如果发现其父类还没有进行过初始化，则需要先触发其父类的初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4）当虚拟机启动时，用户需要制定一个要执行的主类（包含main()方法的那个类），虚拟机会先初始化这个主类。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5）当使用JDK 1.7的动态语言支持时，如果一个java.lang.invoke.MethodHandle实例最后的解析结果REF_getStatic、REF_putStatic、REF_invokeStatic的方法句柄，并且这个方法句柄所对应的类型没有进行过初始化，则需要先触发其初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载的过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在加载阶段，虚拟机需要完成以下3件事情：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）通过一个类的全限定名来获取定义此类的二进制字节流。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）将这个字节流所代表的静态存储结构转化为方法区的运行时数据结构。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）在内存中生成一个代表这个类的java.lang.Class对象，作为方法区这个类的各种数据的访问入口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个数组类（下面简称为C）创建过程就遵循以下规则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果数组的组件类型（Component Type，指的是数组去掉一个维度的类型）是引用类型，那就递归采用本节中定义的加载过程去加载这个组件类型，数组C将在加载该组件类型的类加载器的类名称空间上被标识。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果数组的组件类型不是引用类型（例如 int[] 数组），java虚拟机将会把数组C标记为引导类加载器关联。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组类的可见性与它的组件类型的可见性一致，如果组件类型不是引用类型，那数组类的可见性将默认为public。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证是连接阶段的第一步，这一阶段的目的是为了确保Class文件的字节流中包含的信息符合当前虚拟机的要求，并且不会危害虚拟机自身的安全。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证阶段大致上会完成下面4个阶段的校验动作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件格式验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一阶段要验证字节流是否符合Class文件格式的规范，并且能被当前版本的虚拟机处理。这一阶段可能包括下面这些验证点：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否以魔数0xCAFEBABE开头。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主、次版本号是否在当前虚拟机处理范围之内。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量池的常量是否有不被支持的常量类型（检查常量tag标志）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向常量的各种索引值中是否有指向不存在的常量或不符合类型的常量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSTANT_Utf8_info型的常量中是否有不符合UTF8编码的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class文件中各个部分及文件本身是否有被删除的或附加的其他信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元数据验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二阶段是对字节码描述的信息进行语义分析，以保证其描述的信息符合java语言规范的要求，这个阶段可能包括的验证点如下：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个类是否有父类（除了java.lang.Object之外，所有的类应当有父类）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个类的父类是否继承了不允许被继承的类（被final修饰的类）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果这个类不是抽象类，是否实现了其父类或接口之中要求实现的所有方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类中的字段、方法是否与父类产生矛盾（例如覆盖了父类的final字段，或者出现不符合规矩的方法重载，例如方法参数都一致，但返回值类型却不同等）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节码验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三阶段是整个验证过程中最复杂的一个阶段，主要目的是通过数据流和控制流分析，确定程序语义是合法的、符合逻辑的。这个阶段将对类的方法体进行校验分析，保证被校验类的方法在运行时不会做出危害虚拟机安全的事件，例如：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证任意时刻操作数栈的数据类型与指令代码序列都能配合工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证跳转指令不会跳转到方法体以外的字节码指令上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证方法体中的类型转换是有效的，例如可以把一个子类对象赋值给父类数据类型，这是安全的，但是把父类对象赋值给子类数据类型，甚至把对象赋值给与它毫无继承关系，完全不相干的一个数据类型，则是危险和不合法的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号引用验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一个阶段的校验发生在虚拟机将符号引用转化为直接引用的时候，这个转换动作将在连接的第三阶段——解析阶段中发生。符号引用验证可以看做是对类自身以外（常量池中的各种符号引用）的信息进行匹配性校验，通常需要校验下列内容：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号引用中通过字符串描述的全限定名是否能找到对应的类。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在指定类中是否存在符合方法的字段描述符以及简单名称所描述的方法和字段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号引用中的类、字段、方法的访问性（private、protected、public、default）是否可被当前类访问。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备阶段是正式为类变量分配内存并设置类变量初始值的阶段，这些变量所使用的内存都将在方法区中进行分配。这个阶段中有两个容易产生混淆的概念需要强调一下，首先，这时候进行内存分配的仅包括类变量（被static修饰的变量），而不包括实例变量，实例变量将会在对象实例化时随着对象一起分配在java堆中。其次，这里所说的初始值“通常情况”下是数据类型的零值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析阶段是虚拟机将常量池内的符号引用替换为直接引用的过程。符号引用与直接引用的关联见下：</t>
+      <t>符号引用（Symbolic References）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>符号引用以一组符号来描述所引用的目标，符号可以是任何形式的字面量，只要使用时能无歧义地定位到目标即可。符号引用与虚拟机实现的内存布局无关，引用的目标并不一定已经加载到内存中。各种虚拟机实现的内存布局可以各不相同，但是它们能够接受的符号引用必须都是一致的，因为符号引用的字面量形式明确定义在java虚拟机规范的Class文件格式中。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1916,7 +1879,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>符号引用（Symbolic References）：</t>
+      <t>直接引用（Direct References）：</t>
     </r>
     <r>
       <rPr>
@@ -1926,14 +1889,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>符号引用以一组符号来描述所引用的目标，符号可以是任何形式的字面量，只要使用时能无歧义地定位到目标即可。符号引用与虚拟机实现的内存布局无关，引用的目标并不一定已经加载到内存中。各种虚拟机实现的内存布局可以各不相同，但是它们能够接受的符号引用必须都是一致的，因为符号引用的字面量形式明确定义在java虚拟机规范的Class文件格式中。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>直接引用可以是直接指向目标的指针、相对偏移量或是一个能间接定位到目标的句柄。直接引用是和虚拟机实现的内存布局相关的，同一个符号引用在不通虚拟机实例上翻译出来的直接引用一般不会相同。如果有了直接引用，那引用的目标必定已经在内存中存在。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类或接口的解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类方法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口方法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类初始化阶段是类加载过程的最后一步，前面的类加载过程中，除了在加载阶段用户应用程序可以通过自定义类加载器参与之外，其余动作完全由虚拟机主导和控制。到了初始化阶段，才真正开始执行程序定义的java程序代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法执行过程中一些可能会影响程序运行行为的特点和细节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法是由编译器自动收集类中的所有类变量的复制动作和静态语句块（static{}块）中的语句合并产生的，编译器收集的顺序是由语句在源文件中出现的顺序所决定的，静态语句块中只能访问到定义在静态语句块之前的变量，定义在之后的变量，在前面的静态语句块可以赋值，但是不能访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法与类的构造函数不通，它不需要显示地调用父类构造器，虚拟机会保证在子类的&lt;clinit&gt;()方法执行之前，父类的&lt;clinit&gt;()方法已经执行完毕。因此在虚拟机中第一个被执行的&lt;clinit&gt;()方法的类肯定是java.lang.Object。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于父类的&lt;clinit&gt;()方法先执行，也就意味着父类中定义的静态语句块要优先于子类的变量赋值操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法对于类或接口来说并不是必需的，如果一个类中没有静态语句块，也没有对变量的赋值操作，那么编译器可以不为这个类生成&lt;clinit&gt;()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口中不能使用静态语句块，但仍然有变量初始化的赋值操作，因为接口与类一样都会生成&lt;clinit&gt;()方法。但接口与类不通的是，执行接口的&lt;clinit&gt;()方法不需要先执行父接口的&lt;clinit&gt;()方法。只有当父接口中定义的变量使用时，父接口才会初始化。另外，接口的实现类在初始化时也一样不会执行接口的&lt;clinit&gt;()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机会保证一个类的&lt;clinit&gt;()方法在多线程环境中被正确的加锁、同步，如果多个线程同时去初始化一个类，那么只会有一个线程去执行这个类的&lt;clinit&gt;()方法，其他线程都需要阻塞等待，知道活动线程执行&lt;clinit&gt;()方法完毕。如果在一个类的&lt;clinit&gt;()方法中有耗时很长的操作，就可能造成多个进程阻塞，在实际应用中这种阻塞往往是很隐蔽的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机设计团队把类加载夹断中的“通过一个类的全限定名来获取描述此类的二进制字节流”这个动作放到java虚拟机外部去实现，以便让应用程序自己决定如何去获取所需要的类。实现这个动作的代码模块称为“类加载器”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类与类加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器虽然只用于实现类的加载动作，但它在java程序中启动的作用却远远不限于类加载阶段。对于任意一个类，都需要由加载它的类加载器和这个类本身一同确立其在java虚拟机中的唯一性，每一个类加载，都用友一个独立的类名称空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双亲委派模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝大部分java程序都会使用到以下3种系统提供的类加载器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从java虚拟机的角度来讲，只存在两种不同的类加载器：一种是启动类加载器（Bootstrap ClassLoader），这个类加载器使用C++语言实现，是虚拟机自身的一部分；另一种就是所有其他的类加载器，这些类加载器都由java语言实现，独立于虚拟机外部，并且全都继承自抽象类java.lang.ClassLoader。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>启动类加载器（Bootstrap ClassLoader）:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1941,103 +1986,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>直接引用（Direct References）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>直接引用可以是直接指向目标的指针、相对偏移量或是一个能间接定位到目标的句柄。直接引用是和虚拟机实现的内存布局相关的，同一个符号引用在不通虚拟机实例上翻译出来的直接引用一般不会相同。如果有了直接引用，那引用的目标必定已经在内存中存在。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类或接口的解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类方法解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口方法解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类初始化阶段是类加载过程的最后一步，前面的类加载过程中，除了在加载阶段用户应用程序可以通过自定义类加载器参与之外，其余动作完全由虚拟机主导和控制。到了初始化阶段，才真正开始执行程序定义的java程序代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法执行过程中一些可能会影响程序运行行为的特点和细节。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法是由编译器自动收集类中的所有类变量的复制动作和静态语句块（static{}块）中的语句合并产生的，编译器收集的顺序是由语句在源文件中出现的顺序所决定的，静态语句块中只能访问到定义在静态语句块之前的变量，定义在之后的变量，在前面的静态语句块可以赋值，但是不能访问。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法与类的构造函数不通，它不需要显示地调用父类构造器，虚拟机会保证在子类的&lt;clinit&gt;()方法执行之前，父类的&lt;clinit&gt;()方法已经执行完毕。因此在虚拟机中第一个被执行的&lt;clinit&gt;()方法的类肯定是java.lang.Object。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于父类的&lt;clinit&gt;()方法先执行，也就意味着父类中定义的静态语句块要优先于子类的变量赋值操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法对于类或接口来说并不是必需的，如果一个类中没有静态语句块，也没有对变量的赋值操作，那么编译器可以不为这个类生成&lt;clinit&gt;()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口中不能使用静态语句块，但仍然有变量初始化的赋值操作，因为接口与类一样都会生成&lt;clinit&gt;()方法。但接口与类不通的是，执行接口的&lt;clinit&gt;()方法不需要先执行父接口的&lt;clinit&gt;()方法。只有当父接口中定义的变量使用时，父接口才会初始化。另外，接口的实现类在初始化时也一样不会执行接口的&lt;clinit&gt;()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机会保证一个类的&lt;clinit&gt;()方法在多线程环境中被正确的加锁、同步，如果多个线程同时去初始化一个类，那么只会有一个线程去执行这个类的&lt;clinit&gt;()方法，其他线程都需要阻塞等待，知道活动线程执行&lt;clinit&gt;()方法完毕。如果在一个类的&lt;clinit&gt;()方法中有耗时很长的操作，就可能造成多个进程阻塞，在实际应用中这种阻塞往往是很隐蔽的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机设计团队把类加载夹断中的“通过一个类的全限定名来获取描述此类的二进制字节流”这个动作放到java虚拟机外部去实现，以便让应用程序自己决定如何去获取所需要的类。实现这个动作的代码模块称为“类加载器”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类与类加载器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载器虽然只用于实现类的加载动作，但它在java程序中启动的作用却远远不限于类加载阶段。对于任意一个类，都需要由加载它的类加载器和这个类本身一同确立其在java虚拟机中的唯一性，每一个类加载，都用友一个独立的类名称空间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双亲委派模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝大部分java程序都会使用到以下3种系统提供的类加载器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从java虚拟机的角度来讲，只存在两种不同的类加载器：一种是启动类加载器（Bootstrap ClassLoader），这个类加载器使用C++语言实现，是虚拟机自身的一部分；另一种就是所有其他的类加载器，这些类加载器都由java语言实现，独立于虚拟机外部，并且全都继承自抽象类java.lang.ClassLoader。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>启动类加载器（Bootstrap ClassLoader）:</t>
+      <t>负责将&lt;JAVA_HOME&gt;\lib目录中，或者别-Xbootclasspath参数指定的路径中的，并且是虚拟机识别的类库加载到虚拟机内存中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>扩展类加载器（Extension ClassLoader）：</t>
     </r>
     <r>
       <rPr>
@@ -2048,13 +2003,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>负责将&lt;JAVA_HOME&gt;\lib目录中，或者别-Xbootclasspath参数指定的路径中的，并且是虚拟机识别的类库加载到虚拟机内存中。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>扩展类加载器（Extension ClassLoader）：</t>
+      <t>负责加载&lt;JAVA_HOME&gt;\lib\ext目录中的，或者被java.ext.dirs系统变量所指定的路径中的所有类库，开发者可以直接使用扩展类加载器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>应用程序类加载器（Application ClassLoader）：</t>
     </r>
     <r>
       <rPr>
@@ -2065,16 +2020,50 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>负责加载&lt;JAVA_HOME&gt;\lib\ext目录中的，或者被java.ext.dirs系统变量所指定的路径中的所有类库，开发者可以直接使用扩展类加载器。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>应用程序类加载器（Application ClassLoader）：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>一般也被称为系统类加载器。负责加载用户类路径（ClassPath）上所指定的类库，开发者可以直接使用这个类加载器，如果应用程序中没有自定义过自己的类加载器，一般情况下这个就是程序中默认的类加载器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器双亲委派模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双亲委派模型的工作过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个类加载收到了类加载的请求，它首先不会自己去尝试加载这个类，而是把这个请求委派给父类加载器去完成，每一个层次的类加载都是如此，因此是所有的加载请求最终都应该传送到顶层的启动类加载器中，只有当附加在其反馈自己无法完成这个加载请求（它的搜索范围中没有找到所需的类）时，子加载器才会尝试自己去加载。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机字节码执行引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时栈帧结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个方法从调用开始至执行完成的过程，都对应着一个栈帧在虚拟机里面从入栈到出栈的过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编译程序代码的时候，栈帧中需要多大的局部变量表，多深的操作数栈都已经完全确定了，并且写入到方法表的Code属性之中，因此一个栈帧需要分配多少内存，不会受到程序运行期变量数据的影响，而仅仅取决于具体的虚拟机实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈帧的概念结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详解栈帧中的局部变量表、操作数栈、动态链接、方法返回地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -2082,44 +2071,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一般也被称为系统类加载器。负责加载用户类路径（ClassPath）上所指定的类库，开发者可以直接使用这个类加载器，如果应用程序中没有自定义过自己的类加载器，一般情况下这个就是程序中默认的类加载器。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载器双亲委派模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双亲委派模型的工作过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果一个类加载收到了类加载的请求，它首先不会自己去尝试加载这个类，而是把这个请求委派给父类加载器去完成，每一个层次的类加载都是如此，因此是所有的加载请求最终都应该传送到顶层的启动类加载器中，只有当附加在其反馈自己无法完成这个加载请求（它的搜索范围中没有找到所需的类）时，子加载器才会尝试自己去加载。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机字节码执行引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时栈帧结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个方法从调用开始至执行完成的过程，都对应着一个栈帧在虚拟机里面从入栈到出栈的过程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编译程序代码的时候，栈帧中需要多大的局部变量表，多深的操作数栈都已经完全确定了，并且写入到方法表的Code属性之中，因此一个栈帧需要分配多少内存，不会受到程序运行期变量数据的影响，而仅仅取决于具体的虚拟机实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈帧的概念结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详解栈帧中的局部变量表、操作数栈、动态链接、方法返回地址</t>
+      <t>局部变量表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2133,7 +2096,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>局部变量表：</t>
+      <t>操作数栈：</t>
     </r>
     <r>
       <rPr>
@@ -2143,8 +2106,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量。</t>
-    </r>
+      <t>当一个方法刚刚开始执行的时候，这个方法的操作数栈是空的，在方法的执行过程中，会有各种字节码指令往操作数栈写入和提取内容，也就是出栈/入栈操作。Java虚拟机的解释之星引擎称为“基于栈的执行引擎”，其中所指的“栈”就是操作数栈。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个栈帧之间的数据共享图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2158,7 +2125,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>操作数栈：</t>
+      <t>动态连接：</t>
     </r>
     <r>
       <rPr>
@@ -2168,18 +2135,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>当一个方法刚刚开始执行的时候，这个方法的操作数栈是空的，在方法的执行过程中，会有各种字节码指令往操作数栈写入和提取内容，也就是出栈/入栈操作。Java虚拟机的解释之星引擎称为“基于栈的执行引擎”，其中所指的“栈”就是操作数栈。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个栈帧之间的数据共享图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>每个栈帧都包含一个指向运行时常量池中该栈帧所属方法的引用，持有这个引用是为了支持方法调用过程中的动态连接。引用符号一部分会在类加载阶段或者第一次使用的时候就转化直接引用，这种转换称为静态解析。另外一部分将在每一次运行期间转化为直接引用，用这部分称为动态连接。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法返回地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一个方法开始执行后，只有两种方式可以退出这个方法。第一种方式是执行引擎遇到任意一个方法返回的字节码指令，这时候可能会有返回值传递给上层的方法调用者（调用当前方法的方法称为方法调用者），是否有返回值和返回值的类型将根据遇到何种方法返回指令来决定，这种退出方法的方式称为正常完成出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一种退出方式是，在方法执行过程中遇到了异常，并且这个异常没有在方法体内得到处理，无论是java虚拟机内部产生的异常，还是代码中使用athrow自己吗指令产生的异常，只要在本方法的异常表中没有搜索到匹配的异常处理器，就会导致方法退出，这种退出方法的方式称为异常完成出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>附加信息：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -2187,38 +2164,129 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>动态连接：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每个栈帧都包含一个指向运行时常量池中该栈帧所属方法的引用，持有这个引用是为了支持方法调用过程中的动态连接。引用符号一部分会在类加载阶段或者第一次使用的时候就转化直接引用，这种转换称为静态解析。另外一部分将在每一次运行期间转化为直接引用，用这部分称为动态连接。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法返回地址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当一个方法开始执行后，只有两种方式可以退出这个方法。第一种方式是执行引擎遇到任意一个方法返回的字节码指令，这时候可能会有返回值传递给上层的方法调用者（调用当前方法的方法称为方法调用者），是否有返回值和返回值的类型将根据遇到何种方法返回指令来决定，这种退出方法的方式称为正常完成出口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外一种退出方式是，在方法执行过程中遇到了异常，并且这个异常没有在方法体内得到处理，无论是java虚拟机内部产生的异常，还是代码中使用athrow自己吗指令产生的异常，只要在本方法的异常表中没有搜索到匹配的异常处理器，就会导致方法退出，这种退出方法的方式称为异常完成出口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>附加信息：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>虚拟机规范允许具体的虚拟机实现增加一些规范里没有描述的信息到栈帧之中，例如与调试相关的信息，这部分信息完全取决于具体的虚拟机实现。在实际开发中，一版会把动态连接、方法返回地址与其他区间信息全部归为一类，称为栈帧信息。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法调用并不等同于方法执行，方法调用阶段唯一的任务就是确定被调用方法的版本（即调用哪一个方法），暂时还不涉及方法内部的具体运行过程。在程序运行时，进行方法调用是最普遍、最频繁的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法在程序真正运行之前就有一个可确定的调用版本，并且这个方法的调用版本在运行期是不可改变的。换句话说，调用目标在程序代码写好、编译器进行编译时就必须确定下来。这类方法的调用称为解析。解析调用一定是个静态过程，在编译期间就完全确定，在类装载的解析阶段就会把涉及的符号引用全部转变为可确定的直接引用，不会延迟到运行期再去完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派调用过程将会揭示java多态性特征的一些最近本的体现，如“重载”和“重写”在java虚拟机之中是如何确定正确的目标方法的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有依赖静态类型来定位方法执行版本的分派动作称为静态分派。静态分派的点应用是方法重载。静态分派发生在编译阶段，因此确定静态分派的动作实际上不是由虚拟机来执行的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态分派和多态性的另外一个重要体现——重写有着很密切的关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分派与多分派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法的接收者与方法的参数统称为方法的宗量。根据分派基于多少种宗量，可以将分派划分为单分派和多分派两种。单分派是根据一个宗量对目标方法进行选择，多分派则是根据多于一个宗量对目标方法进行选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机动态分派的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚方法表：如果某个方法在子类中没有被重写，那子类的虚方法表里面的地址入口和父类相同方法的地址入口是一致的，都指向父类的实现入口。如果子类中重写了这个方法，子类方法表中的地址将会替换为指向子类实现版本的入口地址。方法表一般在类加载的连接阶段进行初始化，准备了类的变量初始值后，虚拟机会把该类的方法表也初始化完毕。“稳定优化”手段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内联缓存：“激进优化”手段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护内联：“激进优化”手段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM堆逻辑模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生代&amp;老年代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对象添加一个引用计数器，每当有一个地方引用它时，计数器值加1；当引用失效时，计数器值减1；任何时刻计数器为0的对象就是不可能再被使用的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记过程与“标记-清除”算法一样，但后续步骤不是直接对可回收对象进行清理，而是让所有存活的对象都向一端移动，然后直接清理掉边界以外的内存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在OopMap的协助下，HotSpot可以快速且准确地完成GC Roots枚举。并且HotSpot也的确没有为每条指令都生成OopMap，只是在“特定的位置”记录了这些信息，这些位置成为安全点，即程序执行时并非在所有的地方都能停顿下来开始GC，只有在到达安全点时才能停顿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用安全点似乎已经完美地解决了如何进入GC的问题，但实际情况却并不一定。安全点机制保证了程序执行时，在不太长的时间内就会遇到可进入GC的安全点。但是程序“不执行”的时候呢？安全区域是指在一段代码片段中，引用关系不会发生变化。在这个区域中的任何地方开始GC都是安全的，我们也可以把安全区域看做是被扩展了的安全点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生代收集器
+单线程收集器
+必须暂停其他所有的工作线程，直到收集结束
+简单而高效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生代收集器
+Serial收集器的多线程版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要意义是在于给Client模式下的虚拟机使用
+在Server模式下的两大用途：
+在JDK1.5以及之前的版本中与Parallel Scavenge收集器搭配使用
+作为CMS收集器的后备预案，在并发收集发生Concurrent Mode Failure时使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -2226,76 +2294,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>虚拟机规范允许具体的虚拟机实现增加一些规范里没有描述的信息到栈帧之中，例如与调试相关的信息，这部分信息完全取决于具体的虚拟机实现。在实际开发中，一版会把动态连接、方法返回地址与其他区间信息全部归为一类，称为栈帧信息。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法调用并不等同于方法执行，方法调用阶段唯一的任务就是确定被调用方法的版本（即调用哪一个方法），暂时还不涉及方法内部的具体运行过程。在程序运行时，进行方法调用是最普遍、最频繁的操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法在程序真正运行之前就有一个可确定的调用版本，并且这个方法的调用版本在运行期是不可改变的。换句话说，调用目标在程序代码写好、编译器进行编译时就必须确定下来。这类方法的调用称为解析。解析调用一定是个静态过程，在编译期间就完全确定，在类装载的解析阶段就会把涉及的符号引用全部转变为可确定的直接引用，不会延迟到运行期再去完成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分派调用过程将会揭示java多态性特征的一些最近本的体现，如“重载”和“重写”在java虚拟机之中是如何确定正确的目标方法的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态分派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有依赖静态类型来定位方法执行版本的分派动作称为静态分派。静态分派的点应用是方法重载。静态分派发生在编译阶段，因此确定静态分派的动作实际上不是由虚拟机来执行的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态分派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态分派和多态性的另外一个重要体现——重写有着很密切的关系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单分派与多分派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法的接收者与方法的参数统称为方法的宗量。根据分派基于多少种宗量，可以将分派划分为单分派和多分派两种。单分派是根据一个宗量对目标方法进行选择，多分派则是根据多于一个宗量对目标方法进行选择。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机动态分派的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚方法表：如果某个方法在子类中没有被重写，那子类的虚方法表里面的地址入口和父类相同方法的地址入口是一致的，都指向父类的实现入口。如果子类中重写了这个方法，子类方法表中的地址将会替换为指向子类实现版本的入口地址。方法表一般在类加载的连接阶段进行初始化，准备了类的变量初始值后，虚拟机会把该类的方法表也初始化完毕。“稳定优化”手段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内联缓存：“激进优化”手段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护内联：“激进优化”手段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JVM堆逻辑模型</t>
+      <t>动态对象年龄判定：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为了能更好地适应不同程序的内存状况，虚拟机并不是永远地要求对象的年龄必须达到了MaxTenuringThreshold才能晋升老年代，如果Survivor空间中相同年龄所有对象大小的总合大于Survivor空间的一半，年龄大于或等于该年龄的对象就可以直接进入老年代，无须等到MaxTenuringThreshold中要求的年龄。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2362,7 +2372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2451,11 +2461,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2490,7 +2526,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2510,26 +2570,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2639,27 +2687,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3130,27 +3165,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3195,27 +3217,14 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:ln w="9525">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3832,8 +3841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3855,14 +3864,14 @@
         <v>1</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -3871,24 +3880,24 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3909,72 +3918,77 @@
         <v>11</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="11:14" x14ac:dyDescent="0.15">
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="11:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="11:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="11:14" ht="27" x14ac:dyDescent="0.15">
       <c r="K13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="L3:L6"/>
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="K9:K12"/>
+    <mergeCell ref="N9:N12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4040,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E167"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4055,433 +4069,433 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+        <v>62</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="54" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="20"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="20"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="20"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B121" s="20"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="24"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="24"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="24"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B121" s="24"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" s="24"/>
+      <c r="B139" s="20"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
+      <c r="A159" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
     </row>
     <row r="160" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
-      <c r="D161" s="27"/>
+      <c r="A161" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
+      <c r="A163" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
     </row>
     <row r="164" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="27"/>
+      <c r="A165" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
+      <c r="A167" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A167:D167"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4655,1094 +4669,1093 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="A19" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="A31" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
+      <c r="A47" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="12" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
+      <c r="B93" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="27"/>
+      <c r="B99" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
     </row>
     <row r="100" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="27"/>
-      <c r="P105" s="27"/>
+      <c r="B105" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="27"/>
+      <c r="A117" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A121" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
-      <c r="O121" s="27"/>
-      <c r="P121" s="27"/>
+      <c r="A121" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
     </row>
     <row r="123" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="27"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="27"/>
+      <c r="B123" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
     </row>
     <row r="124" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
+      <c r="B125" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B127" s="12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B129" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B131" s="12" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B133" s="12" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="12" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="27"/>
+      <c r="A137" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="18"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="27"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="27"/>
+      <c r="B141" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
     </row>
     <row r="142" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="27"/>
-      <c r="O143" s="27"/>
-      <c r="P143" s="27"/>
+      <c r="B143" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="18"/>
+      <c r="P143" s="18"/>
     </row>
     <row r="144" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="149" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="27"/>
-      <c r="M149" s="27"/>
-      <c r="N149" s="27"/>
-      <c r="O149" s="27"/>
-      <c r="P149" s="27"/>
+      <c r="B149" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
     </row>
     <row r="150" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="27"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="27"/>
-      <c r="O151" s="27"/>
-      <c r="P151" s="27"/>
+      <c r="B151" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="12" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="27"/>
-      <c r="M155" s="27"/>
-      <c r="N155" s="27"/>
-      <c r="O155" s="27"/>
-      <c r="P155" s="27"/>
+      <c r="A155" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="18"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="18"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="27"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="27"/>
-      <c r="P159" s="27"/>
+      <c r="A159" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="18"/>
+      <c r="O159" s="18"/>
+      <c r="P159" s="18"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="12" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="27"/>
-      <c r="M163" s="27"/>
-      <c r="N163" s="27"/>
-      <c r="O163" s="27"/>
-      <c r="P163" s="27"/>
+      <c r="A163" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
+      <c r="N163" s="18"/>
+      <c r="O163" s="18"/>
+      <c r="P163" s="18"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="28"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="28"/>
-      <c r="O167" s="28"/>
-      <c r="P167" s="28"/>
+      <c r="B167" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
     </row>
     <row r="168" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="169" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
-      <c r="L169" s="28"/>
-      <c r="M169" s="28"/>
-      <c r="N169" s="28"/>
-      <c r="O169" s="28"/>
-      <c r="P169" s="28"/>
+      <c r="B169" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
     </row>
     <row r="170" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="171" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
-      <c r="L171" s="28"/>
-      <c r="M171" s="28"/>
-      <c r="N171" s="28"/>
-      <c r="O171" s="28"/>
-      <c r="P171" s="28"/>
+      <c r="B171" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" s="12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
-      <c r="L201" s="27"/>
-      <c r="M201" s="27"/>
-      <c r="N201" s="27"/>
-      <c r="O201" s="27"/>
-      <c r="P201" s="27"/>
+      <c r="A201" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="18"/>
+      <c r="N201" s="18"/>
+      <c r="O201" s="18"/>
+      <c r="P201" s="18"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" s="12" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" s="12" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-      <c r="J209" s="27"/>
-      <c r="K209" s="27"/>
-      <c r="L209" s="27"/>
-      <c r="M209" s="27"/>
-      <c r="N209" s="27"/>
-      <c r="O209" s="27"/>
-      <c r="P209" s="27"/>
+      <c r="A209" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B209" s="18"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18"/>
+      <c r="M209" s="18"/>
+      <c r="N209" s="18"/>
+      <c r="O209" s="18"/>
+      <c r="P209" s="18"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" s="12" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A243" s="12" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="13"/>
-      <c r="B247" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="C247" s="26"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26"/>
-      <c r="G247" s="26"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
-      <c r="J247" s="26"/>
-      <c r="K247" s="26"/>
-      <c r="L247" s="26"/>
-      <c r="M247" s="26"/>
-      <c r="N247" s="26"/>
-      <c r="O247" s="26"/>
-      <c r="P247" s="26"/>
+      <c r="B247" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C247" s="17"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
+      <c r="M247" s="17"/>
+      <c r="N247" s="17"/>
+      <c r="O247" s="17"/>
+      <c r="P247" s="17"/>
     </row>
     <row r="248" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B278" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C278" s="26"/>
-      <c r="D278" s="26"/>
-      <c r="E278" s="26"/>
-      <c r="F278" s="26"/>
-      <c r="G278" s="26"/>
-      <c r="H278" s="26"/>
-      <c r="I278" s="26"/>
-      <c r="J278" s="26"/>
-      <c r="K278" s="26"/>
-      <c r="L278" s="26"/>
-      <c r="M278" s="26"/>
-      <c r="N278" s="26"/>
-      <c r="O278" s="26"/>
-      <c r="P278" s="26"/>
+      <c r="B278" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C278" s="17"/>
+      <c r="D278" s="17"/>
+      <c r="E278" s="17"/>
+      <c r="F278" s="17"/>
+      <c r="G278" s="17"/>
+      <c r="H278" s="17"/>
+      <c r="I278" s="17"/>
+      <c r="J278" s="17"/>
+      <c r="K278" s="17"/>
+      <c r="L278" s="17"/>
+      <c r="M278" s="17"/>
+      <c r="N278" s="17"/>
+      <c r="O278" s="17"/>
+      <c r="P278" s="17"/>
     </row>
     <row r="279" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="280" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B280" s="12" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="282" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C282" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="D282" s="27"/>
-      <c r="E282" s="27"/>
-      <c r="F282" s="27"/>
-      <c r="G282" s="27"/>
-      <c r="H282" s="27"/>
-      <c r="I282" s="27"/>
-      <c r="J282" s="27"/>
-      <c r="K282" s="27"/>
-      <c r="L282" s="27"/>
-      <c r="M282" s="27"/>
-      <c r="N282" s="27"/>
-      <c r="O282" s="27"/>
-      <c r="P282" s="27"/>
+      <c r="C282" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D282" s="18"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="18"/>
+      <c r="G282" s="18"/>
+      <c r="H282" s="18"/>
+      <c r="I282" s="18"/>
+      <c r="J282" s="18"/>
+      <c r="K282" s="18"/>
+      <c r="L282" s="18"/>
+      <c r="M282" s="18"/>
+      <c r="N282" s="18"/>
+      <c r="O282" s="18"/>
+      <c r="P282" s="18"/>
     </row>
     <row r="283" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="284" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C284" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D284" s="27"/>
-      <c r="E284" s="27"/>
-      <c r="F284" s="27"/>
-      <c r="G284" s="27"/>
-      <c r="H284" s="27"/>
-      <c r="I284" s="27"/>
-      <c r="J284" s="27"/>
-      <c r="K284" s="27"/>
-      <c r="L284" s="27"/>
-      <c r="M284" s="27"/>
-      <c r="N284" s="27"/>
-      <c r="O284" s="27"/>
-      <c r="P284" s="27"/>
+      <c r="C284" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D284" s="18"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="18"/>
+      <c r="H284" s="18"/>
+      <c r="I284" s="18"/>
+      <c r="J284" s="18"/>
+      <c r="K284" s="18"/>
+      <c r="L284" s="18"/>
+      <c r="M284" s="18"/>
+      <c r="N284" s="18"/>
+      <c r="O284" s="18"/>
+      <c r="P284" s="18"/>
     </row>
     <row r="285" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="286" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B286" s="12" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A288" s="12" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="B290" s="27"/>
-      <c r="C290" s="27"/>
-      <c r="D290" s="27"/>
-      <c r="E290" s="27"/>
-      <c r="F290" s="27"/>
-      <c r="G290" s="27"/>
-      <c r="H290" s="27"/>
-      <c r="I290" s="27"/>
-      <c r="J290" s="27"/>
-      <c r="K290" s="27"/>
-      <c r="L290" s="27"/>
-      <c r="M290" s="27"/>
-      <c r="N290" s="27"/>
-      <c r="O290" s="27"/>
-      <c r="P290" s="27"/>
+      <c r="A290" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="18"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="18"/>
+      <c r="G290" s="18"/>
+      <c r="H290" s="18"/>
+      <c r="I290" s="18"/>
+      <c r="J290" s="18"/>
+      <c r="K290" s="18"/>
+      <c r="L290" s="18"/>
+      <c r="M290" s="18"/>
+      <c r="N290" s="18"/>
+      <c r="O290" s="18"/>
+      <c r="P290" s="18"/>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A292" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="B294" s="27"/>
-      <c r="C294" s="27"/>
-      <c r="D294" s="27"/>
-      <c r="E294" s="27"/>
-      <c r="F294" s="27"/>
-      <c r="G294" s="27"/>
-      <c r="H294" s="27"/>
-      <c r="I294" s="27"/>
-      <c r="J294" s="27"/>
-      <c r="K294" s="27"/>
-      <c r="L294" s="27"/>
-      <c r="M294" s="27"/>
-      <c r="N294" s="27"/>
-      <c r="O294" s="27"/>
-      <c r="P294" s="27"/>
+      <c r="A294" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" s="18"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="18"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="18"/>
+      <c r="H294" s="18"/>
+      <c r="I294" s="18"/>
+      <c r="J294" s="18"/>
+      <c r="K294" s="18"/>
+      <c r="L294" s="18"/>
+      <c r="M294" s="18"/>
+      <c r="N294" s="18"/>
+      <c r="O294" s="18"/>
+      <c r="P294" s="18"/>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A296" s="12" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B300" s="12" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="302" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B302" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="C302" s="27"/>
-      <c r="D302" s="27"/>
-      <c r="E302" s="27"/>
-      <c r="F302" s="27"/>
-      <c r="G302" s="27"/>
-      <c r="H302" s="27"/>
-      <c r="I302" s="27"/>
-      <c r="J302" s="27"/>
-      <c r="K302" s="27"/>
-      <c r="L302" s="27"/>
-      <c r="M302" s="27"/>
-      <c r="N302" s="27"/>
-      <c r="O302" s="27"/>
-      <c r="P302" s="27"/>
+      <c r="B302" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C302" s="18"/>
+      <c r="D302" s="18"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="18"/>
+      <c r="G302" s="18"/>
+      <c r="H302" s="18"/>
+      <c r="I302" s="18"/>
+      <c r="J302" s="18"/>
+      <c r="K302" s="18"/>
+      <c r="L302" s="18"/>
+      <c r="M302" s="18"/>
+      <c r="N302" s="18"/>
+      <c r="O302" s="18"/>
+      <c r="P302" s="18"/>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B304" s="12" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="306" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="308" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B308" s="12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B310" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C310" s="27"/>
-      <c r="D310" s="27"/>
-      <c r="E310" s="27"/>
-      <c r="F310" s="27"/>
-      <c r="G310" s="27"/>
-      <c r="H310" s="27"/>
-      <c r="I310" s="27"/>
-      <c r="J310" s="27"/>
-      <c r="K310" s="27"/>
-      <c r="L310" s="27"/>
-      <c r="M310" s="27"/>
-      <c r="N310" s="27"/>
-      <c r="O310" s="27"/>
-      <c r="P310" s="27"/>
+      <c r="B310" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C310" s="18"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="18"/>
+      <c r="G310" s="18"/>
+      <c r="H310" s="18"/>
+      <c r="I310" s="18"/>
+      <c r="J310" s="18"/>
+      <c r="K310" s="18"/>
+      <c r="L310" s="18"/>
+      <c r="M310" s="18"/>
+      <c r="N310" s="18"/>
+      <c r="O310" s="18"/>
+      <c r="P310" s="18"/>
     </row>
     <row r="312" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B312" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B314" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="C314" s="27"/>
-      <c r="D314" s="27"/>
-      <c r="E314" s="27"/>
-      <c r="F314" s="27"/>
-      <c r="G314" s="27"/>
-      <c r="H314" s="27"/>
-      <c r="I314" s="27"/>
-      <c r="J314" s="27"/>
-      <c r="K314" s="27"/>
-      <c r="L314" s="27"/>
-      <c r="M314" s="27"/>
-      <c r="N314" s="27"/>
-      <c r="O314" s="27"/>
-      <c r="P314" s="27"/>
+      <c r="B314" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C314" s="18"/>
+      <c r="D314" s="18"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="18"/>
+      <c r="G314" s="18"/>
+      <c r="H314" s="18"/>
+      <c r="I314" s="18"/>
+      <c r="J314" s="18"/>
+      <c r="K314" s="18"/>
+      <c r="L314" s="18"/>
+      <c r="M314" s="18"/>
+      <c r="N314" s="18"/>
+      <c r="O314" s="18"/>
+      <c r="P314" s="18"/>
     </row>
     <row r="315" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="316" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="317" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="318" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B310:P310"/>
-    <mergeCell ref="B314:P314"/>
-    <mergeCell ref="C284:P284"/>
-    <mergeCell ref="A290:P290"/>
-    <mergeCell ref="A294:P294"/>
-    <mergeCell ref="B302:P302"/>
+    <mergeCell ref="A163:P163"/>
+    <mergeCell ref="B167:P167"/>
+    <mergeCell ref="B169:P169"/>
+    <mergeCell ref="B171:P171"/>
+    <mergeCell ref="A201:P201"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="B99:P99"/>
     <mergeCell ref="B105:P105"/>
     <mergeCell ref="A209:P209"/>
     <mergeCell ref="B247:P247"/>
     <mergeCell ref="B278:P278"/>
     <mergeCell ref="C282:P282"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="B93:P93"/>
-    <mergeCell ref="B99:P99"/>
     <mergeCell ref="A159:P159"/>
     <mergeCell ref="A117:P117"/>
     <mergeCell ref="A121:P121"/>
@@ -5754,11 +5767,12 @@
     <mergeCell ref="B149:P149"/>
     <mergeCell ref="B151:P151"/>
     <mergeCell ref="A155:P155"/>
-    <mergeCell ref="A163:P163"/>
-    <mergeCell ref="B167:P167"/>
-    <mergeCell ref="B169:P169"/>
-    <mergeCell ref="B171:P171"/>
-    <mergeCell ref="A201:P201"/>
+    <mergeCell ref="B310:P310"/>
+    <mergeCell ref="B314:P314"/>
+    <mergeCell ref="C284:P284"/>
+    <mergeCell ref="A290:P290"/>
+    <mergeCell ref="A294:P294"/>
+    <mergeCell ref="B302:P302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5881,1064 +5895,1051 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
+      <c r="A58" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
     </row>
     <row r="59" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
+      <c r="A60" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="A68" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
+      <c r="A72" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
     </row>
     <row r="73" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
+      <c r="A74" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
     </row>
     <row r="75" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
+      <c r="A76" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
+      <c r="A78" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
     </row>
     <row r="80" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
+      <c r="A80" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
     </row>
     <row r="81" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
+      <c r="A82" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
     </row>
     <row r="83" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
+      <c r="A84" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A86" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
+      <c r="A86" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="88" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
+      <c r="A88" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
+      <c r="A90" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
     </row>
     <row r="92" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
+      <c r="A92" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
     </row>
     <row r="93" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27"/>
+      <c r="A100" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
     </row>
     <row r="101" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="27"/>
+      <c r="A102" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
     </row>
     <row r="103" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="27"/>
+      <c r="A177" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="18"/>
+      <c r="N177" s="18"/>
+      <c r="O177" s="18"/>
+      <c r="P177" s="18"/>
     </row>
     <row r="179" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
-      <c r="P179" s="27"/>
+      <c r="A179" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="18"/>
+      <c r="P179" s="18"/>
     </row>
     <row r="180" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="181" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B181" s="27"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="27"/>
-      <c r="P181" s="27"/>
+      <c r="A181" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="18"/>
+      <c r="O181" s="18"/>
+      <c r="P181" s="18"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="27"/>
-      <c r="L199" s="27"/>
-      <c r="M199" s="27"/>
-      <c r="N199" s="27"/>
-      <c r="O199" s="27"/>
-      <c r="P199" s="27"/>
+      <c r="A199" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
+      <c r="O199" s="18"/>
+      <c r="P199" s="18"/>
     </row>
     <row r="200" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27"/>
-      <c r="I211" s="27"/>
-      <c r="J211" s="27"/>
-      <c r="K211" s="27"/>
-      <c r="L211" s="27"/>
-      <c r="M211" s="27"/>
-      <c r="N211" s="27"/>
-      <c r="O211" s="27"/>
-      <c r="P211" s="27"/>
+      <c r="A211" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+      <c r="J211" s="18"/>
+      <c r="K211" s="18"/>
+      <c r="L211" s="18"/>
+      <c r="M211" s="18"/>
+      <c r="N211" s="18"/>
+      <c r="O211" s="18"/>
+      <c r="P211" s="18"/>
     </row>
     <row r="212" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A215" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A233" s="12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="27"/>
-      <c r="G235" s="27"/>
-      <c r="H235" s="27"/>
-      <c r="I235" s="27"/>
-      <c r="J235" s="27"/>
-      <c r="K235" s="27"/>
-      <c r="L235" s="27"/>
-      <c r="M235" s="27"/>
-      <c r="N235" s="27"/>
-      <c r="O235" s="27"/>
-      <c r="P235" s="27"/>
+      <c r="A235" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
+      <c r="I235" s="18"/>
+      <c r="J235" s="18"/>
+      <c r="K235" s="18"/>
+      <c r="L235" s="18"/>
+      <c r="M235" s="18"/>
+      <c r="N235" s="18"/>
+      <c r="O235" s="18"/>
+      <c r="P235" s="18"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A237" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B239" s="27"/>
-      <c r="C239" s="27"/>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27"/>
-      <c r="I239" s="27"/>
-      <c r="J239" s="27"/>
-      <c r="K239" s="27"/>
-      <c r="L239" s="27"/>
-      <c r="M239" s="27"/>
-      <c r="N239" s="27"/>
-      <c r="O239" s="27"/>
-      <c r="P239" s="27"/>
+      <c r="A239" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="18"/>
+      <c r="L239" s="18"/>
+      <c r="M239" s="18"/>
+      <c r="N239" s="18"/>
+      <c r="O239" s="18"/>
+      <c r="P239" s="18"/>
     </row>
     <row r="240" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="241" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B241" s="27"/>
-      <c r="C241" s="27"/>
-      <c r="D241" s="27"/>
-      <c r="E241" s="27"/>
-      <c r="F241" s="27"/>
-      <c r="G241" s="27"/>
-      <c r="H241" s="27"/>
-      <c r="I241" s="27"/>
-      <c r="J241" s="27"/>
-      <c r="K241" s="27"/>
-      <c r="L241" s="27"/>
-      <c r="M241" s="27"/>
-      <c r="N241" s="27"/>
-      <c r="O241" s="27"/>
-      <c r="P241" s="27"/>
+      <c r="A241" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="18"/>
+      <c r="G241" s="18"/>
+      <c r="H241" s="18"/>
+      <c r="I241" s="18"/>
+      <c r="J241" s="18"/>
+      <c r="K241" s="18"/>
+      <c r="L241" s="18"/>
+      <c r="M241" s="18"/>
+      <c r="N241" s="18"/>
+      <c r="O241" s="18"/>
+      <c r="P241" s="18"/>
     </row>
     <row r="242" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="243" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B243" s="27"/>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27"/>
-      <c r="E243" s="27"/>
-      <c r="F243" s="27"/>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
-      <c r="I243" s="27"/>
-      <c r="J243" s="27"/>
-      <c r="K243" s="27"/>
-      <c r="L243" s="27"/>
-      <c r="M243" s="27"/>
-      <c r="N243" s="27"/>
-      <c r="O243" s="27"/>
-      <c r="P243" s="27"/>
+      <c r="A243" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="18"/>
+      <c r="G243" s="18"/>
+      <c r="H243" s="18"/>
+      <c r="I243" s="18"/>
+      <c r="J243" s="18"/>
+      <c r="K243" s="18"/>
+      <c r="L243" s="18"/>
+      <c r="M243" s="18"/>
+      <c r="N243" s="18"/>
+      <c r="O243" s="18"/>
+      <c r="P243" s="18"/>
     </row>
     <row r="244" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="245" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B245" s="27"/>
-      <c r="C245" s="27"/>
-      <c r="D245" s="27"/>
-      <c r="E245" s="27"/>
-      <c r="F245" s="27"/>
-      <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
-      <c r="I245" s="27"/>
-      <c r="J245" s="27"/>
-      <c r="K245" s="27"/>
-      <c r="L245" s="27"/>
-      <c r="M245" s="27"/>
-      <c r="N245" s="27"/>
-      <c r="O245" s="27"/>
-      <c r="P245" s="27"/>
+      <c r="A245" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="18"/>
+      <c r="G245" s="18"/>
+      <c r="H245" s="18"/>
+      <c r="I245" s="18"/>
+      <c r="J245" s="18"/>
+      <c r="K245" s="18"/>
+      <c r="L245" s="18"/>
+      <c r="M245" s="18"/>
+      <c r="N245" s="18"/>
+      <c r="O245" s="18"/>
+      <c r="P245" s="18"/>
     </row>
     <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B247" s="27"/>
-      <c r="C247" s="27"/>
-      <c r="D247" s="27"/>
-      <c r="E247" s="27"/>
-      <c r="F247" s="27"/>
-      <c r="G247" s="27"/>
-      <c r="H247" s="27"/>
-      <c r="I247" s="27"/>
-      <c r="J247" s="27"/>
-      <c r="K247" s="27"/>
-      <c r="L247" s="27"/>
-      <c r="M247" s="27"/>
-      <c r="N247" s="27"/>
-      <c r="O247" s="27"/>
-      <c r="P247" s="27"/>
+      <c r="A247" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
+      <c r="J247" s="18"/>
+      <c r="K247" s="18"/>
+      <c r="L247" s="18"/>
+      <c r="M247" s="18"/>
+      <c r="N247" s="18"/>
+      <c r="O247" s="18"/>
+      <c r="P247" s="18"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A249" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="26"/>
-      <c r="E251" s="26"/>
-      <c r="F251" s="26"/>
-      <c r="G251" s="26"/>
-      <c r="H251" s="26"/>
-      <c r="I251" s="26"/>
-      <c r="J251" s="26"/>
-      <c r="K251" s="26"/>
-      <c r="L251" s="26"/>
-      <c r="M251" s="26"/>
-      <c r="N251" s="26"/>
-      <c r="O251" s="26"/>
-      <c r="P251" s="26"/>
+      <c r="A251" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B251" s="17"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
+      <c r="M251" s="17"/>
+      <c r="N251" s="17"/>
+      <c r="O251" s="17"/>
+      <c r="P251" s="17"/>
     </row>
     <row r="252" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="253" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
-      <c r="F253" s="26"/>
-      <c r="G253" s="26"/>
-      <c r="H253" s="26"/>
-      <c r="I253" s="26"/>
-      <c r="J253" s="26"/>
-      <c r="K253" s="26"/>
-      <c r="L253" s="26"/>
-      <c r="M253" s="26"/>
-      <c r="N253" s="26"/>
-      <c r="O253" s="26"/>
-      <c r="P253" s="26"/>
+      <c r="A253" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B253" s="17"/>
+      <c r="C253" s="17"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="17"/>
+      <c r="L253" s="17"/>
+      <c r="M253" s="17"/>
+      <c r="N253" s="17"/>
+      <c r="O253" s="17"/>
+      <c r="P253" s="17"/>
     </row>
     <row r="254" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="255" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B255" s="27"/>
-      <c r="C255" s="27"/>
-      <c r="D255" s="27"/>
-      <c r="E255" s="27"/>
-      <c r="F255" s="27"/>
-      <c r="G255" s="27"/>
-      <c r="H255" s="27"/>
-      <c r="I255" s="27"/>
-      <c r="J255" s="27"/>
-      <c r="K255" s="27"/>
-      <c r="L255" s="27"/>
-      <c r="M255" s="27"/>
-      <c r="N255" s="27"/>
-      <c r="O255" s="27"/>
-      <c r="P255" s="27"/>
+      <c r="A255" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="18"/>
+      <c r="G255" s="18"/>
+      <c r="H255" s="18"/>
+      <c r="I255" s="18"/>
+      <c r="J255" s="18"/>
+      <c r="K255" s="18"/>
+      <c r="L255" s="18"/>
+      <c r="M255" s="18"/>
+      <c r="N255" s="18"/>
+      <c r="O255" s="18"/>
+      <c r="P255" s="18"/>
     </row>
     <row r="256" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="257" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B257" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C257" s="27"/>
-      <c r="D257" s="27"/>
-      <c r="E257" s="27"/>
-      <c r="F257" s="27"/>
-      <c r="G257" s="27"/>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
-      <c r="K257" s="27"/>
-      <c r="L257" s="27"/>
-      <c r="M257" s="27"/>
-      <c r="N257" s="27"/>
-      <c r="O257" s="27"/>
-      <c r="P257" s="27"/>
+      <c r="B257" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C257" s="18"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="18"/>
+      <c r="H257" s="18"/>
+      <c r="I257" s="18"/>
+      <c r="J257" s="18"/>
+      <c r="K257" s="18"/>
+      <c r="L257" s="18"/>
+      <c r="M257" s="18"/>
+      <c r="N257" s="18"/>
+      <c r="O257" s="18"/>
+      <c r="P257" s="18"/>
     </row>
     <row r="258" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="259" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B259" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C259" s="26"/>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-      <c r="F259" s="26"/>
-      <c r="G259" s="26"/>
-      <c r="H259" s="26"/>
-      <c r="I259" s="26"/>
-      <c r="J259" s="26"/>
-      <c r="K259" s="26"/>
-      <c r="L259" s="26"/>
-      <c r="M259" s="26"/>
-      <c r="N259" s="26"/>
-      <c r="O259" s="26"/>
-      <c r="P259" s="26"/>
+      <c r="B259" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+      <c r="M259" s="17"/>
+      <c r="N259" s="17"/>
+      <c r="O259" s="17"/>
+      <c r="P259" s="17"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A261" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A263" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="265" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B265" s="13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="267" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B267" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C267" s="26"/>
-      <c r="D267" s="26"/>
-      <c r="E267" s="26"/>
-      <c r="F267" s="26"/>
-      <c r="G267" s="26"/>
-      <c r="H267" s="26"/>
-      <c r="I267" s="26"/>
-      <c r="J267" s="26"/>
-      <c r="K267" s="26"/>
-      <c r="L267" s="26"/>
-      <c r="M267" s="26"/>
-      <c r="N267" s="26"/>
-      <c r="O267" s="26"/>
-      <c r="P267" s="26"/>
+      <c r="B267" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="17"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+      <c r="M267" s="17"/>
+      <c r="N267" s="17"/>
+      <c r="O267" s="17"/>
+      <c r="P267" s="17"/>
     </row>
     <row r="268" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="269" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
-      <c r="D269" s="26"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="26"/>
-      <c r="G269" s="26"/>
-      <c r="H269" s="26"/>
-      <c r="I269" s="26"/>
-      <c r="J269" s="26"/>
-      <c r="K269" s="26"/>
-      <c r="L269" s="26"/>
-      <c r="M269" s="26"/>
-      <c r="N269" s="26"/>
-      <c r="O269" s="26"/>
-      <c r="P269" s="26"/>
+      <c r="A269" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="17"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+      <c r="M269" s="17"/>
+      <c r="N269" s="17"/>
+      <c r="O269" s="17"/>
+      <c r="P269" s="17"/>
     </row>
     <row r="270" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="271" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="273" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
-      <c r="D273" s="26"/>
-      <c r="E273" s="26"/>
-      <c r="F273" s="26"/>
-      <c r="G273" s="26"/>
-      <c r="H273" s="26"/>
-      <c r="I273" s="26"/>
-      <c r="J273" s="26"/>
-      <c r="K273" s="26"/>
-      <c r="L273" s="26"/>
-      <c r="M273" s="26"/>
-      <c r="N273" s="26"/>
-      <c r="O273" s="26"/>
-      <c r="P273" s="26"/>
+      <c r="A273" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
+      <c r="D273" s="17"/>
+      <c r="E273" s="17"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="17"/>
+      <c r="H273" s="17"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="17"/>
+      <c r="K273" s="17"/>
+      <c r="L273" s="17"/>
+      <c r="M273" s="17"/>
+      <c r="N273" s="17"/>
+      <c r="O273" s="17"/>
+      <c r="P273" s="17"/>
     </row>
     <row r="274" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="275" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
-      <c r="D275" s="26"/>
-      <c r="E275" s="26"/>
-      <c r="F275" s="26"/>
-      <c r="G275" s="26"/>
-      <c r="H275" s="26"/>
-      <c r="I275" s="26"/>
-      <c r="J275" s="26"/>
-      <c r="K275" s="26"/>
-      <c r="L275" s="26"/>
-      <c r="M275" s="26"/>
-      <c r="N275" s="26"/>
-      <c r="O275" s="26"/>
-      <c r="P275" s="26"/>
+      <c r="A275" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
+      <c r="H275" s="17"/>
+      <c r="I275" s="17"/>
+      <c r="J275" s="17"/>
+      <c r="K275" s="17"/>
+      <c r="L275" s="17"/>
+      <c r="M275" s="17"/>
+      <c r="N275" s="17"/>
+      <c r="O275" s="17"/>
+      <c r="P275" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B259:P259"/>
-    <mergeCell ref="B267:P267"/>
-    <mergeCell ref="A269:P269"/>
-    <mergeCell ref="A273:P273"/>
-    <mergeCell ref="A275:P275"/>
-    <mergeCell ref="A247:P247"/>
-    <mergeCell ref="A251:P251"/>
-    <mergeCell ref="A253:P253"/>
-    <mergeCell ref="A255:P255"/>
-    <mergeCell ref="B257:P257"/>
-    <mergeCell ref="A235:P235"/>
-    <mergeCell ref="A239:P239"/>
-    <mergeCell ref="A241:P241"/>
-    <mergeCell ref="A243:P243"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A199:P199"/>
+    <mergeCell ref="A211:P211"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A177:P177"/>
+    <mergeCell ref="A181:P181"/>
+    <mergeCell ref="A179:P179"/>
     <mergeCell ref="A92:P92"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A72:P72"/>
@@ -6951,13 +6952,26 @@
     <mergeCell ref="A86:H86"/>
     <mergeCell ref="A88:P88"/>
     <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A199:P199"/>
-    <mergeCell ref="A211:P211"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A177:P177"/>
-    <mergeCell ref="A181:P181"/>
-    <mergeCell ref="A179:P179"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A235:P235"/>
+    <mergeCell ref="A239:P239"/>
+    <mergeCell ref="A241:P241"/>
+    <mergeCell ref="A243:P243"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A247:P247"/>
+    <mergeCell ref="A251:P251"/>
+    <mergeCell ref="A253:P253"/>
+    <mergeCell ref="A255:P255"/>
+    <mergeCell ref="B257:P257"/>
+    <mergeCell ref="B259:P259"/>
+    <mergeCell ref="B267:P267"/>
+    <mergeCell ref="A269:P269"/>
+    <mergeCell ref="A273:P273"/>
+    <mergeCell ref="A275:P275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java virtual machine/java虚拟机.xlsx
+++ b/Java virtual machine/java虚拟机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="java虚拟机运行时数据区" sheetId="1" r:id="rId1"/>
@@ -577,10 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先行发生原则：先行发生是java内存模型中定义的两项操作之间的偏序关系，如果说操作A先行发生于操作B，其实就是说在发生操作B之前，操作A产生的印象能被操作B观察到，“影响”包括修改了内存中共享变量的值、发送了消息、调用了方法等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -623,7 +619,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>程序次序规则（ProgramOrder Rule）：</t>
+      <t>管程锁定规则（Monitor Lock Rule）：</t>
     </r>
     <r>
       <rPr>
@@ -633,7 +629,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>在一个线程内，按照程序代码顺序，书写在前面的操作先行发生于书写在后面的操作。准确地说，应该是控制流顺序而不是程序代码顺序，因为要考虑分支、循环等结构</t>
+      <t>一个unlock操作先行发生于后面对同一个锁的lock操作。这里必须强调是同一个锁，而“后面”是指时间上的先后顺序。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,7 +644,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>管程锁定规则（Monitor Lock Rule）：</t>
+      <t>volatile变量规则（Volatile Variable Rule）：</t>
     </r>
     <r>
       <rPr>
@@ -658,7 +654,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一个unlock操作先行发生于后面对同一个锁的lock操作。这里必须强调是同一个锁，而“后面”是指时间上的先后顺序。</t>
+      <t>对一个volatile变量的写操作先行发生于后面对这个变量的读操作，这里的“后面”同样是指时间上的先后顺序。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,7 +669,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>volatile变量规则（Volatile Variable Rule）：</t>
+      <t>线程启动规则（Thread Start Rule）：</t>
     </r>
     <r>
       <rPr>
@@ -683,7 +679,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>对一个volatile变量的写操作先行发生于后面对这个变量的读操作，这里的“后面”同样是指时间上的先后顺序。</t>
+      <t>Thread对象的start()方法先行发生于此线程的每一个动作。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,7 +694,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程启动规则（Thread Start Rule）：</t>
+      <t>线程终止规则（Thread Start Rule）：</t>
     </r>
     <r>
       <rPr>
@@ -708,7 +704,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thread对象的start()方法先行发生于此线程的每一个动作。</t>
+      <t>线程中的所有操作都先行发生于对此线程的终止检测，我们可以通过Thread.join()方法结束、Thread.isAlive()的返回值等手段检测到线程已经终止执行。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,7 +719,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程终止规则（Thread Start Rule）：</t>
+      <t>线程中断规则（Thread Termination Rule）：</t>
     </r>
     <r>
       <rPr>
@@ -733,7 +729,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程中的所有操作都先行发生于对此线程的终止检测，我们可以通过Thread.join()方法结束、Thread.isAlive()的返回值等手段检测到线程已经终止执行。</t>
+      <t>对线程interrupt()方法的调用先行发生于被中断线程的代码检测到中断事件的发生，可以通过Thread.interrupted()方法检测到是否有中断发生。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,7 +744,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程中断规则（Thread Termination Rule）：</t>
+      <t>对象终结规则（Finalizer Rule）：</t>
     </r>
     <r>
       <rPr>
@@ -758,7 +754,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>对线程interrupt()方法的调用先行发生于被中断线程的代码检测到中断事件的发生，可以通过Thread.interrupted()方法检测到是否有中断发生。</t>
+      <t>一个对象的初始化完成（构造函数执行结束）先行发生于它的finalize()方法的开始。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -773,7 +769,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>对象终结规则（Finalizer Rule）：</t>
+      <t>传递性（Transitivity）：</t>
     </r>
     <r>
       <rPr>
@@ -783,8 +779,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一个对象的初始化完成（构造函数执行结束）先行发生于它的finalize()方法的开始。</t>
-    </r>
+      <t>如果操作A先行发生于操作B，操作B先行发生于操作C，那就可以得出操作A先行发生于操作C的结论。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLT：内核线程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LWP：轻量级进程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用内核线程实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻量级进程与内核线程之间1:1的关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT：用户线程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用用户线程实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程与用户线程之间1：N的关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用用户线程加轻量级进程混合实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户线程与轻量级进程之间N：M的关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java线程调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java线程调度是指系统为线程分配处理器使用权的过程，主要调度方式有两种，分别是协同式线程调度（Cooperative Threads-Scheduling）和抢占式线程调度（Preemptive Thread-Scheduling）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同式调度：线程的执行时间由线程本身来控制，线程把自己的工作执行完了之后，要主动通知系统切换到另外一个线程上。协同式多线程的最大好处是实现简单，而且由于线程要把自己的事情干完后才会进行线程切换，切换操作对县城自己是可知的，所以没有什么线程同步的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢占式调度：每个线程将由系统来分配执行时间，线程的切换不由线程本身来决定。在这种实现线程的调度的方式下，线程的执行时间是系统可控的，也不会有一个线程导致整个进程阻塞的问题，java使用的线程调度方式就是抢占式调度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java语言定义了5种线程状态，在任意一个时间点，一个线程只能有且只有其中的一种状态，5中状态分别如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有设置Timeout参数的Object.wait()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有设置Timeout参数的Thread.join()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockSupport.park()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread.sleep()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了Timeout参数的Object.wait()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了Timeout参数的Thread.join()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockSupport.parkNanos()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockSupport.parkUntil()方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -798,7 +890,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>传递性（Transitivity）：</t>
+      <t>结束（Terminated）：</t>
     </r>
     <r>
       <rPr>
@@ -808,104 +900,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>如果操作A先行发生于操作B，操作B先行发生于操作C，那就可以得出操作A先行发生于操作C的结论。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KLT：内核线程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LWP：轻量级进程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用内核线程实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻量级进程与内核线程之间1:1的关系图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UT：用户线程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用用户线程实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程与用户线程之间1：N的关系图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用用户线程加轻量级进程混合实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户线程与轻量级进程之间N：M的关系图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java线程调度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java线程调度是指系统为线程分配处理器使用权的过程，主要调度方式有两种，分别是协同式线程调度（Cooperative Threads-Scheduling）和抢占式线程调度（Preemptive Thread-Scheduling）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协同式调度：线程的执行时间由线程本身来控制，线程把自己的工作执行完了之后，要主动通知系统切换到另外一个线程上。协同式多线程的最大好处是实现简单，而且由于线程要把自己的事情干完后才会进行线程切换，切换操作对县城自己是可知的，所以没有什么线程同步的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抢占式调度：每个线程将由系统来分配执行时间，线程的切换不由线程本身来决定。在这种实现线程的调度的方式下，线程的执行时间是系统可控的，也不会有一个线程导致整个进程阻塞的问题，java使用的线程调度方式就是抢占式调度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java语言定义了5种线程状态，在任意一个时间点，一个线程只能有且只有其中的一种状态，5中状态分别如下：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有设置Timeout参数的Object.wait()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有设置Timeout参数的Thread.join()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockSupport.park()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thread.sleep()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置了Timeout参数的Object.wait()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置了Timeout参数的Thread.join()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockSupport.parkNanos()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockSupport.parkUntil()方法。</t>
+      <t>已终止线程的线程状态，线程已经结束执行。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -919,7 +915,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>结束（Terminated）：</t>
+      <t>阻塞（Blocked）：</t>
     </r>
     <r>
       <rPr>
@@ -929,7 +925,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>已终止线程的线程状态，线程已经结束执行。</t>
+      <t>线程被阻塞了，“阻塞状态”与“等待状态”的区别是：“阻塞状态”在等待着获取到一个排他锁，这个时间将在另外一个线程放弃这个锁的时候发生；而“等待状态”则是在等待着一段时间，或者唤醒动作的发生。在程序等待进入同步区域的时候，线程将进入这种状态。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,7 +940,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>阻塞（Blocked）：</t>
+      <t>限期等待（Timed Waiting）：</t>
     </r>
     <r>
       <rPr>
@@ -954,7 +950,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程被阻塞了，“阻塞状态”与“等待状态”的区别是：“阻塞状态”在等待着获取到一个排他锁，这个时间将在另外一个线程放弃这个锁的时候发生；而“等待状态”则是在等待着一段时间，或者唤醒动作的发生。在程序等待进入同步区域的时候，线程将进入这种状态。</t>
+      <t>处于这种状态的线程也不会被分配CPU执行时间，不过无序等待被其他线程显示地唤醒，在一定时间之后它们会由系统自动唤醒。以下方法会让线程进入限期等待状态：</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -969,7 +965,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>限期等待（Timed Waiting）：</t>
+      <t>无限期等待（Waiting）：</t>
     </r>
     <r>
       <rPr>
@@ -979,7 +975,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>处于这种状态的线程也不会被分配CPU执行时间，不过无序等待被其他线程显示地唤醒，在一定时间之后它们会由系统自动唤醒。以下方法会让线程进入限期等待状态：</t>
+      <t>处于这种状态的线程不会被分配CPU执行时间，它们要等待被其他线程显示地唤醒。一下方法会让线程陷于无限期的等待状态：</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -994,7 +990,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>无限期等待（Waiting）：</t>
+      <t>运行（Runnable）：</t>
     </r>
     <r>
       <rPr>
@@ -1004,7 +1000,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>处于这种状态的线程不会被分配CPU执行时间，它们要等待被其他线程显示地唤醒。一下方法会让线程陷于无限期的等待状态：</t>
+      <t>Runnable包括了操作系统线程状态中的Running和Ready，也就是处于此状态的线程有可能正在执行，也有可能正在等待着CPU为它分配执行时间。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,7 +1015,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>运行（Runnable）：</t>
+      <t>新建（New）：</t>
     </r>
     <r>
       <rPr>
@@ -1029,8 +1025,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Runnable包括了操作系统线程状态中的Running和Ready，也就是处于此状态的线程有可能正在执行，也有可能正在等待着CPU为它分配执行时间。</t>
-    </r>
+      <t>创建后尚未启动的线程处于这种状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程状态转换关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全与锁优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1044,7 +1048,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>新建（New）：</t>
+      <t>线程安全：</t>
     </r>
     <r>
       <rPr>
@@ -1054,16 +1058,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>创建后尚未启动的线程处于这种状态。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程状态转换关系图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程安全与锁优化</t>
+      <t>当多个线程访问一个对象时，如果不用考虑这些线程在运行时环境下的调度和交替执行，也不需要进行额外的同步，或者在调用方进行任何其他的协调操作，调用这个对象的行为都可以获得正确的结果，那这个对象是线程安全的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java语言中的线程安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1077,7 +1077,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程安全：</t>
+      <t>不可变：</t>
     </r>
     <r>
       <rPr>
@@ -1087,12 +1087,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>当多个线程访问一个对象时，如果不用考虑这些线程在运行时环境下的调度和交替执行，也不需要进行额外的同步，或者在调用方进行任何其他的协调操作，调用这个对象的行为都可以获得正确的结果，那这个对象是线程安全的。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java语言中的线程安全</t>
+      <t>不可变的对象一定是线程安全的，无论是对象的方法实现还是方法的调用者，都不需要再采取任何的线程安全保障措施。“不可变”带来的安全性是最简单和最纯粹的。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1106,7 +1102,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不可变：</t>
+      <t>绝对线程安全：</t>
     </r>
     <r>
       <rPr>
@@ -1116,7 +1112,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不可变的对象一定是线程安全的，无论是对象的方法实现还是方法的调用者，都不需要再采取任何的线程安全保障措施。“不可变”带来的安全性是最简单和最纯粹的。</t>
+      <t>完全满足给出的线程安全的定义。这个定义其实是很严格的，一个类要达到“不管运行时环境如何，调用者都不需要任何额外的同步措施”通常需要付出很大的，甚至有时候是不切实际的代价。在java API中标注自己是线程安全的类，大多数都不是绝对的线程安全。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1131,7 +1127,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>绝对线程安全：</t>
+      <t>相对线程安全：</t>
     </r>
     <r>
       <rPr>
@@ -1141,7 +1137,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>完全满足给出的线程安全的定义。这个定义其实是很严格的，一个类要达到“不管运行时环境如何，调用者都不需要任何额外的同步措施”通常需要付出很大的，甚至有时候是不切实际的代价。在java API中标注自己是线程安全的类，大多数都不是绝对的线程安全。</t>
+      <t>是我们通常意义上所讲的线程安全，它需要保证对这个对象单独的操作是线程安全的，我们在调用的时候不需要做额外的保障措施，但是对于一些特定顺序的连续调用，就可能需要再调用端使用额外的同步手段来保证调用的正确性。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,7 +1152,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>相对线程安全：</t>
+      <t>线程兼容：</t>
     </r>
     <r>
       <rPr>
@@ -1166,7 +1162,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是我们通常意义上所讲的线程安全，它需要保证对这个对象单独的操作是线程安全的，我们在调用的时候不需要做额外的保障措施，但是对于一些特定顺序的连续调用，就可能需要再调用端使用额外的同步手段来保证调用的正确性。</t>
+      <t>指对象本身并不是线程安全的，但是可以通过在调用端正确地使用同步手段来保证对象在并发环境中可以安全地使用，我们平常说一个类不是线程安全的，绝大多数时候指的是这一种情况。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1181,7 +1177,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程兼容：</t>
+      <t>线程对立：</t>
     </r>
     <r>
       <rPr>
@@ -1191,8 +1187,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>指对象本身并不是线程安全的，但是可以通过在调用端正确地使用同步手段来保证对象在并发环境中可以安全地使用，我们平常说一个类不是线程安全的，绝大多数时候指的是这一种情况。</t>
-    </r>
+      <t>指无论调用端是否采取了同步措施，都无法在多线程环境中并发使用的代码。由于java语言天生就具备多线程特性，线程对立这种排斥多线程的代码是很少出现的，而且通常都是有害的，应当尽量避免。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全的实现方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1206,7 +1206,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程对立：</t>
+      <t>互斥同步：</t>
     </r>
     <r>
       <rPr>
@@ -1216,12 +1216,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>指无论调用端是否采取了同步措施，都无法在多线程环境中并发使用的代码。由于java语言天生就具备多线程特性，线程对立这种排斥多线程的代码是很少出现的，而且通常都是有害的，应当尽量避免。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程安全的实现方法</t>
+      <t>是最常见的一种并发正确性保障手段。同步是指在多个线程并发访问共享数据时，保证共享数据在同一个时刻只被一个（或者是一些，使用信号量的时候）线程使用。而互斥是实现同步的一种手段，临界区、互斥量和信号量都是主要的互斥实现方式。因此，在这4个字里面，互斥是因，同步是果；互斥是方法，同步是目的。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1235,7 +1231,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>互斥同步：</t>
+      <t>非阻塞同步：</t>
     </r>
     <r>
       <rPr>
@@ -1245,7 +1241,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是最常见的一种并发正确性保障手段。同步是指在多个线程并发访问共享数据时，保证共享数据在同一个时刻只被一个（或者是一些，使用信号量的时候）线程使用。而互斥是实现同步的一种手段，临界区、互斥量和信号量都是主要的互斥实现方式。因此，在这4个字里面，互斥是因，同步是果；互斥是方法，同步是目的。</t>
+      <t>基于冲突检测的乐观并发策略，通俗地说，就是先进行操作，如果没有其他线程征用共享数据，那操作就成功了；如果共享数据有争用，产生了冲突，那就再采取其他的不长措施（最常见的补偿措施就是不断地重试，知道成功为止），这种乐观的并发策略的许多实现都不需要把线程挂起，因此这种同步操作称为非阻塞同步。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,7 +1256,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>非阻塞同步：</t>
+      <t>无同步方案：</t>
     </r>
     <r>
       <rPr>
@@ -1270,7 +1266,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>基于冲突检测的乐观并发策略，通俗地说，就是先进行操作，如果没有其他线程征用共享数据，那操作就成功了；如果共享数据有争用，产生了冲突，那就再采取其他的不长措施（最常见的补偿措施就是不断地重试，知道成功为止），这种乐观的并发策略的许多实现都不需要把线程挂起，因此这种同步操作称为非阻塞同步。</t>
+      <t>要保证线程安全，并不是一定要进行线程同步，两者没有因果关系。同步只是保证共享数据争用时的正确性的手段，如果一个方法本来就不涉及共享数据，那它自然就无须任何同步措施去保证正确性，因此会有一些代码天生就是线程安全的，如以下两类。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1285,7 +1281,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>无同步方案：</t>
+      <t>可重入代码：</t>
     </r>
     <r>
       <rPr>
@@ -1295,7 +1291,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>要保证线程安全，并不是一定要进行线程同步，两者没有因果关系。同步只是保证共享数据争用时的正确性的手段，如果一个方法本来就不涉及共享数据，那它自然就无须任何同步措施去保证正确性，因此会有一些代码天生就是线程安全的，如以下两类。</t>
+      <t>这种代码也叫纯代码，可以在代码执行的任何时刻中断它，转而去执行另外一段代码（包括递归调用它本身），而在控制权返回后，原来的程序不会出现任何错误。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1310,7 +1306,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>可重入代码：</t>
+      <t>线程本地存储：</t>
     </r>
     <r>
       <rPr>
@@ -1320,8 +1316,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这种代码也叫纯代码，可以在代码执行的任何时刻中断它，转而去执行另外一段代码（包括递归调用它本身），而在控制权返回后，原来的程序不会出现任何错误。</t>
-    </r>
+      <t>如果一段代码中所需要的数据必须与其他代码共享，那就看看这些共享数据的代码是否能保证在统一个线程中执行？如果能保证，我们就可以把共享数据的可见范围限制在同一个线程之内，这样，无须同步也能保证线程之间不出现数据争用的问题。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋锁与自适应自旋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,7 +1339,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程本地存储：</t>
+      <t>自旋锁：</t>
     </r>
     <r>
       <rPr>
@@ -1345,16 +1349,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>如果一段代码中所需要的数据必须与其他代码共享，那就看看这些共享数据的代码是否能保证在统一个线程中执行？如果能保证，我们就可以把共享数据的可见范围限制在同一个线程之内，这样，无须同步也能保证线程之间不出现数据争用的问题。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自旋锁与自适应自旋</t>
+      <t>为了让线程等待，我们只需要让线程执行一个忙循环（自旋），这项技术就是所谓的自旋锁。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1368,7 +1364,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>自旋锁：</t>
+      <t>自适应自旋锁：</t>
     </r>
     <r>
       <rPr>
@@ -1378,7 +1374,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>为了让线程等待，我们只需要让线程执行一个忙循环（自旋），这项技术就是所谓的自旋锁。</t>
+      <t>自适应意味着自旋的时间不再固定了，而是由前一次在同一个锁上的自旋时间及锁的拥有者的状态来决定。如果在一个锁对象上，自旋等待刚刚成功获得过锁，并且持有锁的线程正在运行中，那么虚拟机就会认为这次自旋也很有可能再次成功，进而它将允许自旋等待持续相对更长的时间。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1393,7 +1389,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>自适应自旋锁：</t>
+      <t>锁消除：</t>
     </r>
     <r>
       <rPr>
@@ -1403,7 +1399,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>自适应意味着自旋的时间不再固定了，而是由前一次在同一个锁上的自旋时间及锁的拥有者的状态来决定。如果在一个锁对象上，自旋等待刚刚成功获得过锁，并且持有锁的线程正在运行中，那么虚拟机就会认为这次自旋也很有可能再次成功，进而它将允许自旋等待持续相对更长的时间。</t>
+      <t>是指虚拟机即时编译器在运行时，对一些代码上要求同步，但是被检测到不可能存在共享数据竞争的锁进行消除。锁消除的主要判定依据来源于逃逸分析的数据支持，如果判断在一段代码中，堆上的所有数据都不会逃逸出去从而被其他线程访问到，那就可以把它们当做栈上数据对待，认为它们是线程私有的，同步加锁自然无须进行。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1418,7 +1414,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>锁消除：</t>
+      <t>锁粗化：</t>
     </r>
     <r>
       <rPr>
@@ -1428,7 +1424,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是指虚拟机即时编译器在运行时，对一些代码上要求同步，但是被检测到不可能存在共享数据竞争的锁进行消除。锁消除的主要判定依据来源于逃逸分析的数据支持，如果判断在一段代码中，堆上的所有数据都不会逃逸出去从而被其他线程访问到，那就可以把它们当做栈上数据对待，认为它们是线程私有的，同步加锁自然无须进行。</t>
+      <t>如果虚拟机探测到有这样一串零碎的操作都对同一个对象加锁，将会把加锁同步的范围扩展（粗化）到整个操作序列的外部，这样只需要加锁一次就可以了。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1443,7 +1439,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>锁粗化：</t>
+      <t>轻量级锁：</t>
     </r>
     <r>
       <rPr>
@@ -1453,7 +1449,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>如果虚拟机探测到有这样一串零碎的操作都对同一个对象加锁，将会把加锁同步的范围扩展（粗化）到整个操作序列的外部，这样只需要加锁一次就可以了。</t>
+      <t>“轻量级”是相对于使用操作系统互斥量来实现的传统锁而言的，因此传统锁的锁机制就称为“重量级”锁。轻量级锁并不是来代替重量级锁的，它的本意是在没有多线程竞争的前提下，减少传统的重量级锁使用操作系统互斥量产生的性能消耗。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1468,7 +1464,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>轻量级锁：</t>
+      <t>偏向锁：</t>
     </r>
     <r>
       <rPr>
@@ -1478,8 +1474,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>“轻量级”是相对于使用操作系统互斥量来实现的传统锁而言的，因此传统锁的锁机制就称为“重量级”锁。轻量级锁并不是来代替重量级锁的，它的本意是在没有多线程竞争的前提下，减少传统的重量级锁使用操作系统互斥量产生的性能消耗。</t>
-    </r>
+      <t>目的是消除数据在无竞争情况下的同步原语，进一步提高程序的运行性能。如果说轻量级锁是在无竞争的情况下使用CAS操作去消除同步使用的互斥量，那偏向锁就是在无竞争的情况下把整个同步都消除，连CAS操作都不做。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use（使用）：作用于工作内存的变量，它把工作内存中一个变量的值传递给执行引擎，每当虚拟机遇到一个需要使用到变量的值的字节码指令时将会执行这个操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store（存储）：作用于工作内存的变量，它把工作内存中一个变量的值传送到主内存中，以便随后的write操作使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果对一个变量执行lock操作，那将会清空工作内存中此变量的值，在执行引擎使用这个变量前，需要重新执行load或assign操作初始化变量的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java内存模型中对volatile变量定义的特殊规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾收集器与内存分配策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存分配与回收策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1493,7 +1513,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>偏向锁：</t>
+      <t>对象优先在Eden分配：</t>
     </r>
     <r>
       <rPr>
@@ -1503,36 +1523,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>目的是消除数据在无竞争情况下的同步原语，进一步提高程序的运行性能。如果说轻量级锁是在无竞争的情况下使用CAS操作去消除同步使用的互斥量，那偏向锁就是在无竞争的情况下把整个同步都消除，连CAS操作都不做。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use（使用）：作用于工作内存的变量，它把工作内存中一个变量的值传递给执行引擎，每当虚拟机遇到一个需要使用到变量的值的字节码指令时将会执行这个操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store（存储）：作用于工作内存的变量，它把工作内存中一个变量的值传送到主内存中，以便随后的write操作使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果对一个变量执行lock操作，那将会清空工作内存中此变量的值，在执行引擎使用这个变量前，需要重新执行load或assign操作初始化变量的值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java内存模型中对volatile变量定义的特殊规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假定动作A是线程T对变量V实施的use活assign动作，假定动作F是和动作A相关联的load或store动作，假定动作P是和动作F响应的对变量V的read或write动作；类似的，假定动作B是线程T对变量W实施的use或assign动作，假定动作G是和动作B相关联的load或sotre动作，假定动作Q是和动作G响应的对变量W的read或write操作。如果A先于B，那么P先于Q（这条规则要求volatile修饰的变量不会指令重排序优化，保证代码的执行顺序与程序的顺序相同）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾收集器与内存分配策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存分配与回收策略</t>
+      <t>大多数情况下，对象在新生代Eden区中分配。当Eden区没有足够空间进行分配时，虚拟机将发起一次Minor GC。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1538,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>对象优先在Eden分配：</t>
+      <t>大对象直接进入老年代：</t>
     </r>
     <r>
       <rPr>
@@ -1556,7 +1548,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大多数情况下，对象在新生代Eden区中分配。当Eden区没有足够空间进行分配时，虚拟机将发起一次Minor GC。</t>
+      <t>大对象是指需要大量连续内存空间的java对象，最典型的就是那种很长的字符串以及数组。虚拟机提供了一个-XX:PretenureSizeThreshold参数，另大于这个设置值的对象直接在老年代分配。这样做的目的是指避免在Eden区及两个Survivor区之间发生大量的内存复制。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1571,7 +1563,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大对象直接进入老年代：</t>
+      <t>长期存活的对象将进入老年代：</t>
     </r>
     <r>
       <rPr>
@@ -1581,14 +1573,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>大对象是指需要大量连续内存空间的java对象，最典型的就是那种很长的字符串以及数组。虚拟机提供了一个-XX:PretenureSizeThreshold参数，另大于这个设置值的对象直接在老年代分配。这样做的目的是指避免在Eden区及两个Survivor区之间发生大量的内存复制。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>虚拟机既然采用了分代收集的思想来管理内存，那么内存回收时必须能识别哪些对象应该放在新生代，哪些对象应该放在老年代中。为了做到这点，虚拟机给每个对象定义了一个对象年龄（Age）计数器。如果对象在Eden出生并经过第一次Minor GC后仍然存活，并且能被Survivor容纳的话，将被移动到Survivor空间中，并且对象年龄设为1.对象在Survivor区中每“熬过”一次Minor GC，年龄就增加1岁，当它的年龄增加到一定程度（默认为15岁），就将会被晋升到老年代中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>空间分配担保：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1596,26 +1590,230 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>长期存活的对象将进入老年代：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>虚拟机既然采用了分代收集的思想来管理内存，那么内存回收时必须能识别哪些对象应该放在新生代，哪些对象应该放在老年代中。为了做到这点，虚拟机给每个对象定义了一个对象年龄（Age）计数器。如果对象在Eden出生并经过第一次Minor GC后仍然存活，并且能被Survivor容纳的话，将被移动到Survivor空间中，并且对象年龄设为1.对象在Survivor区中每“熬过”一次Minor GC，年龄就增加1岁，当它的年龄增加到一定程度（默认为15岁），就将会被晋升到老年代中。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>空间分配担保：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>在发生Minor GC之前，虚拟机会先检查老年代最大可用的连续空间是否大于新生代所有对象的总空间，如果这个条件成立，那么Minor GC可以确保是安全的。如果不成立，则虚拟机会查看HandlePromotionFailure设置值是否允许担保失败。如果允许，那么会继续检查老年代最大可用的连续空间是否大于历次晋升到老年代对象的平均水平，如果大于，将尝试着进行一次Minor GC，尽管这次Minor GC是有风险的；如果小于，或者HandlePromotionFailure设置不允许冒险，那这时也要改为进行一次Full GC。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机类加载机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机把描述类的数据从Class文件加载到内存，并对数据进行校验、转换解析和初始化，最终形成可以被虚拟机直接使用的java类型，这就是虚拟机的类加载机制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图中，加载、验证、准备、初始化和卸载这5个阶段的顺序是确定的，类的加载过程必须按照这种顺序按部就班地开始，而解析阶段则不一定：它在某些情况下可以在初始化阶段开始之后再开始，这是为了支持java语言的运行时绑定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5中会触发类初始化的场景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）遇到new、getstatic、putstatic或invokestatic这4条字节码指令时，如果类没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）使用java.lang.reflect包的方法对类进行反射调用的时候，如果类没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）当初始化一个类的时候，如果发现其父类还没有进行过初始化，则需要先触发其父类的初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）当虚拟机启动时，用户需要制定一个要执行的主类（包含main()方法的那个类），虚拟机会先初始化这个主类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）当使用JDK 1.7的动态语言支持时，如果一个java.lang.invoke.MethodHandle实例最后的解析结果REF_getStatic、REF_putStatic、REF_invokeStatic的方法句柄，并且这个方法句柄所对应的类型没有进行过初始化，则需要先触发其初始化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在加载阶段，虚拟机需要完成以下3件事情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）通过一个类的全限定名来获取定义此类的二进制字节流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）将这个字节流所代表的静态存储结构转化为方法区的运行时数据结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）在内存中生成一个代表这个类的java.lang.Class对象，作为方法区这个类的各种数据的访问入口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数组类（下面简称为C）创建过程就遵循以下规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果数组的组件类型（Component Type，指的是数组去掉一个维度的类型）是引用类型，那就递归采用本节中定义的加载过程去加载这个组件类型，数组C将在加载该组件类型的类加载器的类名称空间上被标识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果数组的组件类型不是引用类型（例如 int[] 数组），java虚拟机将会把数组C标记为引导类加载器关联。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组类的可见性与它的组件类型的可见性一致，如果组件类型不是引用类型，那数组类的可见性将默认为public。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是连接阶段的第一步，这一阶段的目的是为了确保Class文件的字节流中包含的信息符合当前虚拟机的要求，并且不会危害虚拟机自身的安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证阶段大致上会完成下面4个阶段的校验动作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件格式验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段要验证字节流是否符合Class文件格式的规范，并且能被当前版本的虚拟机处理。这一阶段可能包括下面这些验证点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否以魔数0xCAFEBABE开头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主、次版本号是否在当前虚拟机处理范围之内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量池的常量是否有不被支持的常量类型（检查常量tag标志）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向常量的各种索引值中是否有指向不存在的常量或不符合类型的常量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSTANT_Utf8_info型的常量中是否有不符合UTF8编码的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class文件中各个部分及文件本身是否有被删除的或附加的其他信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二阶段是对字节码描述的信息进行语义分析，以保证其描述的信息符合java语言规范的要求，这个阶段可能包括的验证点如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类是否有父类（除了java.lang.Object之外，所有的类应当有父类）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类的父类是否继承了不允许被继承的类（被final修饰的类）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果这个类不是抽象类，是否实现了其父类或接口之中要求实现的所有方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类中的字段、方法是否与父类产生矛盾（例如覆盖了父类的final字段，或者出现不符合规矩的方法重载，例如方法参数都一致，但返回值类型却不同等）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节码验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三阶段是整个验证过程中最复杂的一个阶段，主要目的是通过数据流和控制流分析，确定程序语义是合法的、符合逻辑的。这个阶段将对类的方法体进行校验分析，保证被校验类的方法在运行时不会做出危害虚拟机安全的事件，例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证任意时刻操作数栈的数据类型与指令代码序列都能配合工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证跳转指令不会跳转到方法体以外的字节码指令上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证方法体中的类型转换是有效的，例如可以把一个子类对象赋值给父类数据类型，这是安全的，但是把父类对象赋值给子类数据类型，甚至把对象赋值给与它毫无继承关系，完全不相干的一个数据类型，则是危险和不合法的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用验证：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个阶段的校验发生在虚拟机将符号引用转化为直接引用的时候，这个转换动作将在连接的第三阶段——解析阶段中发生。符号引用验证可以看做是对类自身以外（常量池中的各种符号引用）的信息进行匹配性校验，通常需要校验下列内容：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用中通过字符串描述的全限定名是否能找到对应的类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定类中是否存在符合方法的字段描述符以及简单名称所描述的方法和字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号引用中的类、字段、方法的访问性（private、protected、public、default）是否可被当前类访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备阶段是正式为类变量分配内存并设置类变量初始值的阶段，这些变量所使用的内存都将在方法区中进行分配。这个阶段中有两个容易产生混淆的概念需要强调一下，首先，这时候进行内存分配的仅包括类变量（被static修饰的变量），而不包括实例变量，实例变量将会在对象实例化时随着对象一起分配在java堆中。其次，这里所说的初始值“通常情况”下是数据类型的零值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析阶段是虚拟机将常量池内的符号引用替换为直接引用的过程。符号引用与直接引用的关联见下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1623,224 +1821,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>在发生Minor GC之前，虚拟机会先检查老年代最大可用的连续空间是否大于新生代所有对象的总空间，如果这个条件成立，那么Minor GC可以确保是安全的。如果不成立，则虚拟机会查看HandlePromotionFailure设置值是否允许担保失败。如果允许，那么会继续检查老年代最大可用的连续空间是否大于历次晋升到老年代对象的平均水平，如果大于，将尝试着进行一次Minor GC，尽管这次Minor GC是有风险的；如果小于，或者HandlePromotionFailure设置不允许冒险，那这时也要改为进行一次Full GC。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机类加载机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机把描述类的数据从Class文件加载到内存，并对数据进行校验、转换解析和初始化，最终形成可以被虚拟机直接使用的java类型，这就是虚拟机的类加载机制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类的生命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图中，加载、验证、准备、初始化和卸载这5个阶段的顺序是确定的，类的加载过程必须按照这种顺序按部就班地开始，而解析阶段则不一定：它在某些情况下可以在初始化阶段开始之后再开始，这是为了支持java语言的运行时绑定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5中会触发类初始化的场景：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）遇到new、getstatic、putstatic或invokestatic这4条字节码指令时，如果类没有进行过初始化，则需要先触发其初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）使用java.lang.reflect包的方法对类进行反射调用的时候，如果类没有进行过初始化，则需要先触发其初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）当初始化一个类的时候，如果发现其父类还没有进行过初始化，则需要先触发其父类的初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4）当虚拟机启动时，用户需要制定一个要执行的主类（包含main()方法的那个类），虚拟机会先初始化这个主类。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5）当使用JDK 1.7的动态语言支持时，如果一个java.lang.invoke.MethodHandle实例最后的解析结果REF_getStatic、REF_putStatic、REF_invokeStatic的方法句柄，并且这个方法句柄所对应的类型没有进行过初始化，则需要先触发其初始化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载的过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在加载阶段，虚拟机需要完成以下3件事情：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）通过一个类的全限定名来获取定义此类的二进制字节流。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）将这个字节流所代表的静态存储结构转化为方法区的运行时数据结构。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3）在内存中生成一个代表这个类的java.lang.Class对象，作为方法区这个类的各种数据的访问入口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个数组类（下面简称为C）创建过程就遵循以下规则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果数组的组件类型（Component Type，指的是数组去掉一个维度的类型）是引用类型，那就递归采用本节中定义的加载过程去加载这个组件类型，数组C将在加载该组件类型的类加载器的类名称空间上被标识。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果数组的组件类型不是引用类型（例如 int[] 数组），java虚拟机将会把数组C标记为引导类加载器关联。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组类的可见性与它的组件类型的可见性一致，如果组件类型不是引用类型，那数组类的可见性将默认为public。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证是连接阶段的第一步，这一阶段的目的是为了确保Class文件的字节流中包含的信息符合当前虚拟机的要求，并且不会危害虚拟机自身的安全。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证阶段大致上会完成下面4个阶段的校验动作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件格式验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一阶段要验证字节流是否符合Class文件格式的规范，并且能被当前版本的虚拟机处理。这一阶段可能包括下面这些验证点：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否以魔数0xCAFEBABE开头。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主、次版本号是否在当前虚拟机处理范围之内。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量池的常量是否有不被支持的常量类型（检查常量tag标志）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向常量的各种索引值中是否有指向不存在的常量或不符合类型的常量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSTANT_Utf8_info型的常量中是否有不符合UTF8编码的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class文件中各个部分及文件本身是否有被删除的或附加的其他信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元数据验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二阶段是对字节码描述的信息进行语义分析，以保证其描述的信息符合java语言规范的要求，这个阶段可能包括的验证点如下：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个类是否有父类（除了java.lang.Object之外，所有的类应当有父类）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个类的父类是否继承了不允许被继承的类（被final修饰的类）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果这个类不是抽象类，是否实现了其父类或接口之中要求实现的所有方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类中的字段、方法是否与父类产生矛盾（例如覆盖了父类的final字段，或者出现不符合规矩的方法重载，例如方法参数都一致，但返回值类型却不同等）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节码验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三阶段是整个验证过程中最复杂的一个阶段，主要目的是通过数据流和控制流分析，确定程序语义是合法的、符合逻辑的。这个阶段将对类的方法体进行校验分析，保证被校验类的方法在运行时不会做出危害虚拟机安全的事件，例如：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证任意时刻操作数栈的数据类型与指令代码序列都能配合工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证跳转指令不会跳转到方法体以外的字节码指令上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证方法体中的类型转换是有效的，例如可以把一个子类对象赋值给父类数据类型，这是安全的，但是把父类对象赋值给子类数据类型，甚至把对象赋值给与它毫无继承关系，完全不相干的一个数据类型，则是危险和不合法的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号引用验证：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一个阶段的校验发生在虚拟机将符号引用转化为直接引用的时候，这个转换动作将在连接的第三阶段——解析阶段中发生。符号引用验证可以看做是对类自身以外（常量池中的各种符号引用）的信息进行匹配性校验，通常需要校验下列内容：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号引用中通过字符串描述的全限定名是否能找到对应的类。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在指定类中是否存在符合方法的字段描述符以及简单名称所描述的方法和字段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号引用中的类、字段、方法的访问性（private、protected、public、default）是否可被当前类访问。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备阶段是正式为类变量分配内存并设置类变量初始值的阶段，这些变量所使用的内存都将在方法区中进行分配。这个阶段中有两个容易产生混淆的概念需要强调一下，首先，这时候进行内存分配的仅包括类变量（被static修饰的变量），而不包括实例变量，实例变量将会在对象实例化时随着对象一起分配在java堆中。其次，这里所说的初始值“通常情况”下是数据类型的零值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析阶段是虚拟机将常量池内的符号引用替换为直接引用的过程。符号引用与直接引用的关联见下：</t>
+      <t>符号引用（Symbolic References）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>符号引用以一组符号来描述所引用的目标，符号可以是任何形式的字面量，只要使用时能无歧义地定位到目标即可。符号引用与虚拟机实现的内存布局无关，引用的目标并不一定已经加载到内存中。各种虚拟机实现的内存布局可以各不相同，但是它们能够接受的符号引用必须都是一致的，因为符号引用的字面量形式明确定义在java虚拟机规范的Class文件格式中。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1854,7 +1846,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>符号引用（Symbolic References）：</t>
+      <t>直接引用（Direct References）：</t>
     </r>
     <r>
       <rPr>
@@ -1864,14 +1856,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>符号引用以一组符号来描述所引用的目标，符号可以是任何形式的字面量，只要使用时能无歧义地定位到目标即可。符号引用与虚拟机实现的内存布局无关，引用的目标并不一定已经加载到内存中。各种虚拟机实现的内存布局可以各不相同，但是它们能够接受的符号引用必须都是一致的，因为符号引用的字面量形式明确定义在java虚拟机规范的Class文件格式中。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>直接引用可以是直接指向目标的指针、相对偏移量或是一个能间接定位到目标的句柄。直接引用是和虚拟机实现的内存布局相关的，同一个符号引用在不通虚拟机实例上翻译出来的直接引用一般不会相同。如果有了直接引用，那引用的目标必定已经在内存中存在。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类或接口的解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类方法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口方法解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类初始化阶段是类加载过程的最后一步，前面的类加载过程中，除了在加载阶段用户应用程序可以通过自定义类加载器参与之外，其余动作完全由虚拟机主导和控制。到了初始化阶段，才真正开始执行程序定义的java程序代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法执行过程中一些可能会影响程序运行行为的特点和细节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法是由编译器自动收集类中的所有类变量的复制动作和静态语句块（static{}块）中的语句合并产生的，编译器收集的顺序是由语句在源文件中出现的顺序所决定的，静态语句块中只能访问到定义在静态语句块之前的变量，定义在之后的变量，在前面的静态语句块可以赋值，但是不能访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于父类的&lt;clinit&gt;()方法先执行，也就意味着父类中定义的静态语句块要优先于子类的变量赋值操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法对于类或接口来说并不是必需的，如果一个类中没有静态语句块，也没有对变量的赋值操作，那么编译器可以不为这个类生成&lt;clinit&gt;()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类与类加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双亲委派模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝大部分java程序都会使用到以下3种系统提供的类加载器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从java虚拟机的角度来讲，只存在两种不同的类加载器：一种是启动类加载器（Bootstrap ClassLoader），这个类加载器使用C++语言实现，是虚拟机自身的一部分；另一种就是所有其他的类加载器，这些类加载器都由java语言实现，独立于虚拟机外部，并且全都继承自抽象类java.lang.ClassLoader。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>扩展类加载器（Extension ClassLoader）：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1879,103 +1933,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>直接引用（Direct References）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>直接引用可以是直接指向目标的指针、相对偏移量或是一个能间接定位到目标的句柄。直接引用是和虚拟机实现的内存布局相关的，同一个符号引用在不通虚拟机实例上翻译出来的直接引用一般不会相同。如果有了直接引用，那引用的目标必定已经在内存中存在。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类或接口的解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类方法解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口方法解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类初始化阶段是类加载过程的最后一步，前面的类加载过程中，除了在加载阶段用户应用程序可以通过自定义类加载器参与之外，其余动作完全由虚拟机主导和控制。到了初始化阶段，才真正开始执行程序定义的java程序代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法执行过程中一些可能会影响程序运行行为的特点和细节。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法是由编译器自动收集类中的所有类变量的复制动作和静态语句块（static{}块）中的语句合并产生的，编译器收集的顺序是由语句在源文件中出现的顺序所决定的，静态语句块中只能访问到定义在静态语句块之前的变量，定义在之后的变量，在前面的静态语句块可以赋值，但是不能访问。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法与类的构造函数不通，它不需要显示地调用父类构造器，虚拟机会保证在子类的&lt;clinit&gt;()方法执行之前，父类的&lt;clinit&gt;()方法已经执行完毕。因此在虚拟机中第一个被执行的&lt;clinit&gt;()方法的类肯定是java.lang.Object。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于父类的&lt;clinit&gt;()方法先执行，也就意味着父类中定义的静态语句块要优先于子类的变量赋值操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;clinit&gt;()方法对于类或接口来说并不是必需的，如果一个类中没有静态语句块，也没有对变量的赋值操作，那么编译器可以不为这个类生成&lt;clinit&gt;()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口中不能使用静态语句块，但仍然有变量初始化的赋值操作，因为接口与类一样都会生成&lt;clinit&gt;()方法。但接口与类不通的是，执行接口的&lt;clinit&gt;()方法不需要先执行父接口的&lt;clinit&gt;()方法。只有当父接口中定义的变量使用时，父接口才会初始化。另外，接口的实现类在初始化时也一样不会执行接口的&lt;clinit&gt;()方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机会保证一个类的&lt;clinit&gt;()方法在多线程环境中被正确的加锁、同步，如果多个线程同时去初始化一个类，那么只会有一个线程去执行这个类的&lt;clinit&gt;()方法，其他线程都需要阻塞等待，知道活动线程执行&lt;clinit&gt;()方法完毕。如果在一个类的&lt;clinit&gt;()方法中有耗时很长的操作，就可能造成多个进程阻塞，在实际应用中这种阻塞往往是很隐蔽的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机设计团队把类加载夹断中的“通过一个类的全限定名来获取描述此类的二进制字节流”这个动作放到java虚拟机外部去实现，以便让应用程序自己决定如何去获取所需要的类。实现这个动作的代码模块称为“类加载器”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类与类加载器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载器虽然只用于实现类的加载动作，但它在java程序中启动的作用却远远不限于类加载阶段。对于任意一个类，都需要由加载它的类加载器和这个类本身一同确立其在java虚拟机中的唯一性，每一个类加载，都用友一个独立的类名称空间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双亲委派模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝大部分java程序都会使用到以下3种系统提供的类加载器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从java虚拟机的角度来讲，只存在两种不同的类加载器：一种是启动类加载器（Bootstrap ClassLoader），这个类加载器使用C++语言实现，是虚拟机自身的一部分；另一种就是所有其他的类加载器，这些类加载器都由java语言实现，独立于虚拟机外部，并且全都继承自抽象类java.lang.ClassLoader。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>启动类加载器（Bootstrap ClassLoader）:</t>
+      <t>负责加载&lt;JAVA_HOME&gt;\lib\ext目录中的，或者被java.ext.dirs系统变量所指定的路径中的所有类库，开发者可以直接使用扩展类加载器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>应用程序类加载器（Application ClassLoader）：</t>
     </r>
     <r>
       <rPr>
@@ -1986,16 +1950,46 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>负责将&lt;JAVA_HOME&gt;\lib目录中，或者别-Xbootclasspath参数指定的路径中的，并且是虚拟机识别的类库加载到虚拟机内存中。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>扩展类加载器（Extension ClassLoader）：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>一般也被称为系统类加载器。负责加载用户类路径（ClassPath）上所指定的类库，开发者可以直接使用这个类加载器，如果应用程序中没有自定义过自己的类加载器，一般情况下这个就是程序中默认的类加载器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器双亲委派模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双亲委派模型的工作过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机字节码执行引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时栈帧结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个方法从调用开始至执行完成的过程，都对应着一个栈帧在虚拟机里面从入栈到出栈的过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编译程序代码的时候，栈帧中需要多大的局部变量表，多深的操作数栈都已经完全确定了，并且写入到方法表的Code属性之中，因此一个栈帧需要分配多少内存，不会受到程序运行期变量数据的影响，而仅仅取决于具体的虚拟机实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈帧的概念结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详解栈帧中的局部变量表、操作数栈、动态链接、方法返回地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -2003,16 +1997,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>负责加载&lt;JAVA_HOME&gt;\lib\ext目录中的，或者被java.ext.dirs系统变量所指定的路径中的所有类库，开发者可以直接使用扩展类加载器。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>应用程序类加载器（Application ClassLoader）：</t>
-    </r>
-    <r>
-      <rPr>
+      <t>局部变量表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个栈帧之间的数据共享图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -2020,58 +2026,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一般也被称为系统类加载器。负责加载用户类路径（ClassPath）上所指定的类库，开发者可以直接使用这个类加载器，如果应用程序中没有自定义过自己的类加载器，一般情况下这个就是程序中默认的类加载器。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载器双亲委派模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双亲委派模型的工作过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果一个类加载收到了类加载的请求，它首先不会自己去尝试加载这个类，而是把这个请求委派给父类加载器去完成，每一个层次的类加载都是如此，因此是所有的加载请求最终都应该传送到顶层的启动类加载器中，只有当附加在其反馈自己无法完成这个加载请求（它的搜索范围中没有找到所需的类）时，子加载器才会尝试自己去加载。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机字节码执行引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时栈帧结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个方法从调用开始至执行完成的过程，都对应着一个栈帧在虚拟机里面从入栈到出栈的过程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在编译程序代码的时候，栈帧中需要多大的局部变量表，多深的操作数栈都已经完全确定了，并且写入到方法表的Code属性之中，因此一个栈帧需要分配多少内存，不会受到程序运行期变量数据的影响，而仅仅取决于具体的虚拟机实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈帧的概念结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详解栈帧中的局部变量表、操作数栈、动态链接、方法返回地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>局部变量表：</t>
+      <t>动态连接：</t>
     </r>
     <r>
       <rPr>
@@ -2081,60 +2036,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作数栈：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当一个方法刚刚开始执行的时候，这个方法的操作数栈是空的，在方法的执行过程中，会有各种字节码指令往操作数栈写入和提取内容，也就是出栈/入栈操作。Java虚拟机的解释之星引擎称为“基于栈的执行引擎”，其中所指的“栈”就是操作数栈。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个栈帧之间的数据共享图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>动态连接：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>每个栈帧都包含一个指向运行时常量池中该栈帧所属方法的引用，持有这个引用是为了支持方法调用过程中的动态连接。引用符号一部分会在类加载阶段或者第一次使用的时候就转化直接引用，这种转换称为静态解析。另外一部分将在每一次运行期间转化为直接引用，用这部分称为动态连接。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2148,27 +2049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>另外一种退出方式是，在方法执行过程中遇到了异常，并且这个异常没有在方法体内得到处理，无论是java虚拟机内部产生的异常，还是代码中使用athrow自己吗指令产生的异常，只要在本方法的异常表中没有搜索到匹配的异常处理器，就会导致方法退出，这种退出方法的方式称为异常完成出口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>附加信息：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>虚拟机规范允许具体的虚拟机实现增加一些规范里没有描述的信息到栈帧之中，例如与调试相关的信息，这部分信息完全取决于具体的虚拟机实现。在实际开发中，一版会把动态连接、方法返回地址与其他区间信息全部归为一类，称为栈帧信息。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方法调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2189,15 +2069,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分派调用过程将会揭示java多态性特征的一些最近本的体现，如“重载”和“重写”在java虚拟机之中是如何确定正确的目标方法的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>静态分派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有依赖静态类型来定位方法执行版本的分派动作称为静态分派。静态分派的点应用是方法重载。静态分派发生在编译阶段，因此确定静态分派的动作实际上不是由虚拟机来执行的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2305,6 +2177,134 @@
         <scheme val="minor"/>
       </rPr>
       <t>为了能更好地适应不同程序的内存状况，虚拟机并不是永远地要求对象的年龄必须达到了MaxTenuringThreshold才能晋升老年代，如果Survivor空间中相同年龄所有对象大小的总合大于Survivor空间的一半，年龄大于或等于该年龄的对象就可以直接进入老年代，无须等到MaxTenuringThreshold中要求的年龄。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clinit&gt;()方法与类的构造函数不同，它不需要显示地调用父类构造器，虚拟机会保证在子类的&lt;clinit&gt;()方法执行之前，父类的&lt;clinit&gt;()方法已经执行完毕。因此在虚拟机中第一个被执行的&lt;clinit&gt;()方法的类肯定是java.lang.Object。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口中不能使用静态语句块，但仍然有变量初始化的赋值操作，因为接口与类一样都会生成&lt;clinit&gt;()方法。但接口与类不同的是，执行接口的&lt;clinit&gt;()方法不需要先执行父接口的&lt;clinit&gt;()方法。只有当父接口中定义的变量使用时，父接口才会初始化。另外，接口的实现类在初始化时也一样不会执行接口的&lt;clinit&gt;()方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机会保证一个类的&lt;clinit&gt;()方法在多线程环境中被正确的加锁、同步，如果多个线程同时去初始化一个类，那么只会有一个线程去执行这个类的&lt;clinit&gt;()方法，其他线程都需要阻塞等待，直到活动线程执行&lt;clinit&gt;()方法完毕。如果在一个类的&lt;clinit&gt;()方法中有耗时很长的操作，就可能造成多个进程阻塞，在实际应用中这种阻塞往往是很隐蔽的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机设计团队把类加载阶段中的“通过一个类的全限定名来获取描述此类的二进制字节流”这个动作放到java虚拟机外部去实现，以便让应用程序自己决定如何去获取所需要的类。实现这个动作的代码模块称为“类加载器”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载器虽然只用于实现类的加载动作，但它在java程序中启动的作用却远远不限于类加载阶段。对于任意一个类，都需要由加载它的类加载器和这个类本身一同确立其在java虚拟机中的唯一性，每一个类加载，都拥有一个独立的类名称空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>启动类加载器（Bootstrap ClassLoader）:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责将&lt;JAVA_HOME&gt;\lib目录中，或者被-Xbootclasspath参数指定的路径中的，并且是虚拟机识别的类库加载到虚拟机内存中。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个类加载器收到了类加载的请求，它首先不会自己去尝试加载这个类，而是把这个请求委派给父类加载器去完成，每一个层次的类加载都是如此，因此是所有的加载请求最终都应该传送到顶层的启动类加载器中，只有当附加在其反馈自己无法完成这个加载请求（它的搜索范围中没有找到所需的类）时，子加载器才会尝试自己去加载。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作数栈：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当一个方法刚刚开始执行的时候，这个方法的操作数栈是空的，在方法的执行过程中，会有各种字节码指令往操作数栈写入和提取内容，也就是出栈/入栈操作。Java虚拟机的解释执行引擎称为“基于栈的执行引擎”，其中所指的“栈”就是操作数栈。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一种退出方式是，在方法执行过程中遇到了异常，并且这个异常没有在方法体内得到处理，无论是java虚拟机内部产生的异常，还是代码中使用athrow字节码指令产生的异常，只要在本方法的异常表中没有搜索到匹配的异常处理器，就会导致方法退出，这种退出方法的方式称为异常完成出口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>附加信息：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚拟机规范允许具体的虚拟机实现增加一些规范里没有描述的信息到栈帧之中，例如与调试相关的信息，这部分信息完全取决于具体的虚拟机实现。在实际开发中，一般会把动态连接、方法返回地址与其他区间信息全部归为一类，称为栈帧信息。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分派调用过程将会揭示java多态性特征的一些最基本的体现，如“重载”和“重写”在java虚拟机之中是如何确定正确的目标方法的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有依赖静态类型来定位方法执行版本的分派动作称为静态分派。静态分派的典型应用是方法重载。静态分派发生在编译阶段，因此确定静态分派的动作实际上不是由虚拟机来执行的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定动作A是线程T对变量V实施的use或assign动作，假定动作F是和动作A相关联的load或store动作，假定动作P是和动作F响应的对变量V的read或write动作；类似的，假定动作B是线程T对变量W实施的use或assign动作，假定动作G是和动作B相关联的load或sotre动作，假定动作Q是和动作G响应的对变量W的read或write操作。如果A先于B，那么P先于Q（这条规则要求volatile修饰的变量不会指令重排序优化，保证代码的执行顺序与程序的顺序相同）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先行发生原则：先行发生是java内存模型中定义的两项操作之间的偏序关系，如果说操作A先行发生于操作B，其实就是说在发生操作B之前，操作A产生的影响能被操作B观察到，“影响”包括修改了内存中共享变量的值、发送了消息、调用了方法等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程序次序规则（ProgramOrder Rule）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在一个线程内，按照程序代码顺序，书写在前面的操作先行发生于书写在后面的操作。准确地说，应该是控制流顺序而不是程序代码顺序，因为要考虑分支、循环等结构。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2531,26 +2531,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2570,14 +2558,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3921,10 +3921,10 @@
         <v>12</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="11:14" x14ac:dyDescent="0.15">
@@ -3937,8 +3937,8 @@
       <c r="M9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="30" t="s">
-        <v>309</v>
+      <c r="N9" s="17" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="11:14" x14ac:dyDescent="0.15">
@@ -3947,7 +3947,7 @@
       <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K11" s="15"/>
@@ -3955,7 +3955,7 @@
       <c r="M11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="11:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="K12" s="15"/>
@@ -3963,7 +3963,7 @@
       <c r="M12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="32"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="11:14" ht="27" x14ac:dyDescent="0.15">
       <c r="K13" s="3" t="s">
@@ -3979,7 +3979,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:D165"/>
     </sheetView>
   </sheetViews>
@@ -4069,17 +4069,17 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -4103,7 +4103,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -4127,13 +4127,13 @@
       <c r="E7" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -4189,7 +4189,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4213,24 +4213,24 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
@@ -4248,7 +4248,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -4259,28 +4259,28 @@
         <v>62</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="54" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
@@ -4301,7 +4301,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>68</v>
@@ -4313,7 +4313,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>69</v>
@@ -4342,7 +4342,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -4387,115 +4387,115 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="28"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="28"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="28"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="20" t="s">
+      <c r="A121" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="28"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B139" s="20"/>
+      <c r="B139" s="28"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
+      <c r="A159" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
     </row>
     <row r="160" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
+      <c r="A161" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
     </row>
     <row r="162" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
+      <c r="A163" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
     </row>
     <row r="164" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
+      <c r="A165" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
     </row>
     <row r="166" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
+      <c r="A167" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A167:D167"/>
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,1095 +4662,1106 @@
   <dimension ref="A2:P318"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B302" sqref="B302:P302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="A19" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="A31" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
+      <c r="A47" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
     </row>
     <row r="48" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
+      <c r="B93" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
+      <c r="B99" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="31"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
     </row>
     <row r="100" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
+      <c r="B105" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="31"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="31"/>
+      <c r="M105" s="31"/>
+      <c r="N105" s="31"/>
+      <c r="O105" s="31"/>
+      <c r="P105" s="31"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
+      <c r="A117" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="31"/>
+      <c r="M117" s="31"/>
+      <c r="N117" s="31"/>
+      <c r="O117" s="31"/>
+      <c r="P117" s="31"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A121" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
+      <c r="A121" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="31"/>
+      <c r="M121" s="31"/>
+      <c r="N121" s="31"/>
+      <c r="O121" s="31"/>
+      <c r="P121" s="31"/>
     </row>
     <row r="123" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
+      <c r="B123" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="31"/>
+      <c r="M123" s="31"/>
+      <c r="N123" s="31"/>
+      <c r="O123" s="31"/>
+      <c r="P123" s="31"/>
     </row>
     <row r="124" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
+      <c r="B125" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="31"/>
+      <c r="L125" s="31"/>
+      <c r="M125" s="31"/>
+      <c r="N125" s="31"/>
+      <c r="O125" s="31"/>
+      <c r="P125" s="31"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B127" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B129" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B131" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B133" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
+      <c r="A137" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
+      <c r="L137" s="31"/>
+      <c r="M137" s="31"/>
+      <c r="N137" s="31"/>
+      <c r="O137" s="31"/>
+      <c r="P137" s="31"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="18"/>
-      <c r="P141" s="18"/>
+      <c r="B141" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="31"/>
+      <c r="M141" s="31"/>
+      <c r="N141" s="31"/>
+      <c r="O141" s="31"/>
+      <c r="P141" s="31"/>
     </row>
     <row r="142" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
-      <c r="P143" s="18"/>
+      <c r="B143" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31"/>
+      <c r="K143" s="31"/>
+      <c r="L143" s="31"/>
+      <c r="M143" s="31"/>
+      <c r="N143" s="31"/>
+      <c r="O143" s="31"/>
+      <c r="P143" s="31"/>
     </row>
     <row r="144" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="149" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
-      <c r="P149" s="18"/>
+      <c r="B149" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="31"/>
+      <c r="L149" s="31"/>
+      <c r="M149" s="31"/>
+      <c r="N149" s="31"/>
+      <c r="O149" s="31"/>
+      <c r="P149" s="31"/>
     </row>
     <row r="150" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
+      <c r="B151" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="31"/>
+      <c r="L151" s="31"/>
+      <c r="M151" s="31"/>
+      <c r="N151" s="31"/>
+      <c r="O151" s="31"/>
+      <c r="P151" s="31"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
+      <c r="A155" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="31"/>
+      <c r="J155" s="31"/>
+      <c r="K155" s="31"/>
+      <c r="L155" s="31"/>
+      <c r="M155" s="31"/>
+      <c r="N155" s="31"/>
+      <c r="O155" s="31"/>
+      <c r="P155" s="31"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
+      <c r="A159" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
+      <c r="I159" s="31"/>
+      <c r="J159" s="31"/>
+      <c r="K159" s="31"/>
+      <c r="L159" s="31"/>
+      <c r="M159" s="31"/>
+      <c r="N159" s="31"/>
+      <c r="O159" s="31"/>
+      <c r="P159" s="31"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="12" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="18"/>
-      <c r="P163" s="18"/>
+      <c r="A163" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
+      <c r="I163" s="31"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="31"/>
+      <c r="L163" s="31"/>
+      <c r="M163" s="31"/>
+      <c r="N163" s="31"/>
+      <c r="O163" s="31"/>
+      <c r="P163" s="31"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="19"/>
+      <c r="B167" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32"/>
+      <c r="L167" s="32"/>
+      <c r="M167" s="32"/>
+      <c r="N167" s="32"/>
+      <c r="O167" s="32"/>
+      <c r="P167" s="32"/>
     </row>
     <row r="168" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="169" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="19"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
+      <c r="B169" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="32"/>
+      <c r="L169" s="32"/>
+      <c r="M169" s="32"/>
+      <c r="N169" s="32"/>
+      <c r="O169" s="32"/>
+      <c r="P169" s="32"/>
     </row>
     <row r="170" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="171" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
-      <c r="L171" s="19"/>
-      <c r="M171" s="19"/>
-      <c r="N171" s="19"/>
-      <c r="O171" s="19"/>
-      <c r="P171" s="19"/>
+      <c r="B171" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="32"/>
+      <c r="L171" s="32"/>
+      <c r="M171" s="32"/>
+      <c r="N171" s="32"/>
+      <c r="O171" s="32"/>
+      <c r="P171" s="32"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="12" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="18"/>
-      <c r="P201" s="18"/>
+      <c r="A201" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
+      <c r="H201" s="31"/>
+      <c r="I201" s="31"/>
+      <c r="J201" s="31"/>
+      <c r="K201" s="31"/>
+      <c r="L201" s="31"/>
+      <c r="M201" s="31"/>
+      <c r="N201" s="31"/>
+      <c r="O201" s="31"/>
+      <c r="P201" s="31"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" s="12" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" s="12" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
-      <c r="I209" s="18"/>
-      <c r="J209" s="18"/>
-      <c r="K209" s="18"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="18"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="18"/>
-      <c r="P209" s="18"/>
+      <c r="A209" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="31"/>
+      <c r="G209" s="31"/>
+      <c r="H209" s="31"/>
+      <c r="I209" s="31"/>
+      <c r="J209" s="31"/>
+      <c r="K209" s="31"/>
+      <c r="L209" s="31"/>
+      <c r="M209" s="31"/>
+      <c r="N209" s="31"/>
+      <c r="O209" s="31"/>
+      <c r="P209" s="31"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A243" s="12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="13"/>
-      <c r="B247" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C247" s="17"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="17"/>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
-      <c r="I247" s="17"/>
-      <c r="J247" s="17"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="17"/>
-      <c r="M247" s="17"/>
-      <c r="N247" s="17"/>
-      <c r="O247" s="17"/>
-      <c r="P247" s="17"/>
+      <c r="B247" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C247" s="30"/>
+      <c r="D247" s="30"/>
+      <c r="E247" s="30"/>
+      <c r="F247" s="30"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="30"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+      <c r="M247" s="30"/>
+      <c r="N247" s="30"/>
+      <c r="O247" s="30"/>
+      <c r="P247" s="30"/>
     </row>
     <row r="248" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B278" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C278" s="17"/>
-      <c r="D278" s="17"/>
-      <c r="E278" s="17"/>
-      <c r="F278" s="17"/>
-      <c r="G278" s="17"/>
-      <c r="H278" s="17"/>
-      <c r="I278" s="17"/>
-      <c r="J278" s="17"/>
-      <c r="K278" s="17"/>
-      <c r="L278" s="17"/>
-      <c r="M278" s="17"/>
-      <c r="N278" s="17"/>
-      <c r="O278" s="17"/>
-      <c r="P278" s="17"/>
+      <c r="B278" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C278" s="30"/>
+      <c r="D278" s="30"/>
+      <c r="E278" s="30"/>
+      <c r="F278" s="30"/>
+      <c r="G278" s="30"/>
+      <c r="H278" s="30"/>
+      <c r="I278" s="30"/>
+      <c r="J278" s="30"/>
+      <c r="K278" s="30"/>
+      <c r="L278" s="30"/>
+      <c r="M278" s="30"/>
+      <c r="N278" s="30"/>
+      <c r="O278" s="30"/>
+      <c r="P278" s="30"/>
     </row>
     <row r="279" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="280" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B280" s="12" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C282" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
-      <c r="F282" s="18"/>
-      <c r="G282" s="18"/>
-      <c r="H282" s="18"/>
-      <c r="I282" s="18"/>
-      <c r="J282" s="18"/>
-      <c r="K282" s="18"/>
-      <c r="L282" s="18"/>
-      <c r="M282" s="18"/>
-      <c r="N282" s="18"/>
-      <c r="O282" s="18"/>
-      <c r="P282" s="18"/>
+    <row r="282" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C282" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D282" s="31"/>
+      <c r="E282" s="31"/>
+      <c r="F282" s="31"/>
+      <c r="G282" s="31"/>
+      <c r="H282" s="31"/>
+      <c r="I282" s="31"/>
+      <c r="J282" s="31"/>
+      <c r="K282" s="31"/>
+      <c r="L282" s="31"/>
+      <c r="M282" s="31"/>
+      <c r="N282" s="31"/>
+      <c r="O282" s="31"/>
+      <c r="P282" s="31"/>
     </row>
     <row r="283" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="284" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C284" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D284" s="18"/>
-      <c r="E284" s="18"/>
-      <c r="F284" s="18"/>
-      <c r="G284" s="18"/>
-      <c r="H284" s="18"/>
-      <c r="I284" s="18"/>
-      <c r="J284" s="18"/>
-      <c r="K284" s="18"/>
-      <c r="L284" s="18"/>
-      <c r="M284" s="18"/>
-      <c r="N284" s="18"/>
-      <c r="O284" s="18"/>
-      <c r="P284" s="18"/>
+      <c r="C284" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D284" s="31"/>
+      <c r="E284" s="31"/>
+      <c r="F284" s="31"/>
+      <c r="G284" s="31"/>
+      <c r="H284" s="31"/>
+      <c r="I284" s="31"/>
+      <c r="J284" s="31"/>
+      <c r="K284" s="31"/>
+      <c r="L284" s="31"/>
+      <c r="M284" s="31"/>
+      <c r="N284" s="31"/>
+      <c r="O284" s="31"/>
+      <c r="P284" s="31"/>
     </row>
     <row r="285" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="286" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B286" s="12" t="s">
-        <v>290</v>
-      </c>
+      <c r="B286" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C286" s="32"/>
+      <c r="D286" s="32"/>
+      <c r="E286" s="32"/>
+      <c r="F286" s="32"/>
+      <c r="G286" s="32"/>
+      <c r="H286" s="32"/>
+      <c r="I286" s="32"/>
+      <c r="J286" s="32"/>
+      <c r="K286" s="32"/>
+      <c r="L286" s="32"/>
+      <c r="M286" s="32"/>
+      <c r="N286" s="32"/>
+      <c r="O286" s="32"/>
+      <c r="P286" s="32"/>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A288" s="12" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="290" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18"/>
-      <c r="F290" s="18"/>
-      <c r="G290" s="18"/>
-      <c r="H290" s="18"/>
-      <c r="I290" s="18"/>
-      <c r="J290" s="18"/>
-      <c r="K290" s="18"/>
-      <c r="L290" s="18"/>
-      <c r="M290" s="18"/>
-      <c r="N290" s="18"/>
-      <c r="O290" s="18"/>
-      <c r="P290" s="18"/>
+      <c r="A290" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B290" s="31"/>
+      <c r="C290" s="31"/>
+      <c r="D290" s="31"/>
+      <c r="E290" s="31"/>
+      <c r="F290" s="31"/>
+      <c r="G290" s="31"/>
+      <c r="H290" s="31"/>
+      <c r="I290" s="31"/>
+      <c r="J290" s="31"/>
+      <c r="K290" s="31"/>
+      <c r="L290" s="31"/>
+      <c r="M290" s="31"/>
+      <c r="N290" s="31"/>
+      <c r="O290" s="31"/>
+      <c r="P290" s="31"/>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A292" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B294" s="18"/>
-      <c r="C294" s="18"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="18"/>
-      <c r="F294" s="18"/>
-      <c r="G294" s="18"/>
-      <c r="H294" s="18"/>
-      <c r="I294" s="18"/>
-      <c r="J294" s="18"/>
-      <c r="K294" s="18"/>
-      <c r="L294" s="18"/>
-      <c r="M294" s="18"/>
-      <c r="N294" s="18"/>
-      <c r="O294" s="18"/>
-      <c r="P294" s="18"/>
+      <c r="A294" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B294" s="31"/>
+      <c r="C294" s="31"/>
+      <c r="D294" s="31"/>
+      <c r="E294" s="31"/>
+      <c r="F294" s="31"/>
+      <c r="G294" s="31"/>
+      <c r="H294" s="31"/>
+      <c r="I294" s="31"/>
+      <c r="J294" s="31"/>
+      <c r="K294" s="31"/>
+      <c r="L294" s="31"/>
+      <c r="M294" s="31"/>
+      <c r="N294" s="31"/>
+      <c r="O294" s="31"/>
+      <c r="P294" s="31"/>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A296" s="12" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B300" s="12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="302" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B302" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C302" s="18"/>
-      <c r="D302" s="18"/>
-      <c r="E302" s="18"/>
-      <c r="F302" s="18"/>
-      <c r="G302" s="18"/>
-      <c r="H302" s="18"/>
-      <c r="I302" s="18"/>
-      <c r="J302" s="18"/>
-      <c r="K302" s="18"/>
-      <c r="L302" s="18"/>
-      <c r="M302" s="18"/>
-      <c r="N302" s="18"/>
-      <c r="O302" s="18"/>
-      <c r="P302" s="18"/>
+      <c r="B302" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C302" s="31"/>
+      <c r="D302" s="31"/>
+      <c r="E302" s="31"/>
+      <c r="F302" s="31"/>
+      <c r="G302" s="31"/>
+      <c r="H302" s="31"/>
+      <c r="I302" s="31"/>
+      <c r="J302" s="31"/>
+      <c r="K302" s="31"/>
+      <c r="L302" s="31"/>
+      <c r="M302" s="31"/>
+      <c r="N302" s="31"/>
+      <c r="O302" s="31"/>
+      <c r="P302" s="31"/>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B304" s="12" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="306" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="308" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B308" s="12" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="310" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B310" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="18"/>
-      <c r="G310" s="18"/>
-      <c r="H310" s="18"/>
-      <c r="I310" s="18"/>
-      <c r="J310" s="18"/>
-      <c r="K310" s="18"/>
-      <c r="L310" s="18"/>
-      <c r="M310" s="18"/>
-      <c r="N310" s="18"/>
-      <c r="O310" s="18"/>
-      <c r="P310" s="18"/>
+      <c r="B310" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C310" s="31"/>
+      <c r="D310" s="31"/>
+      <c r="E310" s="31"/>
+      <c r="F310" s="31"/>
+      <c r="G310" s="31"/>
+      <c r="H310" s="31"/>
+      <c r="I310" s="31"/>
+      <c r="J310" s="31"/>
+      <c r="K310" s="31"/>
+      <c r="L310" s="31"/>
+      <c r="M310" s="31"/>
+      <c r="N310" s="31"/>
+      <c r="O310" s="31"/>
+      <c r="P310" s="31"/>
     </row>
     <row r="312" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B312" s="12" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="314" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B314" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C314" s="18"/>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
-      <c r="F314" s="18"/>
-      <c r="G314" s="18"/>
-      <c r="H314" s="18"/>
-      <c r="I314" s="18"/>
-      <c r="J314" s="18"/>
-      <c r="K314" s="18"/>
-      <c r="L314" s="18"/>
-      <c r="M314" s="18"/>
-      <c r="N314" s="18"/>
-      <c r="O314" s="18"/>
-      <c r="P314" s="18"/>
+      <c r="B314" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C314" s="31"/>
+      <c r="D314" s="31"/>
+      <c r="E314" s="31"/>
+      <c r="F314" s="31"/>
+      <c r="G314" s="31"/>
+      <c r="H314" s="31"/>
+      <c r="I314" s="31"/>
+      <c r="J314" s="31"/>
+      <c r="K314" s="31"/>
+      <c r="L314" s="31"/>
+      <c r="M314" s="31"/>
+      <c r="N314" s="31"/>
+      <c r="O314" s="31"/>
+      <c r="P314" s="31"/>
     </row>
     <row r="315" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="316" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="317" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="318" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A163:P163"/>
-    <mergeCell ref="B167:P167"/>
-    <mergeCell ref="B169:P169"/>
-    <mergeCell ref="B171:P171"/>
-    <mergeCell ref="A201:P201"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="B93:P93"/>
-    <mergeCell ref="B99:P99"/>
+  <mergeCells count="33">
+    <mergeCell ref="B310:P310"/>
+    <mergeCell ref="B314:P314"/>
+    <mergeCell ref="C284:P284"/>
+    <mergeCell ref="A290:P290"/>
+    <mergeCell ref="A294:P294"/>
+    <mergeCell ref="B302:P302"/>
+    <mergeCell ref="B286:P286"/>
     <mergeCell ref="B105:P105"/>
     <mergeCell ref="A209:P209"/>
     <mergeCell ref="B247:P247"/>
@@ -5767,12 +5778,16 @@
     <mergeCell ref="B149:P149"/>
     <mergeCell ref="B151:P151"/>
     <mergeCell ref="A155:P155"/>
-    <mergeCell ref="B310:P310"/>
-    <mergeCell ref="B314:P314"/>
-    <mergeCell ref="C284:P284"/>
-    <mergeCell ref="A290:P290"/>
-    <mergeCell ref="A294:P294"/>
-    <mergeCell ref="B302:P302"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="B99:P99"/>
+    <mergeCell ref="A163:P163"/>
+    <mergeCell ref="B167:P167"/>
+    <mergeCell ref="B169:P169"/>
+    <mergeCell ref="B171:P171"/>
+    <mergeCell ref="A201:P201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5888,33 +5903,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P275"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
@@ -5952,7 +5967,7 @@
     <row r="41" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5964,7 +5979,7 @@
     <row r="45" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5974,12 +5989,12 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
@@ -6000,50 +6015,50 @@
     </row>
     <row r="57" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
     </row>
     <row r="59" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
     </row>
     <row r="61" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6059,15 +6074,15 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="A68" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
@@ -6075,871 +6090,884 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
     </row>
     <row r="73" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
     </row>
     <row r="75" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
+      <c r="A76" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
     </row>
     <row r="80" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
     </row>
     <row r="81" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
+      <c r="A82" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
     </row>
     <row r="83" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
     </row>
     <row r="88" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
+      <c r="A88" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
+      <c r="A90" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
     </row>
     <row r="92" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
+      <c r="A92" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
     </row>
     <row r="93" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
+      <c r="A100" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
     </row>
     <row r="101" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
+      <c r="A102" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
     </row>
     <row r="103" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="31"/>
+      <c r="I177" s="31"/>
+      <c r="J177" s="31"/>
+      <c r="K177" s="31"/>
+      <c r="L177" s="31"/>
+      <c r="M177" s="31"/>
+      <c r="N177" s="31"/>
+      <c r="O177" s="31"/>
+      <c r="P177" s="31"/>
+    </row>
+    <row r="179" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="31" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="18"/>
-      <c r="P177" s="18"/>
-    </row>
-    <row r="179" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="18"/>
-      <c r="P179" s="18"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="31"/>
+      <c r="I179" s="31"/>
+      <c r="J179" s="31"/>
+      <c r="K179" s="31"/>
+      <c r="L179" s="31"/>
+      <c r="M179" s="31"/>
+      <c r="N179" s="31"/>
+      <c r="O179" s="31"/>
+      <c r="P179" s="31"/>
     </row>
     <row r="180" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="181" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="18"/>
-      <c r="P181" s="18"/>
+      <c r="A181" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
+      <c r="I181" s="31"/>
+      <c r="J181" s="31"/>
+      <c r="K181" s="31"/>
+      <c r="L181" s="31"/>
+      <c r="M181" s="31"/>
+      <c r="N181" s="31"/>
+      <c r="O181" s="31"/>
+      <c r="P181" s="31"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="18"/>
-      <c r="P199" s="18"/>
+      <c r="A199" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31"/>
+      <c r="H199" s="31"/>
+      <c r="I199" s="31"/>
+      <c r="J199" s="31"/>
+      <c r="K199" s="31"/>
+      <c r="L199" s="31"/>
+      <c r="M199" s="31"/>
+      <c r="N199" s="31"/>
+      <c r="O199" s="31"/>
+      <c r="P199" s="31"/>
     </row>
     <row r="200" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
-      <c r="I211" s="18"/>
-      <c r="J211" s="18"/>
-      <c r="K211" s="18"/>
-      <c r="L211" s="18"/>
-      <c r="M211" s="18"/>
-      <c r="N211" s="18"/>
-      <c r="O211" s="18"/>
-      <c r="P211" s="18"/>
+      <c r="A211" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B211" s="31"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="31"/>
+      <c r="H211" s="31"/>
+      <c r="I211" s="31"/>
+      <c r="J211" s="31"/>
+      <c r="K211" s="31"/>
+      <c r="L211" s="31"/>
+      <c r="M211" s="31"/>
+      <c r="N211" s="31"/>
+      <c r="O211" s="31"/>
+      <c r="P211" s="31"/>
     </row>
     <row r="212" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A215" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A233" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B235" s="18"/>
-      <c r="C235" s="18"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="18"/>
-      <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
-      <c r="I235" s="18"/>
-      <c r="J235" s="18"/>
-      <c r="K235" s="18"/>
-      <c r="L235" s="18"/>
-      <c r="M235" s="18"/>
-      <c r="N235" s="18"/>
-      <c r="O235" s="18"/>
-      <c r="P235" s="18"/>
+      <c r="A235" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B235" s="31"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="31"/>
+      <c r="E235" s="31"/>
+      <c r="F235" s="31"/>
+      <c r="G235" s="31"/>
+      <c r="H235" s="31"/>
+      <c r="I235" s="31"/>
+      <c r="J235" s="31"/>
+      <c r="K235" s="31"/>
+      <c r="L235" s="31"/>
+      <c r="M235" s="31"/>
+      <c r="N235" s="31"/>
+      <c r="O235" s="31"/>
+      <c r="P235" s="31"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A237" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="18"/>
-      <c r="F239" s="18"/>
-      <c r="G239" s="18"/>
-      <c r="H239" s="18"/>
-      <c r="I239" s="18"/>
-      <c r="J239" s="18"/>
-      <c r="K239" s="18"/>
-      <c r="L239" s="18"/>
-      <c r="M239" s="18"/>
-      <c r="N239" s="18"/>
-      <c r="O239" s="18"/>
-      <c r="P239" s="18"/>
+      <c r="A239" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B239" s="31"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="31"/>
+      <c r="E239" s="31"/>
+      <c r="F239" s="31"/>
+      <c r="G239" s="31"/>
+      <c r="H239" s="31"/>
+      <c r="I239" s="31"/>
+      <c r="J239" s="31"/>
+      <c r="K239" s="31"/>
+      <c r="L239" s="31"/>
+      <c r="M239" s="31"/>
+      <c r="N239" s="31"/>
+      <c r="O239" s="31"/>
+      <c r="P239" s="31"/>
     </row>
     <row r="240" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="241" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="18"/>
-      <c r="F241" s="18"/>
-      <c r="G241" s="18"/>
-      <c r="H241" s="18"/>
-      <c r="I241" s="18"/>
-      <c r="J241" s="18"/>
-      <c r="K241" s="18"/>
-      <c r="L241" s="18"/>
-      <c r="M241" s="18"/>
-      <c r="N241" s="18"/>
-      <c r="O241" s="18"/>
-      <c r="P241" s="18"/>
+      <c r="A241" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B241" s="31"/>
+      <c r="C241" s="31"/>
+      <c r="D241" s="31"/>
+      <c r="E241" s="31"/>
+      <c r="F241" s="31"/>
+      <c r="G241" s="31"/>
+      <c r="H241" s="31"/>
+      <c r="I241" s="31"/>
+      <c r="J241" s="31"/>
+      <c r="K241" s="31"/>
+      <c r="L241" s="31"/>
+      <c r="M241" s="31"/>
+      <c r="N241" s="31"/>
+      <c r="O241" s="31"/>
+      <c r="P241" s="31"/>
     </row>
     <row r="242" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="243" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
-      <c r="D243" s="18"/>
-      <c r="E243" s="18"/>
-      <c r="F243" s="18"/>
-      <c r="G243" s="18"/>
-      <c r="H243" s="18"/>
-      <c r="I243" s="18"/>
-      <c r="J243" s="18"/>
-      <c r="K243" s="18"/>
-      <c r="L243" s="18"/>
-      <c r="M243" s="18"/>
-      <c r="N243" s="18"/>
-      <c r="O243" s="18"/>
-      <c r="P243" s="18"/>
+      <c r="A243" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B243" s="31"/>
+      <c r="C243" s="31"/>
+      <c r="D243" s="31"/>
+      <c r="E243" s="31"/>
+      <c r="F243" s="31"/>
+      <c r="G243" s="31"/>
+      <c r="H243" s="31"/>
+      <c r="I243" s="31"/>
+      <c r="J243" s="31"/>
+      <c r="K243" s="31"/>
+      <c r="L243" s="31"/>
+      <c r="M243" s="31"/>
+      <c r="N243" s="31"/>
+      <c r="O243" s="31"/>
+      <c r="P243" s="31"/>
     </row>
     <row r="244" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="245" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="18"/>
-      <c r="H245" s="18"/>
-      <c r="I245" s="18"/>
-      <c r="J245" s="18"/>
-      <c r="K245" s="18"/>
-      <c r="L245" s="18"/>
-      <c r="M245" s="18"/>
-      <c r="N245" s="18"/>
-      <c r="O245" s="18"/>
-      <c r="P245" s="18"/>
+      <c r="A245" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B245" s="31"/>
+      <c r="C245" s="31"/>
+      <c r="D245" s="31"/>
+      <c r="E245" s="31"/>
+      <c r="F245" s="31"/>
+      <c r="G245" s="31"/>
+      <c r="H245" s="31"/>
+      <c r="I245" s="31"/>
+      <c r="J245" s="31"/>
+      <c r="K245" s="31"/>
+      <c r="L245" s="31"/>
+      <c r="M245" s="31"/>
+      <c r="N245" s="31"/>
+      <c r="O245" s="31"/>
+      <c r="P245" s="31"/>
     </row>
     <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B247" s="18"/>
-      <c r="C247" s="18"/>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18"/>
-      <c r="G247" s="18"/>
-      <c r="H247" s="18"/>
-      <c r="I247" s="18"/>
-      <c r="J247" s="18"/>
-      <c r="K247" s="18"/>
-      <c r="L247" s="18"/>
-      <c r="M247" s="18"/>
-      <c r="N247" s="18"/>
-      <c r="O247" s="18"/>
-      <c r="P247" s="18"/>
+      <c r="A247" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B247" s="31"/>
+      <c r="C247" s="31"/>
+      <c r="D247" s="31"/>
+      <c r="E247" s="31"/>
+      <c r="F247" s="31"/>
+      <c r="G247" s="31"/>
+      <c r="H247" s="31"/>
+      <c r="I247" s="31"/>
+      <c r="J247" s="31"/>
+      <c r="K247" s="31"/>
+      <c r="L247" s="31"/>
+      <c r="M247" s="31"/>
+      <c r="N247" s="31"/>
+      <c r="O247" s="31"/>
+      <c r="P247" s="31"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A249" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B251" s="17"/>
-      <c r="C251" s="17"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="17"/>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="17"/>
-      <c r="M251" s="17"/>
-      <c r="N251" s="17"/>
-      <c r="O251" s="17"/>
-      <c r="P251" s="17"/>
+      <c r="A251" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="30"/>
+      <c r="F251" s="30"/>
+      <c r="G251" s="30"/>
+      <c r="H251" s="30"/>
+      <c r="I251" s="30"/>
+      <c r="J251" s="30"/>
+      <c r="K251" s="30"/>
+      <c r="L251" s="30"/>
+      <c r="M251" s="30"/>
+      <c r="N251" s="30"/>
+      <c r="O251" s="30"/>
+      <c r="P251" s="30"/>
     </row>
     <row r="252" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="253" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="17"/>
-      <c r="J253" s="17"/>
-      <c r="K253" s="17"/>
-      <c r="L253" s="17"/>
-      <c r="M253" s="17"/>
-      <c r="N253" s="17"/>
-      <c r="O253" s="17"/>
-      <c r="P253" s="17"/>
+      <c r="A253" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
+      <c r="D253" s="30"/>
+      <c r="E253" s="30"/>
+      <c r="F253" s="30"/>
+      <c r="G253" s="30"/>
+      <c r="H253" s="30"/>
+      <c r="I253" s="30"/>
+      <c r="J253" s="30"/>
+      <c r="K253" s="30"/>
+      <c r="L253" s="30"/>
+      <c r="M253" s="30"/>
+      <c r="N253" s="30"/>
+      <c r="O253" s="30"/>
+      <c r="P253" s="30"/>
     </row>
     <row r="254" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="255" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="18"/>
-      <c r="H255" s="18"/>
-      <c r="I255" s="18"/>
-      <c r="J255" s="18"/>
-      <c r="K255" s="18"/>
-      <c r="L255" s="18"/>
-      <c r="M255" s="18"/>
-      <c r="N255" s="18"/>
-      <c r="O255" s="18"/>
-      <c r="P255" s="18"/>
+      <c r="A255" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B255" s="31"/>
+      <c r="C255" s="31"/>
+      <c r="D255" s="31"/>
+      <c r="E255" s="31"/>
+      <c r="F255" s="31"/>
+      <c r="G255" s="31"/>
+      <c r="H255" s="31"/>
+      <c r="I255" s="31"/>
+      <c r="J255" s="31"/>
+      <c r="K255" s="31"/>
+      <c r="L255" s="31"/>
+      <c r="M255" s="31"/>
+      <c r="N255" s="31"/>
+      <c r="O255" s="31"/>
+      <c r="P255" s="31"/>
     </row>
     <row r="256" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="257" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B257" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C257" s="18"/>
-      <c r="D257" s="18"/>
-      <c r="E257" s="18"/>
-      <c r="F257" s="18"/>
-      <c r="G257" s="18"/>
-      <c r="H257" s="18"/>
-      <c r="I257" s="18"/>
-      <c r="J257" s="18"/>
-      <c r="K257" s="18"/>
-      <c r="L257" s="18"/>
-      <c r="M257" s="18"/>
-      <c r="N257" s="18"/>
-      <c r="O257" s="18"/>
-      <c r="P257" s="18"/>
+      <c r="B257" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C257" s="31"/>
+      <c r="D257" s="31"/>
+      <c r="E257" s="31"/>
+      <c r="F257" s="31"/>
+      <c r="G257" s="31"/>
+      <c r="H257" s="31"/>
+      <c r="I257" s="31"/>
+      <c r="J257" s="31"/>
+      <c r="K257" s="31"/>
+      <c r="L257" s="31"/>
+      <c r="M257" s="31"/>
+      <c r="N257" s="31"/>
+      <c r="O257" s="31"/>
+      <c r="P257" s="31"/>
     </row>
     <row r="258" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="259" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B259" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C259" s="17"/>
-      <c r="D259" s="17"/>
-      <c r="E259" s="17"/>
-      <c r="F259" s="17"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="17"/>
-      <c r="I259" s="17"/>
-      <c r="J259" s="17"/>
-      <c r="K259" s="17"/>
-      <c r="L259" s="17"/>
-      <c r="M259" s="17"/>
-      <c r="N259" s="17"/>
-      <c r="O259" s="17"/>
-      <c r="P259" s="17"/>
+      <c r="B259" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C259" s="30"/>
+      <c r="D259" s="30"/>
+      <c r="E259" s="30"/>
+      <c r="F259" s="30"/>
+      <c r="G259" s="30"/>
+      <c r="H259" s="30"/>
+      <c r="I259" s="30"/>
+      <c r="J259" s="30"/>
+      <c r="K259" s="30"/>
+      <c r="L259" s="30"/>
+      <c r="M259" s="30"/>
+      <c r="N259" s="30"/>
+      <c r="O259" s="30"/>
+      <c r="P259" s="30"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A261" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A263" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="265" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B265" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="267" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B267" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C267" s="17"/>
-      <c r="D267" s="17"/>
-      <c r="E267" s="17"/>
-      <c r="F267" s="17"/>
-      <c r="G267" s="17"/>
-      <c r="H267" s="17"/>
-      <c r="I267" s="17"/>
-      <c r="J267" s="17"/>
-      <c r="K267" s="17"/>
-      <c r="L267" s="17"/>
-      <c r="M267" s="17"/>
-      <c r="N267" s="17"/>
-      <c r="O267" s="17"/>
-      <c r="P267" s="17"/>
+      <c r="B267" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
+      <c r="E267" s="30"/>
+      <c r="F267" s="30"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="30"/>
+      <c r="J267" s="30"/>
+      <c r="K267" s="30"/>
+      <c r="L267" s="30"/>
+      <c r="M267" s="30"/>
+      <c r="N267" s="30"/>
+      <c r="O267" s="30"/>
+      <c r="P267" s="30"/>
     </row>
     <row r="268" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="269" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B269" s="17"/>
-      <c r="C269" s="17"/>
-      <c r="D269" s="17"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="17"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="17"/>
-      <c r="I269" s="17"/>
-      <c r="J269" s="17"/>
-      <c r="K269" s="17"/>
-      <c r="L269" s="17"/>
-      <c r="M269" s="17"/>
-      <c r="N269" s="17"/>
-      <c r="O269" s="17"/>
-      <c r="P269" s="17"/>
+      <c r="A269" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B269" s="30"/>
+      <c r="C269" s="30"/>
+      <c r="D269" s="30"/>
+      <c r="E269" s="30"/>
+      <c r="F269" s="30"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="30"/>
+      <c r="I269" s="30"/>
+      <c r="J269" s="30"/>
+      <c r="K269" s="30"/>
+      <c r="L269" s="30"/>
+      <c r="M269" s="30"/>
+      <c r="N269" s="30"/>
+      <c r="O269" s="30"/>
+      <c r="P269" s="30"/>
     </row>
     <row r="270" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="271" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="273" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B273" s="17"/>
-      <c r="C273" s="17"/>
-      <c r="D273" s="17"/>
-      <c r="E273" s="17"/>
-      <c r="F273" s="17"/>
-      <c r="G273" s="17"/>
-      <c r="H273" s="17"/>
-      <c r="I273" s="17"/>
-      <c r="J273" s="17"/>
-      <c r="K273" s="17"/>
-      <c r="L273" s="17"/>
-      <c r="M273" s="17"/>
-      <c r="N273" s="17"/>
-      <c r="O273" s="17"/>
-      <c r="P273" s="17"/>
+      <c r="A273" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="30"/>
+      <c r="E273" s="30"/>
+      <c r="F273" s="30"/>
+      <c r="G273" s="30"/>
+      <c r="H273" s="30"/>
+      <c r="I273" s="30"/>
+      <c r="J273" s="30"/>
+      <c r="K273" s="30"/>
+      <c r="L273" s="30"/>
+      <c r="M273" s="30"/>
+      <c r="N273" s="30"/>
+      <c r="O273" s="30"/>
+      <c r="P273" s="30"/>
     </row>
     <row r="274" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="275" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
-      <c r="D275" s="17"/>
-      <c r="E275" s="17"/>
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="17"/>
-      <c r="I275" s="17"/>
-      <c r="J275" s="17"/>
-      <c r="K275" s="17"/>
-      <c r="L275" s="17"/>
-      <c r="M275" s="17"/>
-      <c r="N275" s="17"/>
-      <c r="O275" s="17"/>
-      <c r="P275" s="17"/>
+      <c r="A275" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
+      <c r="J275" s="30"/>
+      <c r="K275" s="30"/>
+      <c r="L275" s="30"/>
+      <c r="M275" s="30"/>
+      <c r="N275" s="30"/>
+      <c r="O275" s="30"/>
+      <c r="P275" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A199:P199"/>
-    <mergeCell ref="A211:P211"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A177:P177"/>
-    <mergeCell ref="A181:P181"/>
-    <mergeCell ref="A179:P179"/>
+    <mergeCell ref="B259:P259"/>
+    <mergeCell ref="B267:P267"/>
+    <mergeCell ref="A269:P269"/>
+    <mergeCell ref="A273:P273"/>
+    <mergeCell ref="A275:P275"/>
+    <mergeCell ref="A247:P247"/>
+    <mergeCell ref="A251:P251"/>
+    <mergeCell ref="A253:P253"/>
+    <mergeCell ref="A255:P255"/>
+    <mergeCell ref="B257:P257"/>
+    <mergeCell ref="A235:P235"/>
+    <mergeCell ref="A239:P239"/>
+    <mergeCell ref="A241:P241"/>
+    <mergeCell ref="A243:P243"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A60:P60"/>
     <mergeCell ref="A92:P92"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A72:P72"/>
@@ -6952,26 +6980,13 @@
     <mergeCell ref="A86:H86"/>
     <mergeCell ref="A88:P88"/>
     <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A235:P235"/>
-    <mergeCell ref="A239:P239"/>
-    <mergeCell ref="A241:P241"/>
-    <mergeCell ref="A243:P243"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A247:P247"/>
-    <mergeCell ref="A251:P251"/>
-    <mergeCell ref="A253:P253"/>
-    <mergeCell ref="A255:P255"/>
-    <mergeCell ref="B257:P257"/>
-    <mergeCell ref="B259:P259"/>
-    <mergeCell ref="B267:P267"/>
-    <mergeCell ref="A269:P269"/>
-    <mergeCell ref="A273:P273"/>
-    <mergeCell ref="A275:P275"/>
+    <mergeCell ref="A199:P199"/>
+    <mergeCell ref="A211:P211"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A177:P177"/>
+    <mergeCell ref="A181:P181"/>
+    <mergeCell ref="A179:P179"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java virtual machine/java虚拟机.xlsx
+++ b/Java virtual machine/java虚拟机.xlsx
@@ -832,10 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>协同式调度：线程的执行时间由线程本身来控制，线程把自己的工作执行完了之后，要主动通知系统切换到另外一个线程上。协同式多线程的最大好处是实现简单，而且由于线程要把自己的事情干完后才会进行线程切换，切换操作对县城自己是可知的，所以没有什么线程同步的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抢占式调度：每个线程将由系统来分配执行时间，线程的切换不由线程本身来决定。在这种实现线程的调度的方式下，线程的执行时间是系统可控的，也不会有一个线程导致整个进程阻塞的问题，java使用的线程调度方式就是抢占式调度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,7 +936,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>限期等待（Timed Waiting）：</t>
+      <t>无限期等待（Waiting）：</t>
     </r>
     <r>
       <rPr>
@@ -950,7 +946,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>处于这种状态的线程也不会被分配CPU执行时间，不过无序等待被其他线程显示地唤醒，在一定时间之后它们会由系统自动唤醒。以下方法会让线程进入限期等待状态：</t>
+      <t>处于这种状态的线程不会被分配CPU执行时间，它们要等待被其他线程显示地唤醒。一下方法会让线程陷于无限期的等待状态：</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -965,7 +961,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>无限期等待（Waiting）：</t>
+      <t>运行（Runnable）：</t>
     </r>
     <r>
       <rPr>
@@ -975,7 +971,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>处于这种状态的线程不会被分配CPU执行时间，它们要等待被其他线程显示地唤醒。一下方法会让线程陷于无限期的等待状态：</t>
+      <t>Runnable包括了操作系统线程状态中的Running和Ready，也就是处于此状态的线程有可能正在执行，也有可能正在等待着CPU为它分配执行时间。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,7 +986,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>运行（Runnable）：</t>
+      <t>新建（New）：</t>
     </r>
     <r>
       <rPr>
@@ -1000,8 +996,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Runnable包括了操作系统线程状态中的Running和Ready，也就是处于此状态的线程有可能正在执行，也有可能正在等待着CPU为它分配执行时间。</t>
-    </r>
+      <t>创建后尚未启动的线程处于这种状态。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程状态转换关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全与锁优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1015,7 +1019,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>新建（New）：</t>
+      <t>线程安全：</t>
     </r>
     <r>
       <rPr>
@@ -1025,16 +1029,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>创建后尚未启动的线程处于这种状态。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程状态转换关系图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程安全与锁优化</t>
+      <t>当多个线程访问一个对象时，如果不用考虑这些线程在运行时环境下的调度和交替执行，也不需要进行额外的同步，或者在调用方进行任何其他的协调操作，调用这个对象的行为都可以获得正确的结果，那这个对象是线程安全的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java语言中的线程安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程安全：</t>
+      <t>不可变：</t>
     </r>
     <r>
       <rPr>
@@ -1058,12 +1058,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>当多个线程访问一个对象时，如果不用考虑这些线程在运行时环境下的调度和交替执行，也不需要进行额外的同步，或者在调用方进行任何其他的协调操作，调用这个对象的行为都可以获得正确的结果，那这个对象是线程安全的。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java语言中的线程安全</t>
+      <t>不可变的对象一定是线程安全的，无论是对象的方法实现还是方法的调用者，都不需要再采取任何的线程安全保障措施。“不可变”带来的安全性是最简单和最纯粹的。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1077,7 +1073,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不可变：</t>
+      <t>绝对线程安全：</t>
     </r>
     <r>
       <rPr>
@@ -1087,7 +1083,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不可变的对象一定是线程安全的，无论是对象的方法实现还是方法的调用者，都不需要再采取任何的线程安全保障措施。“不可变”带来的安全性是最简单和最纯粹的。</t>
+      <t>完全满足给出的线程安全的定义。这个定义其实是很严格的，一个类要达到“不管运行时环境如何，调用者都不需要任何额外的同步措施”通常需要付出很大的，甚至有时候是不切实际的代价。在java API中标注自己是线程安全的类，大多数都不是绝对的线程安全。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1102,7 +1098,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>绝对线程安全：</t>
+      <t>相对线程安全：</t>
     </r>
     <r>
       <rPr>
@@ -1112,7 +1108,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>完全满足给出的线程安全的定义。这个定义其实是很严格的，一个类要达到“不管运行时环境如何，调用者都不需要任何额外的同步措施”通常需要付出很大的，甚至有时候是不切实际的代价。在java API中标注自己是线程安全的类，大多数都不是绝对的线程安全。</t>
+      <t>是我们通常意义上所讲的线程安全，它需要保证对这个对象单独的操作是线程安全的，我们在调用的时候不需要做额外的保障措施，但是对于一些特定顺序的连续调用，就可能需要再调用端使用额外的同步手段来保证调用的正确性。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1127,7 +1123,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>相对线程安全：</t>
+      <t>线程兼容：</t>
     </r>
     <r>
       <rPr>
@@ -1137,7 +1133,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是我们通常意义上所讲的线程安全，它需要保证对这个对象单独的操作是线程安全的，我们在调用的时候不需要做额外的保障措施，但是对于一些特定顺序的连续调用，就可能需要再调用端使用额外的同步手段来保证调用的正确性。</t>
+      <t>指对象本身并不是线程安全的，但是可以通过在调用端正确地使用同步手段来保证对象在并发环境中可以安全地使用，我们平常说一个类不是线程安全的，绝大多数时候指的是这一种情况。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,7 +1148,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程兼容：</t>
+      <t>线程对立：</t>
     </r>
     <r>
       <rPr>
@@ -1162,8 +1158,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>指对象本身并不是线程安全的，但是可以通过在调用端正确地使用同步手段来保证对象在并发环境中可以安全地使用，我们平常说一个类不是线程安全的，绝大多数时候指的是这一种情况。</t>
-    </r>
+      <t>指无论调用端是否采取了同步措施，都无法在多线程环境中并发使用的代码。由于java语言天生就具备多线程特性，线程对立这种排斥多线程的代码是很少出现的，而且通常都是有害的，应当尽量避免。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全的实现方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1177,7 +1177,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>线程对立：</t>
+      <t>互斥同步：</t>
     </r>
     <r>
       <rPr>
@@ -1187,61 +1187,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>指无论调用端是否采取了同步措施，都无法在多线程环境中并发使用的代码。由于java语言天生就具备多线程特性，线程对立这种排斥多线程的代码是很少出现的，而且通常都是有害的，应当尽量避免。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程安全的实现方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>互斥同步：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>是最常见的一种并发正确性保障手段。同步是指在多个线程并发访问共享数据时，保证共享数据在同一个时刻只被一个（或者是一些，使用信号量的时候）线程使用。而互斥是实现同步的一种手段，临界区、互斥量和信号量都是主要的互斥实现方式。因此，在这4个字里面，互斥是因，同步是果；互斥是方法，同步是目的。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>非阻塞同步：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>基于冲突检测的乐观并发策略，通俗地说，就是先进行操作，如果没有其他线程征用共享数据，那操作就成功了；如果共享数据有争用，产生了冲突，那就再采取其他的不长措施（最常见的补偿措施就是不断地重试，知道成功为止），这种乐观的并发策略的许多实现都不需要把线程挂起，因此这种同步操作称为非阻塞同步。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2305,6 +2251,60 @@
         <scheme val="minor"/>
       </rPr>
       <t>在一个线程内，按照程序代码顺序，书写在前面的操作先行发生于书写在后面的操作。准确地说，应该是控制流顺序而不是程序代码顺序，因为要考虑分支、循环等结构。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协同式调度：线程的执行时间由线程本身来控制，线程把自己的工作执行完了之后，要主动通知系统切换到另外一个线程上。协同式多线程的最大好处是实现简单，而且由于线程要把自己的事情干完后才会进行线程切换，切换操作对线程自己是可知的，所以没有什么线程同步的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限期等待（Timed Waiting）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处于这种状态的线程也不会被分配CPU执行时间，不过无需等待被其他线程显示地唤醒，在一定时间之后它们会由系统自动唤醒。以下方法会让线程进入限期等待状态：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非阻塞同步：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于冲突检测的乐观并发策略，通俗地说，就是先进行操作，如果没有其他线程争用共享数据，那操作就成功了；如果共享数据有争用，产生了冲突，那就再采取其他的补偿措施（最常见的补偿措施就是不断地重试，知道成功为止），这种乐观的并发策略的许多实现都不需要把线程挂起，因此这种同步操作称为非阻塞同步。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2540,6 +2540,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2557,27 +2578,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3921,10 +3921,10 @@
         <v>12</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="11:14" x14ac:dyDescent="0.15">
@@ -3938,7 +3938,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="11:14" x14ac:dyDescent="0.15">
@@ -3979,7 +3979,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4069,17 +4069,17 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -4103,7 +4103,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -4189,7 +4189,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4225,12 +4225,12 @@
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
@@ -4248,7 +4248,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -4259,20 +4259,20 @@
         <v>62</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
@@ -4301,7 +4301,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>68</v>
@@ -4313,7 +4313,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>69</v>
@@ -4342,7 +4342,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -4387,115 +4387,115 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="28"/>
+      <c r="B67" s="23"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="28"/>
+      <c r="B85" s="23"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B103" s="28"/>
+      <c r="B103" s="23"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="28"/>
+      <c r="B121" s="23"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B139" s="28"/>
+      <c r="B139" s="23"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="30"/>
+      <c r="A159" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
     </row>
     <row r="160" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
+      <c r="A161" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
     </row>
     <row r="162" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B163" s="30"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
+      <c r="A163" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
     </row>
     <row r="164" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="165" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
+      <c r="A165" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
     </row>
     <row r="166" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
+      <c r="A167" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A167:D167"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4669,1099 +4669,1102 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="A19" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="A31" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
+      <c r="A47" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
     </row>
     <row r="48" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31"/>
-      <c r="O93" s="31"/>
-      <c r="P93" s="31"/>
+      <c r="B93" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
+      <c r="B99" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
     </row>
     <row r="100" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="31"/>
-      <c r="P105" s="31"/>
+      <c r="B105" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="B117" s="31"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="31"/>
-      <c r="M117" s="31"/>
-      <c r="N117" s="31"/>
-      <c r="O117" s="31"/>
-      <c r="P117" s="31"/>
+      <c r="A117" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="21"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A121" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="31"/>
-      <c r="N121" s="31"/>
-      <c r="O121" s="31"/>
-      <c r="P121" s="31"/>
+      <c r="A121" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="21"/>
     </row>
     <row r="123" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-      <c r="M123" s="31"/>
-      <c r="N123" s="31"/>
-      <c r="O123" s="31"/>
-      <c r="P123" s="31"/>
+      <c r="B123" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
     </row>
     <row r="124" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="31"/>
-      <c r="M125" s="31"/>
-      <c r="N125" s="31"/>
-      <c r="O125" s="31"/>
-      <c r="P125" s="31"/>
+      <c r="B125" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="21"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B127" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B129" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B131" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B133" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="31"/>
-      <c r="L137" s="31"/>
-      <c r="M137" s="31"/>
-      <c r="N137" s="31"/>
-      <c r="O137" s="31"/>
-      <c r="P137" s="31"/>
+      <c r="A137" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+      <c r="O137" s="21"/>
+      <c r="P137" s="21"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
-      <c r="K141" s="31"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="31"/>
-      <c r="N141" s="31"/>
-      <c r="O141" s="31"/>
-      <c r="P141" s="31"/>
+      <c r="B141" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="21"/>
+      <c r="M141" s="21"/>
+      <c r="N141" s="21"/>
+      <c r="O141" s="21"/>
+      <c r="P141" s="21"/>
     </row>
     <row r="142" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
-      <c r="K143" s="31"/>
-      <c r="L143" s="31"/>
-      <c r="M143" s="31"/>
-      <c r="N143" s="31"/>
-      <c r="O143" s="31"/>
-      <c r="P143" s="31"/>
+      <c r="B143" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="21"/>
+      <c r="M143" s="21"/>
+      <c r="N143" s="21"/>
+      <c r="O143" s="21"/>
+      <c r="P143" s="21"/>
     </row>
     <row r="144" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="149" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
-      <c r="K149" s="31"/>
-      <c r="L149" s="31"/>
-      <c r="M149" s="31"/>
-      <c r="N149" s="31"/>
-      <c r="O149" s="31"/>
-      <c r="P149" s="31"/>
+      <c r="B149" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="21"/>
+      <c r="O149" s="21"/>
+      <c r="P149" s="21"/>
     </row>
     <row r="150" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="31"/>
-      <c r="L151" s="31"/>
-      <c r="M151" s="31"/>
-      <c r="N151" s="31"/>
-      <c r="O151" s="31"/>
-      <c r="P151" s="31"/>
+      <c r="B151" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+      <c r="J151" s="21"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="21"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="21"/>
+      <c r="O151" s="21"/>
+      <c r="P151" s="21"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="31"/>
-      <c r="H155" s="31"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
-      <c r="K155" s="31"/>
-      <c r="L155" s="31"/>
-      <c r="M155" s="31"/>
-      <c r="N155" s="31"/>
-      <c r="O155" s="31"/>
-      <c r="P155" s="31"/>
+      <c r="A155" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="21"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="21"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="21"/>
+      <c r="O155" s="21"/>
+      <c r="P155" s="21"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="31"/>
-      <c r="F159" s="31"/>
-      <c r="G159" s="31"/>
-      <c r="H159" s="31"/>
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
-      <c r="K159" s="31"/>
-      <c r="L159" s="31"/>
-      <c r="M159" s="31"/>
-      <c r="N159" s="31"/>
-      <c r="O159" s="31"/>
-      <c r="P159" s="31"/>
+      <c r="A159" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="21"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="21"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="31"/>
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
-      <c r="K163" s="31"/>
-      <c r="L163" s="31"/>
-      <c r="M163" s="31"/>
-      <c r="N163" s="31"/>
-      <c r="O163" s="31"/>
-      <c r="P163" s="31"/>
+      <c r="A163" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="21"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="21"/>
+      <c r="M163" s="21"/>
+      <c r="N163" s="21"/>
+      <c r="O163" s="21"/>
+      <c r="P163" s="21"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="32"/>
-      <c r="J167" s="32"/>
-      <c r="K167" s="32"/>
-      <c r="L167" s="32"/>
-      <c r="M167" s="32"/>
-      <c r="N167" s="32"/>
-      <c r="O167" s="32"/>
-      <c r="P167" s="32"/>
+      <c r="B167" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="22"/>
+      <c r="J167" s="22"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="22"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="22"/>
+      <c r="P167" s="22"/>
     </row>
     <row r="168" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="169" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="32"/>
-      <c r="I169" s="32"/>
-      <c r="J169" s="32"/>
-      <c r="K169" s="32"/>
-      <c r="L169" s="32"/>
-      <c r="M169" s="32"/>
-      <c r="N169" s="32"/>
-      <c r="O169" s="32"/>
-      <c r="P169" s="32"/>
+      <c r="B169" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="22"/>
+      <c r="J169" s="22"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="22"/>
+      <c r="N169" s="22"/>
+      <c r="O169" s="22"/>
+      <c r="P169" s="22"/>
     </row>
     <row r="170" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="171" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="32"/>
-      <c r="J171" s="32"/>
-      <c r="K171" s="32"/>
-      <c r="L171" s="32"/>
-      <c r="M171" s="32"/>
-      <c r="N171" s="32"/>
-      <c r="O171" s="32"/>
-      <c r="P171" s="32"/>
+      <c r="B171" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="22"/>
+      <c r="J171" s="22"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="22"/>
+      <c r="N171" s="22"/>
+      <c r="O171" s="22"/>
+      <c r="P171" s="22"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="B201" s="31"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="31"/>
-      <c r="F201" s="31"/>
-      <c r="G201" s="31"/>
-      <c r="H201" s="31"/>
-      <c r="I201" s="31"/>
-      <c r="J201" s="31"/>
-      <c r="K201" s="31"/>
-      <c r="L201" s="31"/>
-      <c r="M201" s="31"/>
-      <c r="N201" s="31"/>
-      <c r="O201" s="31"/>
-      <c r="P201" s="31"/>
+      <c r="A201" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
+      <c r="J201" s="21"/>
+      <c r="K201" s="21"/>
+      <c r="L201" s="21"/>
+      <c r="M201" s="21"/>
+      <c r="N201" s="21"/>
+      <c r="O201" s="21"/>
+      <c r="P201" s="21"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31"/>
-      <c r="E209" s="31"/>
-      <c r="F209" s="31"/>
-      <c r="G209" s="31"/>
-      <c r="H209" s="31"/>
-      <c r="I209" s="31"/>
-      <c r="J209" s="31"/>
-      <c r="K209" s="31"/>
-      <c r="L209" s="31"/>
-      <c r="M209" s="31"/>
-      <c r="N209" s="31"/>
-      <c r="O209" s="31"/>
-      <c r="P209" s="31"/>
+      <c r="A209" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B209" s="21"/>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="21"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="21"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="21"/>
+      <c r="O209" s="21"/>
+      <c r="P209" s="21"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A243" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="13"/>
-      <c r="B247" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="C247" s="30"/>
-      <c r="D247" s="30"/>
-      <c r="E247" s="30"/>
-      <c r="F247" s="30"/>
-      <c r="G247" s="30"/>
-      <c r="H247" s="30"/>
-      <c r="I247" s="30"/>
-      <c r="J247" s="30"/>
-      <c r="K247" s="30"/>
-      <c r="L247" s="30"/>
-      <c r="M247" s="30"/>
-      <c r="N247" s="30"/>
-      <c r="O247" s="30"/>
-      <c r="P247" s="30"/>
+      <c r="B247" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="20"/>
+      <c r="K247" s="20"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="20"/>
+      <c r="N247" s="20"/>
+      <c r="O247" s="20"/>
+      <c r="P247" s="20"/>
     </row>
     <row r="248" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B278" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="C278" s="30"/>
-      <c r="D278" s="30"/>
-      <c r="E278" s="30"/>
-      <c r="F278" s="30"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="30"/>
-      <c r="I278" s="30"/>
-      <c r="J278" s="30"/>
-      <c r="K278" s="30"/>
-      <c r="L278" s="30"/>
-      <c r="M278" s="30"/>
-      <c r="N278" s="30"/>
-      <c r="O278" s="30"/>
-      <c r="P278" s="30"/>
+      <c r="B278" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="20"/>
+      <c r="H278" s="20"/>
+      <c r="I278" s="20"/>
+      <c r="J278" s="20"/>
+      <c r="K278" s="20"/>
+      <c r="L278" s="20"/>
+      <c r="M278" s="20"/>
+      <c r="N278" s="20"/>
+      <c r="O278" s="20"/>
+      <c r="P278" s="20"/>
     </row>
     <row r="279" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="280" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B280" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="282" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C282" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="D282" s="31"/>
-      <c r="E282" s="31"/>
-      <c r="F282" s="31"/>
-      <c r="G282" s="31"/>
-      <c r="H282" s="31"/>
-      <c r="I282" s="31"/>
-      <c r="J282" s="31"/>
-      <c r="K282" s="31"/>
-      <c r="L282" s="31"/>
-      <c r="M282" s="31"/>
-      <c r="N282" s="31"/>
-      <c r="O282" s="31"/>
-      <c r="P282" s="31"/>
+      <c r="C282" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D282" s="21"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="21"/>
+      <c r="H282" s="21"/>
+      <c r="I282" s="21"/>
+      <c r="J282" s="21"/>
+      <c r="K282" s="21"/>
+      <c r="L282" s="21"/>
+      <c r="M282" s="21"/>
+      <c r="N282" s="21"/>
+      <c r="O282" s="21"/>
+      <c r="P282" s="21"/>
     </row>
     <row r="283" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="284" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C284" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D284" s="31"/>
-      <c r="E284" s="31"/>
-      <c r="F284" s="31"/>
-      <c r="G284" s="31"/>
-      <c r="H284" s="31"/>
-      <c r="I284" s="31"/>
-      <c r="J284" s="31"/>
-      <c r="K284" s="31"/>
-      <c r="L284" s="31"/>
-      <c r="M284" s="31"/>
-      <c r="N284" s="31"/>
-      <c r="O284" s="31"/>
-      <c r="P284" s="31"/>
+      <c r="C284" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D284" s="21"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="21"/>
+      <c r="J284" s="21"/>
+      <c r="K284" s="21"/>
+      <c r="L284" s="21"/>
+      <c r="M284" s="21"/>
+      <c r="N284" s="21"/>
+      <c r="O284" s="21"/>
+      <c r="P284" s="21"/>
     </row>
     <row r="285" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="286" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B286" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="C286" s="32"/>
-      <c r="D286" s="32"/>
-      <c r="E286" s="32"/>
-      <c r="F286" s="32"/>
-      <c r="G286" s="32"/>
-      <c r="H286" s="32"/>
-      <c r="I286" s="32"/>
-      <c r="J286" s="32"/>
-      <c r="K286" s="32"/>
-      <c r="L286" s="32"/>
-      <c r="M286" s="32"/>
-      <c r="N286" s="32"/>
-      <c r="O286" s="32"/>
-      <c r="P286" s="32"/>
+      <c r="B286" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C286" s="22"/>
+      <c r="D286" s="22"/>
+      <c r="E286" s="22"/>
+      <c r="F286" s="22"/>
+      <c r="G286" s="22"/>
+      <c r="H286" s="22"/>
+      <c r="I286" s="22"/>
+      <c r="J286" s="22"/>
+      <c r="K286" s="22"/>
+      <c r="L286" s="22"/>
+      <c r="M286" s="22"/>
+      <c r="N286" s="22"/>
+      <c r="O286" s="22"/>
+      <c r="P286" s="22"/>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A288" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="290" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
-      <c r="D290" s="31"/>
-      <c r="E290" s="31"/>
-      <c r="F290" s="31"/>
-      <c r="G290" s="31"/>
-      <c r="H290" s="31"/>
-      <c r="I290" s="31"/>
-      <c r="J290" s="31"/>
-      <c r="K290" s="31"/>
-      <c r="L290" s="31"/>
-      <c r="M290" s="31"/>
-      <c r="N290" s="31"/>
-      <c r="O290" s="31"/>
-      <c r="P290" s="31"/>
+      <c r="A290" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B290" s="21"/>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="21"/>
+      <c r="K290" s="21"/>
+      <c r="L290" s="21"/>
+      <c r="M290" s="21"/>
+      <c r="N290" s="21"/>
+      <c r="O290" s="21"/>
+      <c r="P290" s="21"/>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A292" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="B294" s="31"/>
-      <c r="C294" s="31"/>
-      <c r="D294" s="31"/>
-      <c r="E294" s="31"/>
-      <c r="F294" s="31"/>
-      <c r="G294" s="31"/>
-      <c r="H294" s="31"/>
-      <c r="I294" s="31"/>
-      <c r="J294" s="31"/>
-      <c r="K294" s="31"/>
-      <c r="L294" s="31"/>
-      <c r="M294" s="31"/>
-      <c r="N294" s="31"/>
-      <c r="O294" s="31"/>
-      <c r="P294" s="31"/>
+      <c r="A294" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B294" s="21"/>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="21"/>
+      <c r="J294" s="21"/>
+      <c r="K294" s="21"/>
+      <c r="L294" s="21"/>
+      <c r="M294" s="21"/>
+      <c r="N294" s="21"/>
+      <c r="O294" s="21"/>
+      <c r="P294" s="21"/>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A296" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B300" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="302" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B302" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="C302" s="31"/>
-      <c r="D302" s="31"/>
-      <c r="E302" s="31"/>
-      <c r="F302" s="31"/>
-      <c r="G302" s="31"/>
-      <c r="H302" s="31"/>
-      <c r="I302" s="31"/>
-      <c r="J302" s="31"/>
-      <c r="K302" s="31"/>
-      <c r="L302" s="31"/>
-      <c r="M302" s="31"/>
-      <c r="N302" s="31"/>
-      <c r="O302" s="31"/>
-      <c r="P302" s="31"/>
+      <c r="B302" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C302" s="21"/>
+      <c r="D302" s="21"/>
+      <c r="E302" s="21"/>
+      <c r="F302" s="21"/>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21"/>
+      <c r="I302" s="21"/>
+      <c r="J302" s="21"/>
+      <c r="K302" s="21"/>
+      <c r="L302" s="21"/>
+      <c r="M302" s="21"/>
+      <c r="N302" s="21"/>
+      <c r="O302" s="21"/>
+      <c r="P302" s="21"/>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B304" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="306" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="308" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B308" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="310" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B310" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C310" s="31"/>
-      <c r="D310" s="31"/>
-      <c r="E310" s="31"/>
-      <c r="F310" s="31"/>
-      <c r="G310" s="31"/>
-      <c r="H310" s="31"/>
-      <c r="I310" s="31"/>
-      <c r="J310" s="31"/>
-      <c r="K310" s="31"/>
-      <c r="L310" s="31"/>
-      <c r="M310" s="31"/>
-      <c r="N310" s="31"/>
-      <c r="O310" s="31"/>
-      <c r="P310" s="31"/>
+      <c r="B310" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C310" s="21"/>
+      <c r="D310" s="21"/>
+      <c r="E310" s="21"/>
+      <c r="F310" s="21"/>
+      <c r="G310" s="21"/>
+      <c r="H310" s="21"/>
+      <c r="I310" s="21"/>
+      <c r="J310" s="21"/>
+      <c r="K310" s="21"/>
+      <c r="L310" s="21"/>
+      <c r="M310" s="21"/>
+      <c r="N310" s="21"/>
+      <c r="O310" s="21"/>
+      <c r="P310" s="21"/>
     </row>
     <row r="312" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B312" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="314" spans="2:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B314" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C314" s="31"/>
-      <c r="D314" s="31"/>
-      <c r="E314" s="31"/>
-      <c r="F314" s="31"/>
-      <c r="G314" s="31"/>
-      <c r="H314" s="31"/>
-      <c r="I314" s="31"/>
-      <c r="J314" s="31"/>
-      <c r="K314" s="31"/>
-      <c r="L314" s="31"/>
-      <c r="M314" s="31"/>
-      <c r="N314" s="31"/>
-      <c r="O314" s="31"/>
-      <c r="P314" s="31"/>
+      <c r="B314" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C314" s="21"/>
+      <c r="D314" s="21"/>
+      <c r="E314" s="21"/>
+      <c r="F314" s="21"/>
+      <c r="G314" s="21"/>
+      <c r="H314" s="21"/>
+      <c r="I314" s="21"/>
+      <c r="J314" s="21"/>
+      <c r="K314" s="21"/>
+      <c r="L314" s="21"/>
+      <c r="M314" s="21"/>
+      <c r="N314" s="21"/>
+      <c r="O314" s="21"/>
+      <c r="P314" s="21"/>
     </row>
     <row r="315" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="316" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="317" spans="2:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="318" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B310:P310"/>
-    <mergeCell ref="B314:P314"/>
-    <mergeCell ref="C284:P284"/>
-    <mergeCell ref="A290:P290"/>
-    <mergeCell ref="A294:P294"/>
-    <mergeCell ref="B302:P302"/>
-    <mergeCell ref="B286:P286"/>
+    <mergeCell ref="A163:P163"/>
+    <mergeCell ref="B167:P167"/>
+    <mergeCell ref="B169:P169"/>
+    <mergeCell ref="B171:P171"/>
+    <mergeCell ref="A201:P201"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A47:P47"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="B99:P99"/>
     <mergeCell ref="B105:P105"/>
     <mergeCell ref="A209:P209"/>
     <mergeCell ref="B247:P247"/>
@@ -5778,16 +5781,13 @@
     <mergeCell ref="B149:P149"/>
     <mergeCell ref="B151:P151"/>
     <mergeCell ref="A155:P155"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A47:P47"/>
-    <mergeCell ref="B93:P93"/>
-    <mergeCell ref="B99:P99"/>
-    <mergeCell ref="A163:P163"/>
-    <mergeCell ref="B167:P167"/>
-    <mergeCell ref="B169:P169"/>
-    <mergeCell ref="B171:P171"/>
-    <mergeCell ref="A201:P201"/>
+    <mergeCell ref="B310:P310"/>
+    <mergeCell ref="B314:P314"/>
+    <mergeCell ref="C284:P284"/>
+    <mergeCell ref="A290:P290"/>
+    <mergeCell ref="A294:P294"/>
+    <mergeCell ref="B302:P302"/>
+    <mergeCell ref="B286:P286"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5903,33 +5903,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:P100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253:P253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
@@ -5967,7 +5967,7 @@
     <row r="41" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5979,7 +5979,7 @@
     <row r="45" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5989,12 +5989,12 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
@@ -6015,50 +6015,50 @@
     </row>
     <row r="57" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
     </row>
     <row r="59" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
     </row>
     <row r="61" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6074,15 +6074,15 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
+      <c r="A68" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
@@ -6090,197 +6090,197 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
     </row>
     <row r="73" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="74" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
     </row>
     <row r="75" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
+      <c r="A76" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
     </row>
     <row r="80" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
     </row>
     <row r="81" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
     </row>
     <row r="83" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
     </row>
     <row r="88" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
+      <c r="A88" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
     </row>
     <row r="92" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
+      <c r="A92" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
     </row>
     <row r="93" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="1:16" x14ac:dyDescent="0.15">
@@ -6302,45 +6302,45 @@
     </row>
     <row r="99" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
     </row>
     <row r="101" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
-      <c r="P102" s="31"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
     </row>
     <row r="103" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="1:16" x14ac:dyDescent="0.15">
@@ -6412,562 +6412,549 @@
       </c>
     </row>
     <row r="177" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="31" t="s">
+      <c r="A177" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B177" s="31"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="31"/>
-      <c r="H177" s="31"/>
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
-      <c r="K177" s="31"/>
-      <c r="L177" s="31"/>
-      <c r="M177" s="31"/>
-      <c r="N177" s="31"/>
-      <c r="O177" s="31"/>
-      <c r="P177" s="31"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="21"/>
+      <c r="M177" s="21"/>
+      <c r="N177" s="21"/>
+      <c r="O177" s="21"/>
+      <c r="P177" s="21"/>
     </row>
     <row r="179" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B179" s="31"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="31"/>
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
-      <c r="K179" s="31"/>
-      <c r="L179" s="31"/>
-      <c r="M179" s="31"/>
-      <c r="N179" s="31"/>
-      <c r="O179" s="31"/>
-      <c r="P179" s="31"/>
+      <c r="A179" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
+      <c r="J179" s="21"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="21"/>
+      <c r="M179" s="21"/>
+      <c r="N179" s="21"/>
+      <c r="O179" s="21"/>
+      <c r="P179" s="21"/>
     </row>
     <row r="180" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="181" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B181" s="31"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="31"/>
-      <c r="H181" s="31"/>
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
-      <c r="K181" s="31"/>
-      <c r="L181" s="31"/>
-      <c r="M181" s="31"/>
-      <c r="N181" s="31"/>
-      <c r="O181" s="31"/>
-      <c r="P181" s="31"/>
+      <c r="A181" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
+      <c r="J181" s="21"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="21"/>
+      <c r="M181" s="21"/>
+      <c r="N181" s="21"/>
+      <c r="O181" s="21"/>
+      <c r="P181" s="21"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="199" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="31"/>
-      <c r="E199" s="31"/>
-      <c r="F199" s="31"/>
-      <c r="G199" s="31"/>
-      <c r="H199" s="31"/>
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
-      <c r="K199" s="31"/>
-      <c r="L199" s="31"/>
-      <c r="M199" s="31"/>
-      <c r="N199" s="31"/>
-      <c r="O199" s="31"/>
-      <c r="P199" s="31"/>
+      <c r="A199" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="21"/>
+      <c r="J199" s="21"/>
+      <c r="K199" s="21"/>
+      <c r="L199" s="21"/>
+      <c r="M199" s="21"/>
+      <c r="N199" s="21"/>
+      <c r="O199" s="21"/>
+      <c r="P199" s="21"/>
     </row>
     <row r="200" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B211" s="31"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="31"/>
-      <c r="F211" s="31"/>
-      <c r="G211" s="31"/>
-      <c r="H211" s="31"/>
-      <c r="I211" s="31"/>
-      <c r="J211" s="31"/>
-      <c r="K211" s="31"/>
-      <c r="L211" s="31"/>
-      <c r="M211" s="31"/>
-      <c r="N211" s="31"/>
-      <c r="O211" s="31"/>
-      <c r="P211" s="31"/>
+      <c r="A211" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
+      <c r="J211" s="21"/>
+      <c r="K211" s="21"/>
+      <c r="L211" s="21"/>
+      <c r="M211" s="21"/>
+      <c r="N211" s="21"/>
+      <c r="O211" s="21"/>
+      <c r="P211" s="21"/>
     </row>
     <row r="212" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A215" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A233" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B235" s="31"/>
-      <c r="C235" s="31"/>
-      <c r="D235" s="31"/>
-      <c r="E235" s="31"/>
-      <c r="F235" s="31"/>
-      <c r="G235" s="31"/>
-      <c r="H235" s="31"/>
-      <c r="I235" s="31"/>
-      <c r="J235" s="31"/>
-      <c r="K235" s="31"/>
-      <c r="L235" s="31"/>
-      <c r="M235" s="31"/>
-      <c r="N235" s="31"/>
-      <c r="O235" s="31"/>
-      <c r="P235" s="31"/>
+      <c r="A235" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B235" s="21"/>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="21"/>
+      <c r="K235" s="21"/>
+      <c r="L235" s="21"/>
+      <c r="M235" s="21"/>
+      <c r="N235" s="21"/>
+      <c r="O235" s="21"/>
+      <c r="P235" s="21"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A237" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="31"/>
-      <c r="E239" s="31"/>
-      <c r="F239" s="31"/>
-      <c r="G239" s="31"/>
-      <c r="H239" s="31"/>
-      <c r="I239" s="31"/>
-      <c r="J239" s="31"/>
-      <c r="K239" s="31"/>
-      <c r="L239" s="31"/>
-      <c r="M239" s="31"/>
-      <c r="N239" s="31"/>
-      <c r="O239" s="31"/>
-      <c r="P239" s="31"/>
+      <c r="A239" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B239" s="21"/>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="21"/>
+      <c r="K239" s="21"/>
+      <c r="L239" s="21"/>
+      <c r="M239" s="21"/>
+      <c r="N239" s="21"/>
+      <c r="O239" s="21"/>
+      <c r="P239" s="21"/>
     </row>
     <row r="240" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="241" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
-      <c r="D241" s="31"/>
-      <c r="E241" s="31"/>
-      <c r="F241" s="31"/>
-      <c r="G241" s="31"/>
-      <c r="H241" s="31"/>
-      <c r="I241" s="31"/>
-      <c r="J241" s="31"/>
-      <c r="K241" s="31"/>
-      <c r="L241" s="31"/>
-      <c r="M241" s="31"/>
-      <c r="N241" s="31"/>
-      <c r="O241" s="31"/>
-      <c r="P241" s="31"/>
+      <c r="A241" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" s="21"/>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
+      <c r="G241" s="21"/>
+      <c r="H241" s="21"/>
+      <c r="I241" s="21"/>
+      <c r="J241" s="21"/>
+      <c r="K241" s="21"/>
+      <c r="L241" s="21"/>
+      <c r="M241" s="21"/>
+      <c r="N241" s="21"/>
+      <c r="O241" s="21"/>
+      <c r="P241" s="21"/>
     </row>
     <row r="242" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="243" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B243" s="31"/>
-      <c r="C243" s="31"/>
-      <c r="D243" s="31"/>
-      <c r="E243" s="31"/>
-      <c r="F243" s="31"/>
-      <c r="G243" s="31"/>
-      <c r="H243" s="31"/>
-      <c r="I243" s="31"/>
-      <c r="J243" s="31"/>
-      <c r="K243" s="31"/>
-      <c r="L243" s="31"/>
-      <c r="M243" s="31"/>
-      <c r="N243" s="31"/>
-      <c r="O243" s="31"/>
-      <c r="P243" s="31"/>
+      <c r="A243" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B243" s="21"/>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="21"/>
+      <c r="K243" s="21"/>
+      <c r="L243" s="21"/>
+      <c r="M243" s="21"/>
+      <c r="N243" s="21"/>
+      <c r="O243" s="21"/>
+      <c r="P243" s="21"/>
     </row>
     <row r="244" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="245" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
-      <c r="D245" s="31"/>
-      <c r="E245" s="31"/>
-      <c r="F245" s="31"/>
-      <c r="G245" s="31"/>
-      <c r="H245" s="31"/>
-      <c r="I245" s="31"/>
-      <c r="J245" s="31"/>
-      <c r="K245" s="31"/>
-      <c r="L245" s="31"/>
-      <c r="M245" s="31"/>
-      <c r="N245" s="31"/>
-      <c r="O245" s="31"/>
-      <c r="P245" s="31"/>
+      <c r="A245" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="21"/>
+      <c r="K245" s="21"/>
+      <c r="L245" s="21"/>
+      <c r="M245" s="21"/>
+      <c r="N245" s="21"/>
+      <c r="O245" s="21"/>
+      <c r="P245" s="21"/>
     </row>
     <row r="246" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B247" s="31"/>
-      <c r="C247" s="31"/>
-      <c r="D247" s="31"/>
-      <c r="E247" s="31"/>
-      <c r="F247" s="31"/>
-      <c r="G247" s="31"/>
-      <c r="H247" s="31"/>
-      <c r="I247" s="31"/>
-      <c r="J247" s="31"/>
-      <c r="K247" s="31"/>
-      <c r="L247" s="31"/>
-      <c r="M247" s="31"/>
-      <c r="N247" s="31"/>
-      <c r="O247" s="31"/>
-      <c r="P247" s="31"/>
+      <c r="A247" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B247" s="21"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="21"/>
+      <c r="K247" s="21"/>
+      <c r="L247" s="21"/>
+      <c r="M247" s="21"/>
+      <c r="N247" s="21"/>
+      <c r="O247" s="21"/>
+      <c r="P247" s="21"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A249" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B251" s="30"/>
-      <c r="C251" s="30"/>
-      <c r="D251" s="30"/>
-      <c r="E251" s="30"/>
-      <c r="F251" s="30"/>
-      <c r="G251" s="30"/>
-      <c r="H251" s="30"/>
-      <c r="I251" s="30"/>
-      <c r="J251" s="30"/>
-      <c r="K251" s="30"/>
-      <c r="L251" s="30"/>
-      <c r="M251" s="30"/>
-      <c r="N251" s="30"/>
-      <c r="O251" s="30"/>
-      <c r="P251" s="30"/>
+      <c r="A251" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="20"/>
+      <c r="K251" s="20"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="20"/>
+      <c r="N251" s="20"/>
+      <c r="O251" s="20"/>
+      <c r="P251" s="20"/>
     </row>
     <row r="252" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="253" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B253" s="30"/>
-      <c r="C253" s="30"/>
-      <c r="D253" s="30"/>
-      <c r="E253" s="30"/>
-      <c r="F253" s="30"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="30"/>
-      <c r="I253" s="30"/>
-      <c r="J253" s="30"/>
-      <c r="K253" s="30"/>
-      <c r="L253" s="30"/>
-      <c r="M253" s="30"/>
-      <c r="N253" s="30"/>
-      <c r="O253" s="30"/>
-      <c r="P253" s="30"/>
+      <c r="A253" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="20"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="20"/>
+      <c r="K253" s="20"/>
+      <c r="L253" s="20"/>
+      <c r="M253" s="20"/>
+      <c r="N253" s="20"/>
+      <c r="O253" s="20"/>
+      <c r="P253" s="20"/>
     </row>
     <row r="254" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="255" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
-      <c r="D255" s="31"/>
-      <c r="E255" s="31"/>
-      <c r="F255" s="31"/>
-      <c r="G255" s="31"/>
-      <c r="H255" s="31"/>
-      <c r="I255" s="31"/>
-      <c r="J255" s="31"/>
-      <c r="K255" s="31"/>
-      <c r="L255" s="31"/>
-      <c r="M255" s="31"/>
-      <c r="N255" s="31"/>
-      <c r="O255" s="31"/>
-      <c r="P255" s="31"/>
+      <c r="A255" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="21"/>
+      <c r="K255" s="21"/>
+      <c r="L255" s="21"/>
+      <c r="M255" s="21"/>
+      <c r="N255" s="21"/>
+      <c r="O255" s="21"/>
+      <c r="P255" s="21"/>
     </row>
     <row r="256" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="257" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B257" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C257" s="31"/>
-      <c r="D257" s="31"/>
-      <c r="E257" s="31"/>
-      <c r="F257" s="31"/>
-      <c r="G257" s="31"/>
-      <c r="H257" s="31"/>
-      <c r="I257" s="31"/>
-      <c r="J257" s="31"/>
-      <c r="K257" s="31"/>
-      <c r="L257" s="31"/>
-      <c r="M257" s="31"/>
-      <c r="N257" s="31"/>
-      <c r="O257" s="31"/>
-      <c r="P257" s="31"/>
+      <c r="B257" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+      <c r="J257" s="21"/>
+      <c r="K257" s="21"/>
+      <c r="L257" s="21"/>
+      <c r="M257" s="21"/>
+      <c r="N257" s="21"/>
+      <c r="O257" s="21"/>
+      <c r="P257" s="21"/>
     </row>
     <row r="258" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="259" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B259" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C259" s="30"/>
-      <c r="D259" s="30"/>
-      <c r="E259" s="30"/>
-      <c r="F259" s="30"/>
-      <c r="G259" s="30"/>
-      <c r="H259" s="30"/>
-      <c r="I259" s="30"/>
-      <c r="J259" s="30"/>
-      <c r="K259" s="30"/>
-      <c r="L259" s="30"/>
-      <c r="M259" s="30"/>
-      <c r="N259" s="30"/>
-      <c r="O259" s="30"/>
-      <c r="P259" s="30"/>
+      <c r="B259" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C259" s="20"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="20"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="20"/>
+      <c r="L259" s="20"/>
+      <c r="M259" s="20"/>
+      <c r="N259" s="20"/>
+      <c r="O259" s="20"/>
+      <c r="P259" s="20"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A261" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A263" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="265" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B265" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="267" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B267" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C267" s="30"/>
-      <c r="D267" s="30"/>
-      <c r="E267" s="30"/>
-      <c r="F267" s="30"/>
-      <c r="G267" s="30"/>
-      <c r="H267" s="30"/>
-      <c r="I267" s="30"/>
-      <c r="J267" s="30"/>
-      <c r="K267" s="30"/>
-      <c r="L267" s="30"/>
-      <c r="M267" s="30"/>
-      <c r="N267" s="30"/>
-      <c r="O267" s="30"/>
-      <c r="P267" s="30"/>
+      <c r="B267" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="20"/>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="20"/>
+      <c r="K267" s="20"/>
+      <c r="L267" s="20"/>
+      <c r="M267" s="20"/>
+      <c r="N267" s="20"/>
+      <c r="O267" s="20"/>
+      <c r="P267" s="20"/>
     </row>
     <row r="268" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="269" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B269" s="30"/>
-      <c r="C269" s="30"/>
-      <c r="D269" s="30"/>
-      <c r="E269" s="30"/>
-      <c r="F269" s="30"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="30"/>
-      <c r="I269" s="30"/>
-      <c r="J269" s="30"/>
-      <c r="K269" s="30"/>
-      <c r="L269" s="30"/>
-      <c r="M269" s="30"/>
-      <c r="N269" s="30"/>
-      <c r="O269" s="30"/>
-      <c r="P269" s="30"/>
+      <c r="A269" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
+      <c r="N269" s="20"/>
+      <c r="O269" s="20"/>
+      <c r="P269" s="20"/>
     </row>
     <row r="270" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="271" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="273" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B273" s="30"/>
-      <c r="C273" s="30"/>
-      <c r="D273" s="30"/>
-      <c r="E273" s="30"/>
-      <c r="F273" s="30"/>
-      <c r="G273" s="30"/>
-      <c r="H273" s="30"/>
-      <c r="I273" s="30"/>
-      <c r="J273" s="30"/>
-      <c r="K273" s="30"/>
-      <c r="L273" s="30"/>
-      <c r="M273" s="30"/>
-      <c r="N273" s="30"/>
-      <c r="O273" s="30"/>
-      <c r="P273" s="30"/>
+      <c r="A273" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="20"/>
+      <c r="K273" s="20"/>
+      <c r="L273" s="20"/>
+      <c r="M273" s="20"/>
+      <c r="N273" s="20"/>
+      <c r="O273" s="20"/>
+      <c r="P273" s="20"/>
     </row>
     <row r="274" spans="1:16" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="275" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B275" s="30"/>
-      <c r="C275" s="30"/>
-      <c r="D275" s="30"/>
-      <c r="E275" s="30"/>
-      <c r="F275" s="30"/>
-      <c r="G275" s="30"/>
-      <c r="H275" s="30"/>
-      <c r="I275" s="30"/>
-      <c r="J275" s="30"/>
-      <c r="K275" s="30"/>
-      <c r="L275" s="30"/>
-      <c r="M275" s="30"/>
-      <c r="N275" s="30"/>
-      <c r="O275" s="30"/>
-      <c r="P275" s="30"/>
+      <c r="A275" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="20"/>
+      <c r="K275" s="20"/>
+      <c r="L275" s="20"/>
+      <c r="M275" s="20"/>
+      <c r="N275" s="20"/>
+      <c r="O275" s="20"/>
+      <c r="P275" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B259:P259"/>
-    <mergeCell ref="B267:P267"/>
-    <mergeCell ref="A269:P269"/>
-    <mergeCell ref="A273:P273"/>
-    <mergeCell ref="A275:P275"/>
-    <mergeCell ref="A247:P247"/>
-    <mergeCell ref="A251:P251"/>
-    <mergeCell ref="A253:P253"/>
-    <mergeCell ref="A255:P255"/>
-    <mergeCell ref="B257:P257"/>
-    <mergeCell ref="A235:P235"/>
-    <mergeCell ref="A239:P239"/>
-    <mergeCell ref="A241:P241"/>
-    <mergeCell ref="A243:P243"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A199:P199"/>
+    <mergeCell ref="A211:P211"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A177:P177"/>
+    <mergeCell ref="A181:P181"/>
+    <mergeCell ref="A179:P179"/>
     <mergeCell ref="A92:P92"/>
     <mergeCell ref="A68:G68"/>
     <mergeCell ref="A72:P72"/>
@@ -6980,13 +6967,26 @@
     <mergeCell ref="A86:H86"/>
     <mergeCell ref="A88:P88"/>
     <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A199:P199"/>
-    <mergeCell ref="A211:P211"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A177:P177"/>
-    <mergeCell ref="A181:P181"/>
-    <mergeCell ref="A179:P179"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A235:P235"/>
+    <mergeCell ref="A239:P239"/>
+    <mergeCell ref="A241:P241"/>
+    <mergeCell ref="A243:P243"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A247:P247"/>
+    <mergeCell ref="A251:P251"/>
+    <mergeCell ref="A253:P253"/>
+    <mergeCell ref="A255:P255"/>
+    <mergeCell ref="B257:P257"/>
+    <mergeCell ref="B259:P259"/>
+    <mergeCell ref="B267:P267"/>
+    <mergeCell ref="A269:P269"/>
+    <mergeCell ref="A273:P273"/>
+    <mergeCell ref="A275:P275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
